--- a/Interpolación/Ortogonalidad.xlsx
+++ b/Interpolación/Ortogonalidad.xlsx
@@ -35,9 +35,6 @@
     <t>Xk</t>
   </si>
   <si>
-    <t>Xk = cos( ( ( 2*K - 1 ) / ( 2*n ))*pi )</t>
-  </si>
-  <si>
     <t>Fracción de pi</t>
   </si>
   <si>
@@ -102,6 +99,9 @@
   </si>
   <si>
     <t>T20(Xk)</t>
+  </si>
+  <si>
+    <t>Xk = cos( ( ( 2*K + 1 ) / ( 2*n ))*pi )</t>
   </si>
 </sst>
 </file>
@@ -111,16 +111,8 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#\ ???/???"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -148,7 +140,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -165,9 +157,10 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -451,7 +444,7 @@
   <dimension ref="A2:X22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -468,81 +461,84 @@
         <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>3</v>
-      </c>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="D3" s="7"/>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" t="s">
         <v>5</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>6</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>7</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>8</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>9</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>10</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>11</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>12</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" t="s">
         <v>13</v>
       </c>
-      <c r="M4" t="s">
+      <c r="N4" t="s">
         <v>14</v>
       </c>
-      <c r="N4" t="s">
+      <c r="O4" t="s">
         <v>15</v>
       </c>
-      <c r="O4" t="s">
+      <c r="P4" t="s">
         <v>16</v>
       </c>
-      <c r="P4" t="s">
+      <c r="Q4" t="s">
         <v>17</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="R4" t="s">
         <v>18</v>
       </c>
-      <c r="R4" t="s">
+      <c r="S4" t="s">
         <v>19</v>
       </c>
-      <c r="S4" t="s">
+      <c r="T4" t="s">
         <v>20</v>
       </c>
-      <c r="T4" t="s">
+      <c r="U4" t="s">
         <v>21</v>
       </c>
-      <c r="U4" t="s">
+      <c r="V4" t="s">
         <v>22</v>
       </c>
-      <c r="V4" t="s">
+      <c r="W4" t="s">
         <v>23</v>
       </c>
-      <c r="W4" t="s">
+      <c r="X4" t="s">
         <v>24</v>
-      </c>
-      <c r="X4" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.25">
@@ -1209,27 +1205,27 @@
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.25">
       <c r="D16" t="s">
+        <v>4</v>
+      </c>
+      <c r="E16" t="s">
         <v>5</v>
       </c>
-      <c r="E16" t="s">
+      <c r="F16" t="s">
         <v>6</v>
       </c>
-      <c r="F16" t="s">
+      <c r="G16" t="s">
         <v>7</v>
       </c>
-      <c r="G16" t="s">
+      <c r="H16" t="s">
         <v>8</v>
       </c>
-      <c r="H16" t="s">
+      <c r="I16" t="s">
         <v>9</v>
-      </c>
-      <c r="I16" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="17" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D17" s="5">
         <f>SUMPRODUCT($D$5:$D$10,$D$5:$D$10)</f>
@@ -1258,7 +1254,7 @@
     </row>
     <row r="18" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D18" s="5">
         <f>SUMPRODUCT($E$5:$E$10,D$5:D$10)</f>
@@ -1287,7 +1283,7 @@
     </row>
     <row r="19" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D19" s="5">
         <f>SUMPRODUCT($F$5:$F$10,D$5:D$10)</f>
@@ -1316,7 +1312,7 @@
     </row>
     <row r="20" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D20" s="5">
         <f>SUMPRODUCT($G$5:$G$10,D$5:D$10)</f>
@@ -1345,7 +1341,7 @@
     </row>
     <row r="21" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D21" s="5">
         <f>SUMPRODUCT($H$5:$H$10,D$5:D$10)</f>
@@ -1374,7 +1370,7 @@
     </row>
     <row r="22" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D22" s="5">
         <f>SUMPRODUCT($I$5:$I$10,D$5:D$10)</f>

--- a/Interpolación/Ortogonalidad.xlsx
+++ b/Interpolación/Ortogonalidad.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18870" windowHeight="7125"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18870" windowHeight="7125" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="36">
   <si>
     <t>n</t>
   </si>
@@ -103,6 +104,36 @@
   <si>
     <t>Xk = cos( ( ( 2*K + 1 ) / ( 2*n ))*pi )</t>
   </si>
+  <si>
+    <t>fracción</t>
+  </si>
+  <si>
+    <t>Norma</t>
+  </si>
+  <si>
+    <t>Unitarios</t>
+  </si>
+  <si>
+    <t>Coeficientes</t>
+  </si>
+  <si>
+    <t>Aproximación</t>
+  </si>
+  <si>
+    <t>f(x) = cos(x)</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>Valores de los Polinomios</t>
+  </si>
+  <si>
+    <t>Valores de los Polinomios Normalizados</t>
+  </si>
+  <si>
+    <t>Suma</t>
+  </si>
 </sst>
 </file>
 
@@ -111,7 +142,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#\ ???/???"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -119,16 +150,45 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -136,11 +196,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -161,6 +236,14 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -176,6 +259,2449 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-MX"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja2!$B$30</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>f(x) = cos(x)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Hoja2!$A$31:$A$38</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.98078528040323043</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.83146961230254524</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.55557023301960229</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.19509032201612833</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.19509032201612819</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.55557023301960196</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.83146961230254535</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-0.98078528040323043</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Hoja2!$B$31:$B$38</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.55637020177503194</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.67379055865540427</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.84959982163765113</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.98103016416377897</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.98103016416377897</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.84959982163765124</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.67379055865540416</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.55637020177503194</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C657-4E19-939E-DF8114B16842}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="390486016"/>
+        <c:axId val="390487656"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="390486016"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-MX"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="390487656"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="390487656"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-MX"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="390486016"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-MX"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja2!$D$108</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>f(x) = cos(x)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Hoja2!$C$109:$C$159</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="51"/>
+                <c:pt idx="0">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.98078528040323043</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.92</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.88</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.83146961230254535</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.76</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-0.72</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-0.67999999999999994</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-0.64</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-0.6</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-0.55557023301960196</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-0.52</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-0.48</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-0.43999999999999995</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-0.4</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-0.36</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-0.31999999999999995</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-0.28000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-0.24</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-0.19509032201612819</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-0.16000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-0.12</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-7.999999999999996E-2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-4.0000000000000036E-2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>4.0000000000000036E-2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>8.0000000000000071E-2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.12000000000000011</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.15999999999999992</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.19509032201612833</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.24</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.28000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.32000000000000006</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.3600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.40000000000000013</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.43999999999999995</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.48</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.52</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.55557023301960229</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.60000000000000009</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.64000000000000012</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.67999999999999994</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.72</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.76</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.83146961230254524</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.88000000000000012</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.91999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.98078528040323043</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Hoja2!$D$109:$D$159</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="51"/>
+                <c:pt idx="0">
+                  <c:v>0.54030230586813977</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.57351998607245669</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.60582015664346278</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.63715114419858021</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.66746282584130812</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.69670670934716539</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.7248360107409052</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.75180572914089505</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.77757271875092793</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.80209575788429266</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.82533561490967833</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.84725511101341611</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.86781917967764988</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.88699492277928416</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.90475166321996348</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.9210609940028851</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.93589682367793481</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.94923541808244083</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.96105543831077089</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.97133797485202966</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.98006657784124163</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.98722728337562693</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.99280863585386625</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.99680170630261944</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.99920010666097792</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.99920010666097792</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.99680170630261933</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.99280863585386625</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.98722728337562693</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.98006657784124163</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.97133797485202966</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.96105543831077089</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.94923541808244083</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.93589682367793481</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.92106099400288499</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.90475166321996348</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.88699492277928416</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.86781917967764988</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.84725511101341611</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.82533561490967822</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.80209575788429255</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.77757271875092793</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.75180572914089505</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.7248360107409052</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.69670670934716539</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.66746282584130801</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.6371511441985801</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.60582015664346289</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.57351998607245669</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.54030230586813977</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-DC0C-47DF-A867-69F55FEDC8C1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>aprox</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Hoja2!$C$109:$C$159</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="51"/>
+                <c:pt idx="0">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.98078528040323043</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.92</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.88</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.83146961230254535</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.76</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-0.72</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-0.67999999999999994</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-0.64</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-0.6</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-0.55557023301960196</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-0.52</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-0.48</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-0.43999999999999995</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-0.4</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-0.36</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-0.31999999999999995</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-0.28000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-0.24</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-0.19509032201612819</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-0.16000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-0.12</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-7.999999999999996E-2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-4.0000000000000036E-2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>4.0000000000000036E-2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>8.0000000000000071E-2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.12000000000000011</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.15999999999999992</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.19509032201612833</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.24</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.28000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.32000000000000006</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.3600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.40000000000000013</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.43999999999999995</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.48</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.52</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.55557023301960229</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.60000000000000009</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.64000000000000012</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.67999999999999994</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.72</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.76</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.83146961230254524</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.88000000000000012</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.91999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.98078528040323043</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Hoja2!$N$109:$N$159</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="51"/>
+                <c:pt idx="0">
+                  <c:v>0.540302118471505</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.55637020177503194</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.60582034375888261</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.63715127265740046</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.67379055865540383</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.69670662995280208</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.72483585786651095</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.7518055427731406</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.77757253870754883</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.8020956169663479</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.82533553526666592</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.8495998216376508</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.86781924225203011</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.88699504557577469</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.90475182887245498</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.92106118102570322</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.93589700930173114</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.94923558084458726</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.96105556021948613</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.9713380430042069</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.98103016416377975</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.98722723006194646</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.99280852754893067</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.99680155439296114</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.99919992678810365</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.9999998104988681</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.99919992678810321</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.99680155439296048</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.99280852754892956</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.98722723006194513</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.98103016416377842</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.97133804300420556</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.96105556021948479</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.94923558084458615</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.93589700930173025</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.92106118102570256</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.90475182887245476</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.88699504557577469</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.86781924225203078</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.84959982163765124</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.82533553526666692</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.80209561696634923</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.77757253870755061</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.75180554277314193</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.72483585786651206</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.69670662995280275</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.67379055865540438</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.63715127265740013</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.60582034375888227</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.55637020177503171</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.54030211847150522</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-DC0C-47DF-A867-69F55FEDC8C1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="545843456"/>
+        <c:axId val="545842144"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="545843456"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-MX"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="545842144"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="545842144"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-MX"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="545843456"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-MX"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Gráfico 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>113</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>128</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Gráfico 5"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -443,8 +2969,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:X22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1401,4 +3927,6500 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A3:Y159"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A108" workbookViewId="0">
+      <selection activeCell="C108" sqref="C108:D159"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="12.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>8</v>
+      </c>
+      <c r="G3">
+        <f>COS(2*ACOS(D6))</f>
+        <v>0.92387953251128674</v>
+      </c>
+    </row>
+    <row r="5" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I5" t="s">
+        <v>8</v>
+      </c>
+      <c r="J5" t="s">
+        <v>9</v>
+      </c>
+      <c r="K5" t="s">
+        <v>10</v>
+      </c>
+      <c r="L5" t="s">
+        <v>11</v>
+      </c>
+      <c r="M5" t="s">
+        <v>12</v>
+      </c>
+      <c r="N5" t="s">
+        <v>13</v>
+      </c>
+      <c r="O5" t="s">
+        <v>14</v>
+      </c>
+      <c r="P5" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>16</v>
+      </c>
+      <c r="R5" t="s">
+        <v>17</v>
+      </c>
+      <c r="S5" t="s">
+        <v>18</v>
+      </c>
+      <c r="T5" t="s">
+        <v>19</v>
+      </c>
+      <c r="U5" t="s">
+        <v>20</v>
+      </c>
+      <c r="V5" t="s">
+        <v>21</v>
+      </c>
+      <c r="W5" t="s">
+        <v>22</v>
+      </c>
+      <c r="X5" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6" s="8">
+        <f>(2*B6+1)/(2*$C$3)</f>
+        <v>6.25E-2</v>
+      </c>
+      <c r="D6">
+        <f>COS(C6*PI())</f>
+        <v>0.98078528040323043</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6" s="7">
+        <f>D6</f>
+        <v>0.98078528040323043</v>
+      </c>
+      <c r="G6">
+        <f>(2*$D6*F6)-E6</f>
+        <v>0.92387953251128674</v>
+      </c>
+      <c r="H6">
+        <f t="shared" ref="H6:Y13" si="0">(2*$D6*G6)-F6</f>
+        <v>0.83146961230254512</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="0"/>
+        <v>0.70710678118654724</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="0"/>
+        <v>0.55557023301960173</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="0"/>
+        <v>0.38268343236508917</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="0"/>
+        <v>0.19509032201612753</v>
+      </c>
+      <c r="M6">
+        <f t="shared" si="0"/>
+        <v>-8.8817841970012523E-16</v>
+      </c>
+      <c r="N6">
+        <f t="shared" si="0"/>
+        <v>-0.19509032201612928</v>
+      </c>
+      <c r="O6">
+        <f t="shared" si="0"/>
+        <v>-0.38268343236509084</v>
+      </c>
+      <c r="P6">
+        <f t="shared" si="0"/>
+        <v>-0.55557023301960329</v>
+      </c>
+      <c r="Q6">
+        <f t="shared" si="0"/>
+        <v>-0.70710678118654846</v>
+      </c>
+      <c r="R6">
+        <f t="shared" si="0"/>
+        <v>-0.83146961230254601</v>
+      </c>
+      <c r="S6">
+        <f t="shared" si="0"/>
+        <v>-0.92387953251128729</v>
+      </c>
+      <c r="T6">
+        <f t="shared" si="0"/>
+        <v>-0.98078528040323065</v>
+      </c>
+      <c r="U6">
+        <f t="shared" si="0"/>
+        <v>-0.99999999999999989</v>
+      </c>
+      <c r="V6">
+        <f t="shared" si="0"/>
+        <v>-0.98078528040322999</v>
+      </c>
+      <c r="W6">
+        <f t="shared" si="0"/>
+        <v>-0.92387953251128596</v>
+      </c>
+      <c r="X6">
+        <f t="shared" si="0"/>
+        <v>-0.83146961230254401</v>
+      </c>
+      <c r="Y6">
+        <f t="shared" si="0"/>
+        <v>-0.7071067811865458</v>
+      </c>
+    </row>
+    <row r="7" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7" s="8">
+        <f t="shared" ref="C7:C13" si="1">(2*B7+1)/(2*$C$3)</f>
+        <v>0.1875</v>
+      </c>
+      <c r="D7">
+        <f t="shared" ref="D7:D13" si="2">COS(C7*PI())</f>
+        <v>0.83146961230254524</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7" s="7">
+        <f t="shared" ref="F7:F13" si="3">D7</f>
+        <v>0.83146961230254524</v>
+      </c>
+      <c r="G7">
+        <f t="shared" ref="G7:G13" si="4">(2*$D7*F7)-E7</f>
+        <v>0.38268343236508984</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="0"/>
+        <v>-0.19509032201612819</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="0"/>
+        <v>-0.70710678118654746</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="0"/>
+        <v>-0.98078528040323043</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="0"/>
+        <v>-0.92387953251128674</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="0"/>
+        <v>-0.55557023301960218</v>
+      </c>
+      <c r="M7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <f t="shared" si="0"/>
+        <v>0.55557023301960218</v>
+      </c>
+      <c r="O7">
+        <f t="shared" si="0"/>
+        <v>0.92387953251128663</v>
+      </c>
+      <c r="P7">
+        <f t="shared" si="0"/>
+        <v>0.98078528040323021</v>
+      </c>
+      <c r="Q7">
+        <f t="shared" si="0"/>
+        <v>0.70710678118654735</v>
+      </c>
+      <c r="R7">
+        <f t="shared" si="0"/>
+        <v>0.19509032201612819</v>
+      </c>
+      <c r="S7">
+        <f t="shared" si="0"/>
+        <v>-0.38268343236508973</v>
+      </c>
+      <c r="T7">
+        <f t="shared" si="0"/>
+        <v>-0.83146961230254512</v>
+      </c>
+      <c r="U7">
+        <f t="shared" si="0"/>
+        <v>-0.99999999999999989</v>
+      </c>
+      <c r="V7">
+        <f t="shared" si="0"/>
+        <v>-0.83146961230254512</v>
+      </c>
+      <c r="W7">
+        <f t="shared" si="0"/>
+        <v>-0.38268343236508973</v>
+      </c>
+      <c r="X7">
+        <f t="shared" si="0"/>
+        <v>0.19509032201612819</v>
+      </c>
+      <c r="Y7">
+        <f t="shared" si="0"/>
+        <v>0.70710678118654735</v>
+      </c>
+    </row>
+    <row r="8" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B8">
+        <v>2</v>
+      </c>
+      <c r="C8" s="8">
+        <f t="shared" si="1"/>
+        <v>0.3125</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="2"/>
+        <v>0.55557023301960229</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8" s="7">
+        <f t="shared" si="3"/>
+        <v>0.55557023301960229</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="4"/>
+        <v>-0.38268343236508962</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="0"/>
+        <v>-0.98078528040323043</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="0"/>
+        <v>-0.70710678118654768</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="0"/>
+        <v>0.19509032201612797</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="0"/>
+        <v>0.92387953251128663</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="0"/>
+        <v>0.83146961230254557</v>
+      </c>
+      <c r="M8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <f t="shared" si="0"/>
+        <v>-0.83146961230254557</v>
+      </c>
+      <c r="O8">
+        <f t="shared" si="0"/>
+        <v>-0.92387953251128718</v>
+      </c>
+      <c r="P8">
+        <f t="shared" si="0"/>
+        <v>-0.19509032201612864</v>
+      </c>
+      <c r="Q8">
+        <f t="shared" si="0"/>
+        <v>0.70710678118654746</v>
+      </c>
+      <c r="R8">
+        <f t="shared" si="0"/>
+        <v>0.98078528040323087</v>
+      </c>
+      <c r="S8">
+        <f t="shared" si="0"/>
+        <v>0.3826834323650905</v>
+      </c>
+      <c r="T8">
+        <f t="shared" si="0"/>
+        <v>-0.55557023301960173</v>
+      </c>
+      <c r="U8">
+        <f t="shared" si="0"/>
+        <v>-1.0000000000000002</v>
+      </c>
+      <c r="V8">
+        <f t="shared" si="0"/>
+        <v>-0.55557023301960307</v>
+      </c>
+      <c r="W8">
+        <f t="shared" si="0"/>
+        <v>0.38268343236508895</v>
+      </c>
+      <c r="X8">
+        <f t="shared" si="0"/>
+        <v>0.98078528040323043</v>
+      </c>
+      <c r="Y8">
+        <f t="shared" si="0"/>
+        <v>0.70710678118654835</v>
+      </c>
+    </row>
+    <row r="9" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B9">
+        <v>3</v>
+      </c>
+      <c r="C9" s="8">
+        <f t="shared" si="1"/>
+        <v>0.4375</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="2"/>
+        <v>0.19509032201612833</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9" s="7">
+        <f t="shared" si="3"/>
+        <v>0.19509032201612833</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="4"/>
+        <v>-0.92387953251128674</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="0"/>
+        <v>-0.5555702330196024</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="0"/>
+        <v>0.70710678118654735</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="0"/>
+        <v>0.83146961230254546</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="0"/>
+        <v>-0.38268343236508939</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="0"/>
+        <v>-0.98078528040323054</v>
+      </c>
+      <c r="M9">
+        <f t="shared" si="0"/>
+        <v>-5.5511151231257827E-16</v>
+      </c>
+      <c r="N9">
+        <f t="shared" si="0"/>
+        <v>0.98078528040323032</v>
+      </c>
+      <c r="O9">
+        <f t="shared" si="0"/>
+        <v>0.38268343236509039</v>
+      </c>
+      <c r="P9">
+        <f t="shared" si="0"/>
+        <v>-0.83146961230254479</v>
+      </c>
+      <c r="Q9">
+        <f t="shared" si="0"/>
+        <v>-0.70710678118654813</v>
+      </c>
+      <c r="R9">
+        <f t="shared" si="0"/>
+        <v>0.55557023301960151</v>
+      </c>
+      <c r="S9">
+        <f t="shared" si="0"/>
+        <v>0.92387953251128718</v>
+      </c>
+      <c r="T9">
+        <f t="shared" si="0"/>
+        <v>-0.19509032201612725</v>
+      </c>
+      <c r="U9">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="V9">
+        <f t="shared" si="0"/>
+        <v>-0.19509032201612941</v>
+      </c>
+      <c r="W9">
+        <f t="shared" si="0"/>
+        <v>0.92387953251128629</v>
+      </c>
+      <c r="X9">
+        <f t="shared" si="0"/>
+        <v>0.55557023301960329</v>
+      </c>
+      <c r="Y9">
+        <f t="shared" si="0"/>
+        <v>-0.70710678118654657</v>
+      </c>
+    </row>
+    <row r="10" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B10">
+        <v>4</v>
+      </c>
+      <c r="C10" s="8">
+        <f t="shared" si="1"/>
+        <v>0.5625</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="2"/>
+        <v>-0.19509032201612819</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10" s="7">
+        <f t="shared" si="3"/>
+        <v>-0.19509032201612819</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="4"/>
+        <v>-0.92387953251128685</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="0"/>
+        <v>0.55557023301960207</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="0"/>
+        <v>0.70710678118654779</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="0"/>
+        <v>-0.83146961230254512</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="0"/>
+        <v>-0.38268343236509023</v>
+      </c>
+      <c r="L10">
+        <f t="shared" si="0"/>
+        <v>0.98078528040323043</v>
+      </c>
+      <c r="M10">
+        <f t="shared" si="0"/>
+        <v>6.106226635438361E-16</v>
+      </c>
+      <c r="N10">
+        <f t="shared" si="0"/>
+        <v>-0.98078528040323065</v>
+      </c>
+      <c r="O10">
+        <f t="shared" si="0"/>
+        <v>0.38268343236508912</v>
+      </c>
+      <c r="P10">
+        <f t="shared" si="0"/>
+        <v>0.83146961230254579</v>
+      </c>
+      <c r="Q10">
+        <f t="shared" si="0"/>
+        <v>-0.70710678118654702</v>
+      </c>
+      <c r="R10">
+        <f t="shared" si="0"/>
+        <v>-0.55557023301960307</v>
+      </c>
+      <c r="S10">
+        <f t="shared" si="0"/>
+        <v>0.92387953251128652</v>
+      </c>
+      <c r="T10">
+        <f t="shared" si="0"/>
+        <v>0.19509032201612936</v>
+      </c>
+      <c r="U10">
+        <f t="shared" si="0"/>
+        <v>-1.0000000000000002</v>
+      </c>
+      <c r="V10">
+        <f t="shared" si="0"/>
+        <v>0.19509032201612714</v>
+      </c>
+      <c r="W10">
+        <f t="shared" si="0"/>
+        <v>0.9238795325112874</v>
+      </c>
+      <c r="X10">
+        <f t="shared" si="0"/>
+        <v>-0.55557023301960129</v>
+      </c>
+      <c r="Y10">
+        <f t="shared" si="0"/>
+        <v>-0.70710678118654857</v>
+      </c>
+    </row>
+    <row r="11" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B11">
+        <v>5</v>
+      </c>
+      <c r="C11" s="8">
+        <f t="shared" si="1"/>
+        <v>0.6875</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="2"/>
+        <v>-0.55557023301960196</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11" s="7">
+        <f t="shared" si="3"/>
+        <v>-0.55557023301960196</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="4"/>
+        <v>-0.38268343236509039</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="0"/>
+        <v>0.98078528040323065</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="0"/>
+        <v>-0.70710678118654668</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="0"/>
+        <v>-0.19509032201612975</v>
+      </c>
+      <c r="K11">
+        <f t="shared" si="0"/>
+        <v>0.9238795325112874</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="0"/>
+        <v>-0.83146961230254401</v>
+      </c>
+      <c r="M11">
+        <f t="shared" si="0"/>
+        <v>-2.4424906541753444E-15</v>
+      </c>
+      <c r="N11">
+        <f t="shared" si="0"/>
+        <v>0.83146961230254668</v>
+      </c>
+      <c r="O11">
+        <f t="shared" si="0"/>
+        <v>-0.92387953251128552</v>
+      </c>
+      <c r="P11">
+        <f t="shared" si="0"/>
+        <v>0.19509032201612486</v>
+      </c>
+      <c r="Q11">
+        <f t="shared" si="0"/>
+        <v>0.70710678118655013</v>
+      </c>
+      <c r="R11">
+        <f t="shared" si="0"/>
+        <v>-0.98078528040322954</v>
+      </c>
+      <c r="S11">
+        <f t="shared" si="0"/>
+        <v>0.38268343236508562</v>
+      </c>
+      <c r="T11">
+        <f t="shared" si="0"/>
+        <v>0.55557023301960617</v>
+      </c>
+      <c r="U11">
+        <f t="shared" si="0"/>
+        <v>-0.99999999999999989</v>
+      </c>
+      <c r="V11">
+        <f t="shared" si="0"/>
+        <v>0.55557023301959751</v>
+      </c>
+      <c r="W11">
+        <f t="shared" si="0"/>
+        <v>0.38268343236509517</v>
+      </c>
+      <c r="X11">
+        <f t="shared" si="0"/>
+        <v>-0.98078528040323154</v>
+      </c>
+      <c r="Y11">
+        <f t="shared" si="0"/>
+        <v>0.7071067811865428</v>
+      </c>
+    </row>
+    <row r="12" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B12">
+        <v>6</v>
+      </c>
+      <c r="C12" s="8">
+        <f t="shared" si="1"/>
+        <v>0.8125</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="2"/>
+        <v>-0.83146961230254535</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12" s="7">
+        <f t="shared" si="3"/>
+        <v>-0.83146961230254535</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="4"/>
+        <v>0.38268343236509006</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="0"/>
+        <v>0.19509032201612786</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="0"/>
+        <v>-0.70710678118654724</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="0"/>
+        <v>0.98078528040323054</v>
+      </c>
+      <c r="K12">
+        <f t="shared" si="0"/>
+        <v>-0.9238795325112874</v>
+      </c>
+      <c r="L12">
+        <f t="shared" si="0"/>
+        <v>0.5555702330196034</v>
+      </c>
+      <c r="M12">
+        <f t="shared" si="0"/>
+        <v>-1.4432899320127035E-15</v>
+      </c>
+      <c r="N12">
+        <f t="shared" si="0"/>
+        <v>-0.55557023301960096</v>
+      </c>
+      <c r="O12">
+        <f t="shared" si="0"/>
+        <v>0.92387953251128618</v>
+      </c>
+      <c r="P12">
+        <f t="shared" si="0"/>
+        <v>-0.98078528040323099</v>
+      </c>
+      <c r="Q12">
+        <f t="shared" si="0"/>
+        <v>0.70710678118654913</v>
+      </c>
+      <c r="R12">
+        <f t="shared" si="0"/>
+        <v>-0.19509032201613052</v>
+      </c>
+      <c r="S12">
+        <f t="shared" si="0"/>
+        <v>-0.38268343236508756</v>
+      </c>
+      <c r="T12">
+        <f t="shared" si="0"/>
+        <v>0.8314696123025439</v>
+      </c>
+      <c r="U12">
+        <f t="shared" si="0"/>
+        <v>-1.0000000000000002</v>
+      </c>
+      <c r="V12">
+        <f t="shared" si="0"/>
+        <v>0.83146961230254723</v>
+      </c>
+      <c r="W12">
+        <f t="shared" si="0"/>
+        <v>-0.38268343236509295</v>
+      </c>
+      <c r="X12">
+        <f t="shared" si="0"/>
+        <v>-0.19509032201612486</v>
+      </c>
+      <c r="Y12">
+        <f t="shared" si="0"/>
+        <v>0.70710678118654502</v>
+      </c>
+    </row>
+    <row r="13" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B13">
+        <v>7</v>
+      </c>
+      <c r="C13" s="8">
+        <f t="shared" si="1"/>
+        <v>0.9375</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="2"/>
+        <v>-0.98078528040323043</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13" s="7">
+        <f t="shared" si="3"/>
+        <v>-0.98078528040323043</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="4"/>
+        <v>0.92387953251128674</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="0"/>
+        <v>-0.83146961230254512</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="0"/>
+        <v>0.70710678118654724</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="0"/>
+        <v>-0.55557023301960173</v>
+      </c>
+      <c r="K13">
+        <f t="shared" si="0"/>
+        <v>0.38268343236508917</v>
+      </c>
+      <c r="L13">
+        <f t="shared" si="0"/>
+        <v>-0.19509032201612753</v>
+      </c>
+      <c r="M13">
+        <f t="shared" si="0"/>
+        <v>-8.8817841970012523E-16</v>
+      </c>
+      <c r="N13">
+        <f t="shared" si="0"/>
+        <v>0.19509032201612928</v>
+      </c>
+      <c r="O13">
+        <f t="shared" si="0"/>
+        <v>-0.38268343236509084</v>
+      </c>
+      <c r="P13">
+        <f t="shared" si="0"/>
+        <v>0.55557023301960329</v>
+      </c>
+      <c r="Q13">
+        <f t="shared" si="0"/>
+        <v>-0.70710678118654846</v>
+      </c>
+      <c r="R13">
+        <f t="shared" si="0"/>
+        <v>0.83146961230254601</v>
+      </c>
+      <c r="S13">
+        <f t="shared" si="0"/>
+        <v>-0.92387953251128729</v>
+      </c>
+      <c r="T13">
+        <f t="shared" si="0"/>
+        <v>0.98078528040323065</v>
+      </c>
+      <c r="U13">
+        <f t="shared" si="0"/>
+        <v>-0.99999999999999989</v>
+      </c>
+      <c r="V13">
+        <f t="shared" si="0"/>
+        <v>0.98078528040322999</v>
+      </c>
+      <c r="W13">
+        <f t="shared" si="0"/>
+        <v>-0.92387953251128596</v>
+      </c>
+      <c r="X13">
+        <f t="shared" si="0"/>
+        <v>0.83146961230254401</v>
+      </c>
+      <c r="Y13">
+        <f t="shared" si="0"/>
+        <v>-0.7071067811865458</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E17" t="s">
+        <v>4</v>
+      </c>
+      <c r="F17" t="s">
+        <v>5</v>
+      </c>
+      <c r="G17" t="s">
+        <v>6</v>
+      </c>
+      <c r="H17" t="s">
+        <v>7</v>
+      </c>
+      <c r="I17" t="s">
+        <v>8</v>
+      </c>
+      <c r="J17" t="s">
+        <v>9</v>
+      </c>
+      <c r="K17" t="s">
+        <v>10</v>
+      </c>
+      <c r="L17" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D18" t="s">
+        <v>4</v>
+      </c>
+      <c r="E18">
+        <f>SUMPRODUCT($E$6:$E$13,E6:E13)</f>
+        <v>8</v>
+      </c>
+      <c r="F18">
+        <f>SUMPRODUCT($E$6:$E$13,F6:F13)</f>
+        <v>6.6613381477509392E-16</v>
+      </c>
+      <c r="G18">
+        <f t="shared" ref="G18:L18" si="5">SUMPRODUCT($E$6:$E$13,G6:G13)</f>
+        <v>-2.2204460492503131E-16</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="5"/>
+        <v>-4.4408920985006262E-16</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="5"/>
+        <v>5.5511151231257827E-16</v>
+      </c>
+      <c r="J18">
+        <f t="shared" si="5"/>
+        <v>-1.3322676295501878E-15</v>
+      </c>
+      <c r="K18">
+        <f t="shared" si="5"/>
+        <v>-1.3322676295501878E-15</v>
+      </c>
+      <c r="L18">
+        <f t="shared" si="5"/>
+        <v>2.6645352591003757E-15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D19" t="s">
+        <v>5</v>
+      </c>
+      <c r="E19">
+        <f>SUMPRODUCT($F$6:$F$13,E6:E13)</f>
+        <v>6.6613381477509392E-16</v>
+      </c>
+      <c r="F19">
+        <f t="shared" ref="F19:L19" si="6">SUMPRODUCT($F$6:$F$13,F6:F13)</f>
+        <v>3.9999999999999996</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="6"/>
+        <v>1.1102230246251565E-16</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="6"/>
+        <v>1.1102230246251565E-16</v>
+      </c>
+      <c r="I19">
+        <f t="shared" si="6"/>
+        <v>-8.8817841970012523E-16</v>
+      </c>
+      <c r="J19">
+        <f t="shared" si="6"/>
+        <v>-3.3306690738754696E-16</v>
+      </c>
+      <c r="K19">
+        <f t="shared" si="6"/>
+        <v>6.6613381477509392E-16</v>
+      </c>
+      <c r="L19">
+        <f t="shared" si="6"/>
+        <v>-3.1641356201816961E-15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D20" t="s">
+        <v>6</v>
+      </c>
+      <c r="E20">
+        <f>SUMPRODUCT($G$6:$G$13,E6:E13)</f>
+        <v>-2.2204460492503131E-16</v>
+      </c>
+      <c r="F20">
+        <f t="shared" ref="F20:L20" si="7">SUMPRODUCT($G$6:$G$13,F6:F13)</f>
+        <v>1.1102230246251565E-16</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="7"/>
+        <v>4.0000000000000009</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="7"/>
+        <v>-7.7715611723760958E-16</v>
+      </c>
+      <c r="I20">
+        <f t="shared" si="7"/>
+        <v>-7.7715611723760958E-16</v>
+      </c>
+      <c r="J20">
+        <f t="shared" si="7"/>
+        <v>8.8817841970012523E-16</v>
+      </c>
+      <c r="K20">
+        <f t="shared" si="7"/>
+        <v>-2.2759572004815709E-15</v>
+      </c>
+      <c r="L20">
+        <f t="shared" si="7"/>
+        <v>6.6613381477509392E-16</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D21" t="s">
+        <v>7</v>
+      </c>
+      <c r="E21">
+        <f>SUMPRODUCT($H$6:$H$13,E6:E13)</f>
+        <v>-4.4408920985006262E-16</v>
+      </c>
+      <c r="F21">
+        <f t="shared" ref="F21:L21" si="8">SUMPRODUCT($H$6:$H$13,F6:F13)</f>
+        <v>1.1102230246251565E-16</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="8"/>
+        <v>-7.7715611723760958E-16</v>
+      </c>
+      <c r="H21">
+        <f t="shared" si="8"/>
+        <v>4</v>
+      </c>
+      <c r="I21">
+        <f t="shared" si="8"/>
+        <v>1.2212453270876722E-15</v>
+      </c>
+      <c r="J21">
+        <f t="shared" si="8"/>
+        <v>-2.6645352591003757E-15</v>
+      </c>
+      <c r="K21">
+        <f t="shared" si="8"/>
+        <v>8.8817841970012523E-16</v>
+      </c>
+      <c r="L21">
+        <f t="shared" si="8"/>
+        <v>-5.8286708792820718E-16</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D22" t="s">
+        <v>8</v>
+      </c>
+      <c r="E22">
+        <f>SUMPRODUCT($I$6:$I$13,E6:E13)</f>
+        <v>5.5511151231257827E-16</v>
+      </c>
+      <c r="F22">
+        <f t="shared" ref="F22:L22" si="9">SUMPRODUCT($I$6:$I$13,F6:F13)</f>
+        <v>-8.8817841970012523E-16</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="9"/>
+        <v>-7.7715611723760958E-16</v>
+      </c>
+      <c r="H22">
+        <f t="shared" si="9"/>
+        <v>1.2212453270876722E-15</v>
+      </c>
+      <c r="I22">
+        <f t="shared" si="9"/>
+        <v>3.9999999999999978</v>
+      </c>
+      <c r="J22">
+        <f t="shared" si="9"/>
+        <v>1.1102230246251565E-15</v>
+      </c>
+      <c r="K22">
+        <f t="shared" si="9"/>
+        <v>-7.2164496600635175E-16</v>
+      </c>
+      <c r="L22">
+        <f t="shared" si="9"/>
+        <v>-2.4424906541753444E-15</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D23" t="s">
+        <v>9</v>
+      </c>
+      <c r="E23">
+        <f>SUMPRODUCT($J$6:$J$13,E6:E13)</f>
+        <v>-1.3322676295501878E-15</v>
+      </c>
+      <c r="F23">
+        <f t="shared" ref="F23:L23" si="10">SUMPRODUCT($J$6:$J$13,F6:F13)</f>
+        <v>-3.3306690738754696E-16</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="10"/>
+        <v>8.8817841970012523E-16</v>
+      </c>
+      <c r="H23">
+        <f t="shared" si="10"/>
+        <v>-2.6645352591003757E-15</v>
+      </c>
+      <c r="I23">
+        <f t="shared" si="10"/>
+        <v>1.1102230246251565E-15</v>
+      </c>
+      <c r="J23">
+        <f t="shared" si="10"/>
+        <v>4</v>
+      </c>
+      <c r="K23">
+        <f t="shared" si="10"/>
+        <v>-2.1371793224034263E-15</v>
+      </c>
+      <c r="L23">
+        <f t="shared" si="10"/>
+        <v>6.9388939039072284E-16</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D24" t="s">
+        <v>10</v>
+      </c>
+      <c r="E24">
+        <f>SUMPRODUCT($K$6:$K$13,E6:E13)</f>
+        <v>-1.3322676295501878E-15</v>
+      </c>
+      <c r="F24">
+        <f t="shared" ref="F24:L24" si="11">SUMPRODUCT($K$6:$K$13,F6:F13)</f>
+        <v>6.6613381477509392E-16</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="11"/>
+        <v>-2.2759572004815709E-15</v>
+      </c>
+      <c r="H24">
+        <f t="shared" si="11"/>
+        <v>8.8817841970012523E-16</v>
+      </c>
+      <c r="I24">
+        <f t="shared" si="11"/>
+        <v>-7.2164496600635175E-16</v>
+      </c>
+      <c r="J24">
+        <f t="shared" si="11"/>
+        <v>-2.1371793224034263E-15</v>
+      </c>
+      <c r="K24">
+        <f t="shared" si="11"/>
+        <v>4.0000000000000009</v>
+      </c>
+      <c r="L24">
+        <f t="shared" si="11"/>
+        <v>-1.5543122344752192E-15</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D25" t="s">
+        <v>11</v>
+      </c>
+      <c r="E25">
+        <f>SUMPRODUCT($L$6:$L$13,E6:E13)</f>
+        <v>2.6645352591003757E-15</v>
+      </c>
+      <c r="F25">
+        <f t="shared" ref="F25:L25" si="12">SUMPRODUCT($L$6:$L$13,F6:F13)</f>
+        <v>-3.1641356201816961E-15</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="12"/>
+        <v>6.6613381477509392E-16</v>
+      </c>
+      <c r="H25">
+        <f t="shared" si="12"/>
+        <v>-5.8286708792820718E-16</v>
+      </c>
+      <c r="I25">
+        <f t="shared" si="12"/>
+        <v>-2.4424906541753444E-15</v>
+      </c>
+      <c r="J25">
+        <f t="shared" si="12"/>
+        <v>6.9388939039072284E-16</v>
+      </c>
+      <c r="K25">
+        <f t="shared" si="12"/>
+        <v>-1.5543122344752192E-15</v>
+      </c>
+      <c r="L25">
+        <f t="shared" si="12"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D27" t="s">
+        <v>27</v>
+      </c>
+      <c r="E27">
+        <f>SQRT(C3)</f>
+        <v>2.8284271247461903</v>
+      </c>
+      <c r="F27">
+        <f>SQRT($C$3/2)</f>
+        <v>2</v>
+      </c>
+      <c r="G27">
+        <f t="shared" ref="G27:L27" si="13">SQRT($C$3/2)</f>
+        <v>2</v>
+      </c>
+      <c r="H27">
+        <f t="shared" si="13"/>
+        <v>2</v>
+      </c>
+      <c r="I27">
+        <f t="shared" si="13"/>
+        <v>2</v>
+      </c>
+      <c r="J27">
+        <f t="shared" si="13"/>
+        <v>2</v>
+      </c>
+      <c r="K27">
+        <f t="shared" si="13"/>
+        <v>2</v>
+      </c>
+      <c r="L27">
+        <f t="shared" si="13"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E29" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="F29" s="9"/>
+      <c r="G29" s="9"/>
+      <c r="H29" s="9"/>
+      <c r="I29" s="9"/>
+      <c r="J29" s="9"/>
+      <c r="K29" s="9"/>
+      <c r="L29" s="9"/>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E30" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="F30" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="G30" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="H30" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="I30" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="J30" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="K30" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="L30" s="10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <f>D6</f>
+        <v>0.98078528040323043</v>
+      </c>
+      <c r="B31">
+        <f>COS(A31)</f>
+        <v>0.55637020177503194</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31">
+        <f>E6/E$27</f>
+        <v>0.35355339059327373</v>
+      </c>
+      <c r="F31">
+        <f t="shared" ref="F31:L31" si="14">F6/F$27</f>
+        <v>0.49039264020161522</v>
+      </c>
+      <c r="G31">
+        <f t="shared" si="14"/>
+        <v>0.46193976625564337</v>
+      </c>
+      <c r="H31">
+        <f t="shared" si="14"/>
+        <v>0.41573480615127256</v>
+      </c>
+      <c r="I31">
+        <f t="shared" si="14"/>
+        <v>0.35355339059327362</v>
+      </c>
+      <c r="J31">
+        <f t="shared" si="14"/>
+        <v>0.27778511650980087</v>
+      </c>
+      <c r="K31">
+        <f t="shared" si="14"/>
+        <v>0.19134171618254459</v>
+      </c>
+      <c r="L31">
+        <f t="shared" si="14"/>
+        <v>9.7545161008063763E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <f t="shared" ref="A32:A38" si="15">D7</f>
+        <v>0.83146961230254524</v>
+      </c>
+      <c r="B32">
+        <f t="shared" ref="B32:B38" si="16">COS(A32)</f>
+        <v>0.67379055865540427</v>
+      </c>
+      <c r="D32">
+        <v>1</v>
+      </c>
+      <c r="E32">
+        <f t="shared" ref="E32:L38" si="17">E7/E$27</f>
+        <v>0.35355339059327373</v>
+      </c>
+      <c r="F32">
+        <f t="shared" si="17"/>
+        <v>0.41573480615127262</v>
+      </c>
+      <c r="G32">
+        <f t="shared" si="17"/>
+        <v>0.19134171618254492</v>
+      </c>
+      <c r="H32">
+        <f t="shared" si="17"/>
+        <v>-9.7545161008064096E-2</v>
+      </c>
+      <c r="I32">
+        <f t="shared" si="17"/>
+        <v>-0.35355339059327373</v>
+      </c>
+      <c r="J32">
+        <f t="shared" si="17"/>
+        <v>-0.49039264020161522</v>
+      </c>
+      <c r="K32">
+        <f t="shared" si="17"/>
+        <v>-0.46193976625564337</v>
+      </c>
+      <c r="L32">
+        <f t="shared" si="17"/>
+        <v>-0.27778511650980109</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <f t="shared" si="15"/>
+        <v>0.55557023301960229</v>
+      </c>
+      <c r="B33">
+        <f t="shared" si="16"/>
+        <v>0.84959982163765113</v>
+      </c>
+      <c r="D33">
+        <v>2</v>
+      </c>
+      <c r="E33">
+        <f t="shared" si="17"/>
+        <v>0.35355339059327373</v>
+      </c>
+      <c r="F33">
+        <f t="shared" si="17"/>
+        <v>0.27778511650980114</v>
+      </c>
+      <c r="G33">
+        <f t="shared" si="17"/>
+        <v>-0.19134171618254481</v>
+      </c>
+      <c r="H33">
+        <f t="shared" si="17"/>
+        <v>-0.49039264020161522</v>
+      </c>
+      <c r="I33">
+        <f t="shared" si="17"/>
+        <v>-0.35355339059327384</v>
+      </c>
+      <c r="J33">
+        <f t="shared" si="17"/>
+        <v>9.7545161008063985E-2</v>
+      </c>
+      <c r="K33">
+        <f t="shared" si="17"/>
+        <v>0.46193976625564331</v>
+      </c>
+      <c r="L33">
+        <f t="shared" si="17"/>
+        <v>0.41573480615127278</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <f t="shared" si="15"/>
+        <v>0.19509032201612833</v>
+      </c>
+      <c r="B34">
+        <f t="shared" si="16"/>
+        <v>0.98103016416377897</v>
+      </c>
+      <c r="D34">
+        <v>3</v>
+      </c>
+      <c r="E34">
+        <f t="shared" si="17"/>
+        <v>0.35355339059327373</v>
+      </c>
+      <c r="F34">
+        <f t="shared" si="17"/>
+        <v>9.7545161008064166E-2</v>
+      </c>
+      <c r="G34">
+        <f t="shared" si="17"/>
+        <v>-0.46193976625564337</v>
+      </c>
+      <c r="H34">
+        <f t="shared" si="17"/>
+        <v>-0.2777851165098012</v>
+      </c>
+      <c r="I34">
+        <f t="shared" si="17"/>
+        <v>0.35355339059327368</v>
+      </c>
+      <c r="J34">
+        <f t="shared" si="17"/>
+        <v>0.41573480615127273</v>
+      </c>
+      <c r="K34">
+        <f t="shared" si="17"/>
+        <v>-0.1913417161825447</v>
+      </c>
+      <c r="L34">
+        <f t="shared" si="17"/>
+        <v>-0.49039264020161527</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <f t="shared" si="15"/>
+        <v>-0.19509032201612819</v>
+      </c>
+      <c r="B35">
+        <f t="shared" si="16"/>
+        <v>0.98103016416377897</v>
+      </c>
+      <c r="D35">
+        <v>4</v>
+      </c>
+      <c r="E35">
+        <f t="shared" si="17"/>
+        <v>0.35355339059327373</v>
+      </c>
+      <c r="F35">
+        <f t="shared" si="17"/>
+        <v>-9.7545161008064096E-2</v>
+      </c>
+      <c r="G35">
+        <f t="shared" si="17"/>
+        <v>-0.46193976625564342</v>
+      </c>
+      <c r="H35">
+        <f t="shared" si="17"/>
+        <v>0.27778511650980103</v>
+      </c>
+      <c r="I35">
+        <f t="shared" si="17"/>
+        <v>0.3535533905932739</v>
+      </c>
+      <c r="J35">
+        <f t="shared" si="17"/>
+        <v>-0.41573480615127256</v>
+      </c>
+      <c r="K35">
+        <f t="shared" si="17"/>
+        <v>-0.19134171618254511</v>
+      </c>
+      <c r="L35">
+        <f t="shared" si="17"/>
+        <v>0.49039264020161522</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <f t="shared" si="15"/>
+        <v>-0.55557023301960196</v>
+      </c>
+      <c r="B36">
+        <f t="shared" si="16"/>
+        <v>0.84959982163765124</v>
+      </c>
+      <c r="D36">
+        <v>5</v>
+      </c>
+      <c r="E36">
+        <f t="shared" si="17"/>
+        <v>0.35355339059327373</v>
+      </c>
+      <c r="F36">
+        <f t="shared" si="17"/>
+        <v>-0.27778511650980098</v>
+      </c>
+      <c r="G36">
+        <f t="shared" si="17"/>
+        <v>-0.1913417161825452</v>
+      </c>
+      <c r="H36">
+        <f t="shared" si="17"/>
+        <v>0.49039264020161533</v>
+      </c>
+      <c r="I36">
+        <f t="shared" si="17"/>
+        <v>-0.35355339059327334</v>
+      </c>
+      <c r="J36">
+        <f t="shared" si="17"/>
+        <v>-9.7545161008064873E-2</v>
+      </c>
+      <c r="K36">
+        <f t="shared" si="17"/>
+        <v>0.4619397662556437</v>
+      </c>
+      <c r="L36">
+        <f t="shared" si="17"/>
+        <v>-0.41573480615127201</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <f t="shared" si="15"/>
+        <v>-0.83146961230254535</v>
+      </c>
+      <c r="B37">
+        <f t="shared" si="16"/>
+        <v>0.67379055865540416</v>
+      </c>
+      <c r="D37">
+        <v>6</v>
+      </c>
+      <c r="E37">
+        <f t="shared" si="17"/>
+        <v>0.35355339059327373</v>
+      </c>
+      <c r="F37">
+        <f t="shared" si="17"/>
+        <v>-0.41573480615127267</v>
+      </c>
+      <c r="G37">
+        <f t="shared" si="17"/>
+        <v>0.19134171618254503</v>
+      </c>
+      <c r="H37">
+        <f t="shared" si="17"/>
+        <v>9.754516100806393E-2</v>
+      </c>
+      <c r="I37">
+        <f t="shared" si="17"/>
+        <v>-0.35355339059327362</v>
+      </c>
+      <c r="J37">
+        <f t="shared" si="17"/>
+        <v>0.49039264020161527</v>
+      </c>
+      <c r="K37">
+        <f t="shared" si="17"/>
+        <v>-0.4619397662556437</v>
+      </c>
+      <c r="L37">
+        <f t="shared" si="17"/>
+        <v>0.2777851165098017</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <f t="shared" si="15"/>
+        <v>-0.98078528040323043</v>
+      </c>
+      <c r="B38">
+        <f t="shared" si="16"/>
+        <v>0.55637020177503194</v>
+      </c>
+      <c r="D38">
+        <v>7</v>
+      </c>
+      <c r="E38">
+        <f t="shared" si="17"/>
+        <v>0.35355339059327373</v>
+      </c>
+      <c r="F38">
+        <f t="shared" si="17"/>
+        <v>-0.49039264020161522</v>
+      </c>
+      <c r="G38">
+        <f t="shared" si="17"/>
+        <v>0.46193976625564337</v>
+      </c>
+      <c r="H38">
+        <f t="shared" si="17"/>
+        <v>-0.41573480615127256</v>
+      </c>
+      <c r="I38">
+        <f t="shared" si="17"/>
+        <v>0.35355339059327362</v>
+      </c>
+      <c r="J38">
+        <f t="shared" si="17"/>
+        <v>-0.27778511650980087</v>
+      </c>
+      <c r="K38">
+        <f t="shared" si="17"/>
+        <v>0.19134171618254459</v>
+      </c>
+      <c r="L38">
+        <f t="shared" si="17"/>
+        <v>-9.7545161008063763E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D40" t="s">
+        <v>29</v>
+      </c>
+      <c r="E40">
+        <f>SUMPRODUCT($B$31:$B$38,E31:E38)</f>
+        <v>2.1643058924535858</v>
+      </c>
+      <c r="F40">
+        <f t="shared" ref="F40:L40" si="18">SUMPRODUCT($B$31:$B$38,F31:F38)</f>
+        <v>1.6653345369377348E-16</v>
+      </c>
+      <c r="G40">
+        <f t="shared" si="18"/>
+        <v>-0.4596139397275994</v>
+      </c>
+      <c r="H40">
+        <f t="shared" si="18"/>
+        <v>-1.9428902930940239E-16</v>
+      </c>
+      <c r="I40">
+        <f t="shared" si="18"/>
+        <v>9.9065558544402521E-3</v>
+      </c>
+      <c r="J40">
+        <f t="shared" si="18"/>
+        <v>-6.6613381477509392E-16</v>
+      </c>
+      <c r="K40">
+        <f t="shared" si="18"/>
+        <v>-8.3752299763747984E-5</v>
+      </c>
+      <c r="L40">
+        <f t="shared" si="18"/>
+        <v>9.0899510141184692E-16</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D42" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D43">
+        <v>0</v>
+      </c>
+      <c r="E43" s="7">
+        <f>E31*E$40</f>
+        <v>0.76519768655796649</v>
+      </c>
+      <c r="F43" s="7">
+        <f>F31*F$40+E43</f>
+        <v>0.76519768655796661</v>
+      </c>
+      <c r="G43" s="7">
+        <f t="shared" ref="G43:L43" si="19">G31*G$40+F43</f>
+        <v>0.55288373067236396</v>
+      </c>
+      <c r="H43" s="7">
+        <f t="shared" si="19"/>
+        <v>0.55288373067236385</v>
+      </c>
+      <c r="I43" s="7">
+        <f t="shared" si="19"/>
+        <v>0.55638622708380281</v>
+      </c>
+      <c r="J43" s="7">
+        <f t="shared" si="19"/>
+        <v>0.55638622708380259</v>
+      </c>
+      <c r="K43" s="7">
+        <f t="shared" si="19"/>
+        <v>0.5563702017750316</v>
+      </c>
+      <c r="L43" s="7">
+        <f t="shared" si="19"/>
+        <v>0.55637020177503171</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D44">
+        <v>1</v>
+      </c>
+      <c r="E44" s="7">
+        <f t="shared" ref="E44:F50" si="20">E32*E$40</f>
+        <v>0.76519768655796649</v>
+      </c>
+      <c r="F44" s="7">
+        <f t="shared" ref="F44:L50" si="21">F32*F$40+E44</f>
+        <v>0.76519768655796661</v>
+      </c>
+      <c r="G44" s="7">
+        <f t="shared" si="21"/>
+        <v>0.67725436654906701</v>
+      </c>
+      <c r="H44" s="7">
+        <f t="shared" si="21"/>
+        <v>0.67725436654906701</v>
+      </c>
+      <c r="I44" s="7">
+        <f t="shared" si="21"/>
+        <v>0.67375187013762805</v>
+      </c>
+      <c r="J44" s="7">
+        <f t="shared" si="21"/>
+        <v>0.67375187013762838</v>
+      </c>
+      <c r="K44" s="7">
+        <f t="shared" si="21"/>
+        <v>0.6737905586554046</v>
+      </c>
+      <c r="L44" s="7">
+        <f t="shared" si="21"/>
+        <v>0.67379055865540438</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D45">
+        <v>2</v>
+      </c>
+      <c r="E45" s="7">
+        <f t="shared" si="20"/>
+        <v>0.76519768655796649</v>
+      </c>
+      <c r="F45" s="7">
+        <f t="shared" si="21"/>
+        <v>0.76519768655796649</v>
+      </c>
+      <c r="G45" s="7">
+        <f t="shared" si="21"/>
+        <v>0.85314100656686609</v>
+      </c>
+      <c r="H45" s="7">
+        <f t="shared" si="21"/>
+        <v>0.8531410065668662</v>
+      </c>
+      <c r="I45" s="7">
+        <f t="shared" si="21"/>
+        <v>0.84963851015542724</v>
+      </c>
+      <c r="J45" s="7">
+        <f t="shared" si="21"/>
+        <v>0.84963851015542713</v>
+      </c>
+      <c r="K45" s="7">
+        <f t="shared" si="21"/>
+        <v>0.84959982163765091</v>
+      </c>
+      <c r="L45" s="7">
+        <f t="shared" si="21"/>
+        <v>0.84959982163765124</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D46">
+        <v>3</v>
+      </c>
+      <c r="E46" s="7">
+        <f t="shared" si="20"/>
+        <v>0.76519768655796649</v>
+      </c>
+      <c r="F46" s="7">
+        <f t="shared" si="21"/>
+        <v>0.76519768655796649</v>
+      </c>
+      <c r="G46" s="7">
+        <f t="shared" si="21"/>
+        <v>0.97751164244356914</v>
+      </c>
+      <c r="H46" s="7">
+        <f t="shared" si="21"/>
+        <v>0.97751164244356914</v>
+      </c>
+      <c r="I46" s="7">
+        <f t="shared" si="21"/>
+        <v>0.9810141388550081</v>
+      </c>
+      <c r="J46" s="7">
+        <f t="shared" si="21"/>
+        <v>0.98101413885500788</v>
+      </c>
+      <c r="K46" s="7">
+        <f t="shared" si="21"/>
+        <v>0.98103016416377886</v>
+      </c>
+      <c r="L46" s="7">
+        <f t="shared" si="21"/>
+        <v>0.98103016416377842</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D47">
+        <v>4</v>
+      </c>
+      <c r="E47" s="7">
+        <f t="shared" si="20"/>
+        <v>0.76519768655796649</v>
+      </c>
+      <c r="F47" s="7">
+        <f t="shared" si="21"/>
+        <v>0.76519768655796649</v>
+      </c>
+      <c r="G47" s="7">
+        <f t="shared" si="21"/>
+        <v>0.97751164244356914</v>
+      </c>
+      <c r="H47" s="7">
+        <f t="shared" si="21"/>
+        <v>0.97751164244356914</v>
+      </c>
+      <c r="I47" s="7">
+        <f t="shared" si="21"/>
+        <v>0.9810141388550081</v>
+      </c>
+      <c r="J47" s="7">
+        <f t="shared" si="21"/>
+        <v>0.98101413885500832</v>
+      </c>
+      <c r="K47" s="7">
+        <f t="shared" si="21"/>
+        <v>0.98103016416377931</v>
+      </c>
+      <c r="L47" s="7">
+        <f t="shared" si="21"/>
+        <v>0.98103016416377975</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D48">
+        <v>5</v>
+      </c>
+      <c r="E48" s="7">
+        <f t="shared" si="20"/>
+        <v>0.76519768655796649</v>
+      </c>
+      <c r="F48" s="7">
+        <f t="shared" si="21"/>
+        <v>0.76519768655796649</v>
+      </c>
+      <c r="G48" s="7">
+        <f t="shared" si="21"/>
+        <v>0.85314100656686631</v>
+      </c>
+      <c r="H48" s="7">
+        <f t="shared" si="21"/>
+        <v>0.8531410065668662</v>
+      </c>
+      <c r="I48" s="7">
+        <f t="shared" si="21"/>
+        <v>0.84963851015542724</v>
+      </c>
+      <c r="J48" s="7">
+        <f t="shared" si="21"/>
+        <v>0.84963851015542735</v>
+      </c>
+      <c r="K48" s="7">
+        <f t="shared" si="21"/>
+        <v>0.84959982163765113</v>
+      </c>
+      <c r="L48" s="7">
+        <f t="shared" si="21"/>
+        <v>0.8495998216376508</v>
+      </c>
+    </row>
+    <row r="49" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="D49">
+        <v>6</v>
+      </c>
+      <c r="E49" s="7">
+        <f t="shared" si="20"/>
+        <v>0.76519768655796649</v>
+      </c>
+      <c r="F49" s="7">
+        <f t="shared" si="21"/>
+        <v>0.76519768655796638</v>
+      </c>
+      <c r="G49" s="7">
+        <f t="shared" si="21"/>
+        <v>0.67725436654906668</v>
+      </c>
+      <c r="H49" s="7">
+        <f t="shared" si="21"/>
+        <v>0.67725436654906668</v>
+      </c>
+      <c r="I49" s="7">
+        <f t="shared" si="21"/>
+        <v>0.67375187013762772</v>
+      </c>
+      <c r="J49" s="7">
+        <f t="shared" si="21"/>
+        <v>0.67375187013762738</v>
+      </c>
+      <c r="K49" s="7">
+        <f t="shared" si="21"/>
+        <v>0.6737905586554036</v>
+      </c>
+      <c r="L49" s="7">
+        <f t="shared" si="21"/>
+        <v>0.67379055865540383</v>
+      </c>
+    </row>
+    <row r="50" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="D50">
+        <v>7</v>
+      </c>
+      <c r="E50" s="7">
+        <f t="shared" si="20"/>
+        <v>0.76519768655796649</v>
+      </c>
+      <c r="F50" s="7">
+        <f t="shared" si="21"/>
+        <v>0.76519768655796638</v>
+      </c>
+      <c r="G50" s="7">
+        <f t="shared" si="21"/>
+        <v>0.55288373067236374</v>
+      </c>
+      <c r="H50" s="7">
+        <f t="shared" si="21"/>
+        <v>0.55288373067236385</v>
+      </c>
+      <c r="I50" s="7">
+        <f t="shared" si="21"/>
+        <v>0.55638622708380281</v>
+      </c>
+      <c r="J50" s="7">
+        <f t="shared" si="21"/>
+        <v>0.55638622708380303</v>
+      </c>
+      <c r="K50" s="7">
+        <f t="shared" si="21"/>
+        <v>0.55637020177503205</v>
+      </c>
+      <c r="L50" s="7">
+        <f t="shared" si="21"/>
+        <v>0.55637020177503194</v>
+      </c>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="E52" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="F52" s="9"/>
+      <c r="G52" s="9"/>
+      <c r="H52" s="9"/>
+      <c r="I52" s="9"/>
+      <c r="J52" s="9"/>
+      <c r="K52" s="9"/>
+      <c r="L52" s="9"/>
+    </row>
+    <row r="53" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C53" t="s">
+        <v>32</v>
+      </c>
+      <c r="D53" t="s">
+        <v>31</v>
+      </c>
+      <c r="E53" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="F53" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="G53" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="H53" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="I53" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="J53" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="K53" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="L53" s="11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C54">
+        <v>-1</v>
+      </c>
+      <c r="D54">
+        <f>COS(C54)</f>
+        <v>0.54030230586813977</v>
+      </c>
+      <c r="E54" s="2">
+        <v>1</v>
+      </c>
+      <c r="F54" s="2">
+        <f>C54</f>
+        <v>-1</v>
+      </c>
+      <c r="G54" s="2">
+        <f>(2*$C54*F54)-E54</f>
+        <v>1</v>
+      </c>
+      <c r="H54" s="2">
+        <f t="shared" ref="H54:L69" si="22">(2*$C54*G54)-F54</f>
+        <v>-1</v>
+      </c>
+      <c r="I54" s="2">
+        <f t="shared" si="22"/>
+        <v>1</v>
+      </c>
+      <c r="J54" s="2">
+        <f t="shared" si="22"/>
+        <v>-1</v>
+      </c>
+      <c r="K54" s="2">
+        <f t="shared" si="22"/>
+        <v>1</v>
+      </c>
+      <c r="L54" s="2">
+        <f t="shared" si="22"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="55" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C55">
+        <f>A84</f>
+        <v>-0.98078528040323043</v>
+      </c>
+      <c r="D55">
+        <f t="shared" ref="D55:D104" si="23">COS(C55)</f>
+        <v>0.55637020177503194</v>
+      </c>
+      <c r="E55" s="2">
+        <f>E54</f>
+        <v>1</v>
+      </c>
+      <c r="F55" s="2">
+        <f t="shared" ref="F55:F104" si="24">C55</f>
+        <v>-0.98078528040323043</v>
+      </c>
+      <c r="G55" s="2">
+        <f t="shared" ref="G55:G104" si="25">(2*$C55*F55)-E55</f>
+        <v>0.92387953251128674</v>
+      </c>
+      <c r="H55" s="2">
+        <f t="shared" si="22"/>
+        <v>-0.83146961230254512</v>
+      </c>
+      <c r="I55" s="2">
+        <f t="shared" si="22"/>
+        <v>0.70710678118654724</v>
+      </c>
+      <c r="J55" s="2">
+        <f t="shared" si="22"/>
+        <v>-0.55557023301960173</v>
+      </c>
+      <c r="K55" s="2">
+        <f t="shared" si="22"/>
+        <v>0.38268343236508917</v>
+      </c>
+      <c r="L55" s="2">
+        <f t="shared" si="22"/>
+        <v>-0.19509032201612753</v>
+      </c>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C56">
+        <v>-0.92</v>
+      </c>
+      <c r="D56">
+        <f t="shared" si="23"/>
+        <v>0.60582015664346278</v>
+      </c>
+      <c r="E56" s="2">
+        <f t="shared" ref="E56:E104" si="26">E55</f>
+        <v>1</v>
+      </c>
+      <c r="F56" s="2">
+        <f t="shared" si="24"/>
+        <v>-0.92</v>
+      </c>
+      <c r="G56" s="2">
+        <f t="shared" si="25"/>
+        <v>0.69280000000000008</v>
+      </c>
+      <c r="H56" s="2">
+        <f t="shared" si="22"/>
+        <v>-0.35475200000000007</v>
+      </c>
+      <c r="I56" s="2">
+        <f t="shared" si="22"/>
+        <v>-4.0056319999999923E-2</v>
+      </c>
+      <c r="J56" s="2">
+        <f t="shared" si="22"/>
+        <v>0.42845562879999993</v>
+      </c>
+      <c r="K56" s="2">
+        <f t="shared" si="22"/>
+        <v>-0.74830203699200004</v>
+      </c>
+      <c r="L56" s="2">
+        <f t="shared" si="22"/>
+        <v>0.94842011926528036</v>
+      </c>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C57">
+        <v>-0.88</v>
+      </c>
+      <c r="D57">
+        <f t="shared" si="23"/>
+        <v>0.63715114419858021</v>
+      </c>
+      <c r="E57" s="2">
+        <f t="shared" si="26"/>
+        <v>1</v>
+      </c>
+      <c r="F57" s="2">
+        <f t="shared" si="24"/>
+        <v>-0.88</v>
+      </c>
+      <c r="G57" s="2">
+        <f t="shared" si="25"/>
+        <v>0.54879999999999995</v>
+      </c>
+      <c r="H57" s="2">
+        <f t="shared" si="22"/>
+        <v>-8.5887999999999964E-2</v>
+      </c>
+      <c r="I57" s="2">
+        <f t="shared" si="22"/>
+        <v>-0.39763712000000001</v>
+      </c>
+      <c r="J57" s="2">
+        <f t="shared" si="22"/>
+        <v>0.78572933119999999</v>
+      </c>
+      <c r="K57" s="2">
+        <f t="shared" si="22"/>
+        <v>-0.98524650291200011</v>
+      </c>
+      <c r="L57" s="2">
+        <f t="shared" si="22"/>
+        <v>0.94830451392512027</v>
+      </c>
+    </row>
+    <row r="58" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C58">
+        <f>A85</f>
+        <v>-0.83146961230254535</v>
+      </c>
+      <c r="D58">
+        <f t="shared" si="23"/>
+        <v>0.67379055865540416</v>
+      </c>
+      <c r="E58" s="2">
+        <f t="shared" si="26"/>
+        <v>1</v>
+      </c>
+      <c r="F58" s="2">
+        <f t="shared" si="24"/>
+        <v>-0.83146961230254535</v>
+      </c>
+      <c r="G58" s="2">
+        <f t="shared" si="25"/>
+        <v>0.38268343236509006</v>
+      </c>
+      <c r="H58" s="2">
+        <f t="shared" si="22"/>
+        <v>0.19509032201612786</v>
+      </c>
+      <c r="I58" s="2">
+        <f t="shared" si="22"/>
+        <v>-0.70710678118654724</v>
+      </c>
+      <c r="J58" s="2">
+        <f t="shared" si="22"/>
+        <v>0.98078528040323054</v>
+      </c>
+      <c r="K58" s="2">
+        <f t="shared" si="22"/>
+        <v>-0.9238795325112874</v>
+      </c>
+      <c r="L58" s="2">
+        <f t="shared" si="22"/>
+        <v>0.5555702330196034</v>
+      </c>
+    </row>
+    <row r="59" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C59">
+        <v>-0.8</v>
+      </c>
+      <c r="D59">
+        <f t="shared" si="23"/>
+        <v>0.69670670934716539</v>
+      </c>
+      <c r="E59" s="2">
+        <f t="shared" si="26"/>
+        <v>1</v>
+      </c>
+      <c r="F59" s="2">
+        <f t="shared" si="24"/>
+        <v>-0.8</v>
+      </c>
+      <c r="G59" s="2">
+        <f t="shared" si="25"/>
+        <v>0.28000000000000025</v>
+      </c>
+      <c r="H59" s="2">
+        <f t="shared" si="22"/>
+        <v>0.35199999999999965</v>
+      </c>
+      <c r="I59" s="2">
+        <f t="shared" si="22"/>
+        <v>-0.84319999999999973</v>
+      </c>
+      <c r="J59" s="2">
+        <f t="shared" si="22"/>
+        <v>0.99712000000000001</v>
+      </c>
+      <c r="K59" s="2">
+        <f t="shared" si="22"/>
+        <v>-0.75219200000000042</v>
+      </c>
+      <c r="L59" s="2">
+        <f t="shared" si="22"/>
+        <v>0.20638720000000066</v>
+      </c>
+    </row>
+    <row r="60" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C60">
+        <v>-0.76</v>
+      </c>
+      <c r="D60">
+        <f t="shared" si="23"/>
+        <v>0.7248360107409052</v>
+      </c>
+      <c r="E60" s="2">
+        <f t="shared" si="26"/>
+        <v>1</v>
+      </c>
+      <c r="F60" s="2">
+        <f t="shared" si="24"/>
+        <v>-0.76</v>
+      </c>
+      <c r="G60" s="2">
+        <f t="shared" si="25"/>
+        <v>0.1552</v>
+      </c>
+      <c r="H60" s="2">
+        <f t="shared" si="22"/>
+        <v>0.52409600000000001</v>
+      </c>
+      <c r="I60" s="2">
+        <f t="shared" si="22"/>
+        <v>-0.95182591999999999</v>
+      </c>
+      <c r="J60" s="2">
+        <f t="shared" si="22"/>
+        <v>0.92267939840000002</v>
+      </c>
+      <c r="K60" s="2">
+        <f t="shared" si="22"/>
+        <v>-0.4506467655680001</v>
+      </c>
+      <c r="L60" s="2">
+        <f t="shared" si="22"/>
+        <v>-0.23769631473663988</v>
+      </c>
+    </row>
+    <row r="61" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C61">
+        <v>-0.72</v>
+      </c>
+      <c r="D61">
+        <f t="shared" si="23"/>
+        <v>0.75180572914089505</v>
+      </c>
+      <c r="E61" s="2">
+        <f t="shared" si="26"/>
+        <v>1</v>
+      </c>
+      <c r="F61" s="2">
+        <f t="shared" si="24"/>
+        <v>-0.72</v>
+      </c>
+      <c r="G61" s="2">
+        <f t="shared" si="25"/>
+        <v>3.6799999999999944E-2</v>
+      </c>
+      <c r="H61" s="2">
+        <f t="shared" si="22"/>
+        <v>0.66700800000000005</v>
+      </c>
+      <c r="I61" s="2">
+        <f t="shared" si="22"/>
+        <v>-0.99729151999999999</v>
+      </c>
+      <c r="J61" s="2">
+        <f t="shared" si="22"/>
+        <v>0.76909178879999995</v>
+      </c>
+      <c r="K61" s="2">
+        <f t="shared" si="22"/>
+        <v>-0.11020065587200001</v>
+      </c>
+      <c r="L61" s="2">
+        <f t="shared" si="22"/>
+        <v>-0.61040284434431991</v>
+      </c>
+    </row>
+    <row r="62" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C62">
+        <v>-0.67999999999999994</v>
+      </c>
+      <c r="D62">
+        <f t="shared" si="23"/>
+        <v>0.77757271875092793</v>
+      </c>
+      <c r="E62" s="2">
+        <f t="shared" si="26"/>
+        <v>1</v>
+      </c>
+      <c r="F62" s="2">
+        <f t="shared" si="24"/>
+        <v>-0.67999999999999994</v>
+      </c>
+      <c r="G62" s="2">
+        <f t="shared" si="25"/>
+        <v>-7.5200000000000156E-2</v>
+      </c>
+      <c r="H62" s="2">
+        <f t="shared" si="22"/>
+        <v>0.78227200000000008</v>
+      </c>
+      <c r="I62" s="2">
+        <f t="shared" si="22"/>
+        <v>-0.98868991999999989</v>
+      </c>
+      <c r="J62" s="2">
+        <f t="shared" si="22"/>
+        <v>0.56234629119999968</v>
+      </c>
+      <c r="K62" s="2">
+        <f t="shared" si="22"/>
+        <v>0.22389896396800035</v>
+      </c>
+      <c r="L62" s="2">
+        <f t="shared" si="22"/>
+        <v>-0.86684888219648015</v>
+      </c>
+    </row>
+    <row r="63" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C63">
+        <v>-0.64</v>
+      </c>
+      <c r="D63">
+        <f t="shared" si="23"/>
+        <v>0.80209575788429266</v>
+      </c>
+      <c r="E63" s="2">
+        <f t="shared" si="26"/>
+        <v>1</v>
+      </c>
+      <c r="F63" s="2">
+        <f t="shared" si="24"/>
+        <v>-0.64</v>
+      </c>
+      <c r="G63" s="2">
+        <f t="shared" si="25"/>
+        <v>-0.18079999999999996</v>
+      </c>
+      <c r="H63" s="2">
+        <f t="shared" si="22"/>
+        <v>0.87142399999999998</v>
+      </c>
+      <c r="I63" s="2">
+        <f t="shared" si="22"/>
+        <v>-0.93462272000000002</v>
+      </c>
+      <c r="J63" s="2">
+        <f t="shared" si="22"/>
+        <v>0.32489308159999997</v>
+      </c>
+      <c r="K63" s="2">
+        <f t="shared" si="22"/>
+        <v>0.51875957555200003</v>
+      </c>
+      <c r="L63" s="2">
+        <f t="shared" si="22"/>
+        <v>-0.98890533830656002</v>
+      </c>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C64">
+        <v>-0.6</v>
+      </c>
+      <c r="D64">
+        <f t="shared" si="23"/>
+        <v>0.82533561490967833</v>
+      </c>
+      <c r="E64" s="2">
+        <f t="shared" si="26"/>
+        <v>1</v>
+      </c>
+      <c r="F64" s="2">
+        <f t="shared" si="24"/>
+        <v>-0.6</v>
+      </c>
+      <c r="G64" s="2">
+        <f t="shared" si="25"/>
+        <v>-0.28000000000000003</v>
+      </c>
+      <c r="H64" s="2">
+        <f t="shared" si="22"/>
+        <v>0.93599999999999994</v>
+      </c>
+      <c r="I64" s="2">
+        <f t="shared" si="22"/>
+        <v>-0.84319999999999995</v>
+      </c>
+      <c r="J64" s="2">
+        <f t="shared" si="22"/>
+        <v>7.5839999999999907E-2</v>
+      </c>
+      <c r="K64" s="2">
+        <f t="shared" si="22"/>
+        <v>0.75219200000000008</v>
+      </c>
+      <c r="L64" s="2">
+        <f t="shared" si="22"/>
+        <v>-0.97847039999999996</v>
+      </c>
+    </row>
+    <row r="65" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C65">
+        <f>A86</f>
+        <v>-0.55557023301960196</v>
+      </c>
+      <c r="D65">
+        <f t="shared" si="23"/>
+        <v>0.84959982163765124</v>
+      </c>
+      <c r="E65" s="2">
+        <f t="shared" si="26"/>
+        <v>1</v>
+      </c>
+      <c r="F65" s="2">
+        <f t="shared" si="24"/>
+        <v>-0.55557023301960196</v>
+      </c>
+      <c r="G65" s="2">
+        <f t="shared" si="25"/>
+        <v>-0.38268343236509039</v>
+      </c>
+      <c r="H65" s="2">
+        <f t="shared" si="22"/>
+        <v>0.98078528040323065</v>
+      </c>
+      <c r="I65" s="2">
+        <f t="shared" si="22"/>
+        <v>-0.70710678118654668</v>
+      </c>
+      <c r="J65" s="2">
+        <f t="shared" si="22"/>
+        <v>-0.19509032201612975</v>
+      </c>
+      <c r="K65" s="2">
+        <f t="shared" si="22"/>
+        <v>0.9238795325112874</v>
+      </c>
+      <c r="L65" s="2">
+        <f t="shared" si="22"/>
+        <v>-0.83146961230254401</v>
+      </c>
+    </row>
+    <row r="66" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C66">
+        <v>-0.52</v>
+      </c>
+      <c r="D66">
+        <f t="shared" si="23"/>
+        <v>0.86781917967764988</v>
+      </c>
+      <c r="E66" s="2">
+        <f t="shared" si="26"/>
+        <v>1</v>
+      </c>
+      <c r="F66" s="2">
+        <f t="shared" si="24"/>
+        <v>-0.52</v>
+      </c>
+      <c r="G66" s="2">
+        <f t="shared" si="25"/>
+        <v>-0.45919999999999994</v>
+      </c>
+      <c r="H66" s="2">
+        <f t="shared" si="22"/>
+        <v>0.99756800000000001</v>
+      </c>
+      <c r="I66" s="2">
+        <f t="shared" si="22"/>
+        <v>-0.57827072000000002</v>
+      </c>
+      <c r="J66" s="2">
+        <f t="shared" si="22"/>
+        <v>-0.39616645119999994</v>
+      </c>
+      <c r="K66" s="2">
+        <f t="shared" si="22"/>
+        <v>0.99028382924799996</v>
+      </c>
+      <c r="L66" s="2">
+        <f t="shared" si="22"/>
+        <v>-0.63372873121791995</v>
+      </c>
+    </row>
+    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C67">
+        <v>-0.48</v>
+      </c>
+      <c r="D67">
+        <f t="shared" si="23"/>
+        <v>0.88699492277928416</v>
+      </c>
+      <c r="E67" s="2">
+        <f t="shared" si="26"/>
+        <v>1</v>
+      </c>
+      <c r="F67" s="2">
+        <f t="shared" si="24"/>
+        <v>-0.48</v>
+      </c>
+      <c r="G67" s="2">
+        <f t="shared" si="25"/>
+        <v>-0.53920000000000001</v>
+      </c>
+      <c r="H67" s="2">
+        <f t="shared" si="22"/>
+        <v>0.99763199999999996</v>
+      </c>
+      <c r="I67" s="2">
+        <f t="shared" si="22"/>
+        <v>-0.41852671999999991</v>
+      </c>
+      <c r="J67" s="2">
+        <f t="shared" si="22"/>
+        <v>-0.59584634880000009</v>
+      </c>
+      <c r="K67" s="2">
+        <f t="shared" si="22"/>
+        <v>0.990539214848</v>
+      </c>
+      <c r="L67" s="2">
+        <f t="shared" si="22"/>
+        <v>-0.35507129745407984</v>
+      </c>
+    </row>
+    <row r="68" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C68">
+        <v>-0.43999999999999995</v>
+      </c>
+      <c r="D68">
+        <f t="shared" si="23"/>
+        <v>0.90475166321996348</v>
+      </c>
+      <c r="E68" s="2">
+        <f t="shared" si="26"/>
+        <v>1</v>
+      </c>
+      <c r="F68" s="2">
+        <f t="shared" si="24"/>
+        <v>-0.43999999999999995</v>
+      </c>
+      <c r="G68" s="2">
+        <f t="shared" si="25"/>
+        <v>-0.61280000000000001</v>
+      </c>
+      <c r="H68" s="2">
+        <f t="shared" si="22"/>
+        <v>0.97926399999999991</v>
+      </c>
+      <c r="I68" s="2">
+        <f t="shared" si="22"/>
+        <v>-0.24895231999999978</v>
+      </c>
+      <c r="J68" s="2">
+        <f t="shared" si="22"/>
+        <v>-0.76018595840000014</v>
+      </c>
+      <c r="K68" s="2">
+        <f t="shared" si="22"/>
+        <v>0.91791596339199988</v>
+      </c>
+      <c r="L68" s="2">
+        <f t="shared" si="22"/>
+        <v>-4.7580089384959612E-2</v>
+      </c>
+    </row>
+    <row r="69" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C69">
+        <v>-0.4</v>
+      </c>
+      <c r="D69">
+        <f t="shared" si="23"/>
+        <v>0.9210609940028851</v>
+      </c>
+      <c r="E69" s="2">
+        <f t="shared" si="26"/>
+        <v>1</v>
+      </c>
+      <c r="F69" s="2">
+        <f t="shared" si="24"/>
+        <v>-0.4</v>
+      </c>
+      <c r="G69" s="2">
+        <f t="shared" si="25"/>
+        <v>-0.67999999999999994</v>
+      </c>
+      <c r="H69" s="2">
+        <f t="shared" si="22"/>
+        <v>0.94399999999999995</v>
+      </c>
+      <c r="I69" s="2">
+        <f t="shared" si="22"/>
+        <v>-7.5200000000000045E-2</v>
+      </c>
+      <c r="J69" s="2">
+        <f t="shared" si="22"/>
+        <v>-0.88383999999999996</v>
+      </c>
+      <c r="K69" s="2">
+        <f t="shared" si="22"/>
+        <v>0.78227200000000008</v>
+      </c>
+      <c r="L69" s="2">
+        <f t="shared" si="22"/>
+        <v>0.25802239999999987</v>
+      </c>
+    </row>
+    <row r="70" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C70">
+        <v>-0.36</v>
+      </c>
+      <c r="D70">
+        <f t="shared" si="23"/>
+        <v>0.93589682367793481</v>
+      </c>
+      <c r="E70" s="2">
+        <f t="shared" si="26"/>
+        <v>1</v>
+      </c>
+      <c r="F70" s="2">
+        <f t="shared" si="24"/>
+        <v>-0.36</v>
+      </c>
+      <c r="G70" s="2">
+        <f t="shared" si="25"/>
+        <v>-0.74080000000000001</v>
+      </c>
+      <c r="H70" s="2">
+        <f t="shared" ref="H70:H104" si="27">(2*$C70*G70)-F70</f>
+        <v>0.89337599999999995</v>
+      </c>
+      <c r="I70" s="2">
+        <f t="shared" ref="I70:I104" si="28">(2*$C70*H70)-G70</f>
+        <v>9.7569280000000091E-2</v>
+      </c>
+      <c r="J70" s="2">
+        <f t="shared" ref="J70:J104" si="29">(2*$C70*I70)-H70</f>
+        <v>-0.96362588160000007</v>
+      </c>
+      <c r="K70" s="2">
+        <f t="shared" ref="K70:K104" si="30">(2*$C70*J70)-I70</f>
+        <v>0.59624135475199991</v>
+      </c>
+      <c r="L70" s="2">
+        <f t="shared" ref="L70:L104" si="31">(2*$C70*K70)-J70</f>
+        <v>0.5343321061785602</v>
+      </c>
+    </row>
+    <row r="71" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C71">
+        <v>-0.31999999999999995</v>
+      </c>
+      <c r="D71">
+        <f t="shared" si="23"/>
+        <v>0.94923541808244083</v>
+      </c>
+      <c r="E71" s="2">
+        <f t="shared" si="26"/>
+        <v>1</v>
+      </c>
+      <c r="F71" s="2">
+        <f t="shared" si="24"/>
+        <v>-0.31999999999999995</v>
+      </c>
+      <c r="G71" s="2">
+        <f t="shared" si="25"/>
+        <v>-0.79520000000000013</v>
+      </c>
+      <c r="H71" s="2">
+        <f t="shared" si="27"/>
+        <v>0.828928</v>
+      </c>
+      <c r="I71" s="2">
+        <f t="shared" si="28"/>
+        <v>0.26468608000000016</v>
+      </c>
+      <c r="J71" s="2">
+        <f t="shared" si="29"/>
+        <v>-0.99832709120000007</v>
+      </c>
+      <c r="K71" s="2">
+        <f t="shared" si="30"/>
+        <v>0.37424325836799976</v>
+      </c>
+      <c r="L71" s="2">
+        <f t="shared" si="31"/>
+        <v>0.75881140584448026</v>
+      </c>
+    </row>
+    <row r="72" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C72">
+        <v>-0.28000000000000003</v>
+      </c>
+      <c r="D72">
+        <f t="shared" si="23"/>
+        <v>0.96105543831077089</v>
+      </c>
+      <c r="E72" s="2">
+        <f t="shared" si="26"/>
+        <v>1</v>
+      </c>
+      <c r="F72" s="2">
+        <f t="shared" si="24"/>
+        <v>-0.28000000000000003</v>
+      </c>
+      <c r="G72" s="2">
+        <f t="shared" si="25"/>
+        <v>-0.84319999999999995</v>
+      </c>
+      <c r="H72" s="2">
+        <f t="shared" si="27"/>
+        <v>0.75219199999999997</v>
+      </c>
+      <c r="I72" s="2">
+        <f t="shared" si="28"/>
+        <v>0.42197247999999993</v>
+      </c>
+      <c r="J72" s="2">
+        <f t="shared" si="29"/>
+        <v>-0.98849658879999991</v>
+      </c>
+      <c r="K72" s="2">
+        <f t="shared" si="30"/>
+        <v>0.1315856097280001</v>
+      </c>
+      <c r="L72" s="2">
+        <f t="shared" si="31"/>
+        <v>0.91480864735231981</v>
+      </c>
+    </row>
+    <row r="73" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C73">
+        <v>-0.24</v>
+      </c>
+      <c r="D73">
+        <f t="shared" si="23"/>
+        <v>0.97133797485202966</v>
+      </c>
+      <c r="E73" s="2">
+        <f t="shared" si="26"/>
+        <v>1</v>
+      </c>
+      <c r="F73" s="2">
+        <f t="shared" si="24"/>
+        <v>-0.24</v>
+      </c>
+      <c r="G73" s="2">
+        <f t="shared" si="25"/>
+        <v>-0.88480000000000003</v>
+      </c>
+      <c r="H73" s="2">
+        <f t="shared" si="27"/>
+        <v>0.66470399999999996</v>
+      </c>
+      <c r="I73" s="2">
+        <f t="shared" si="28"/>
+        <v>0.56574208000000004</v>
+      </c>
+      <c r="J73" s="2">
+        <f t="shared" si="29"/>
+        <v>-0.93626019839999997</v>
+      </c>
+      <c r="K73" s="2">
+        <f t="shared" si="30"/>
+        <v>-0.11633718476800009</v>
+      </c>
+      <c r="L73" s="2">
+        <f t="shared" si="31"/>
+        <v>0.99210204708864003</v>
+      </c>
+    </row>
+    <row r="74" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C74">
+        <f>A87</f>
+        <v>-0.19509032201612819</v>
+      </c>
+      <c r="D74">
+        <f t="shared" si="23"/>
+        <v>0.98103016416377897</v>
+      </c>
+      <c r="E74" s="2">
+        <f t="shared" si="26"/>
+        <v>1</v>
+      </c>
+      <c r="F74" s="2">
+        <f t="shared" si="24"/>
+        <v>-0.19509032201612819</v>
+      </c>
+      <c r="G74" s="2">
+        <f t="shared" si="25"/>
+        <v>-0.92387953251128685</v>
+      </c>
+      <c r="H74" s="2">
+        <f t="shared" si="27"/>
+        <v>0.55557023301960207</v>
+      </c>
+      <c r="I74" s="2">
+        <f t="shared" si="28"/>
+        <v>0.70710678118654779</v>
+      </c>
+      <c r="J74" s="2">
+        <f t="shared" si="29"/>
+        <v>-0.83146961230254512</v>
+      </c>
+      <c r="K74" s="2">
+        <f t="shared" si="30"/>
+        <v>-0.38268343236509023</v>
+      </c>
+      <c r="L74" s="2">
+        <f t="shared" si="31"/>
+        <v>0.98078528040323043</v>
+      </c>
+    </row>
+    <row r="75" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C75">
+        <v>-0.16000000000000003</v>
+      </c>
+      <c r="D75">
+        <f t="shared" si="23"/>
+        <v>0.98722728337562693</v>
+      </c>
+      <c r="E75" s="2">
+        <f t="shared" si="26"/>
+        <v>1</v>
+      </c>
+      <c r="F75" s="2">
+        <f t="shared" si="24"/>
+        <v>-0.16000000000000003</v>
+      </c>
+      <c r="G75" s="2">
+        <f t="shared" si="25"/>
+        <v>-0.94879999999999998</v>
+      </c>
+      <c r="H75" s="2">
+        <f t="shared" si="27"/>
+        <v>0.46361600000000008</v>
+      </c>
+      <c r="I75" s="2">
+        <f t="shared" si="28"/>
+        <v>0.80044287999999986</v>
+      </c>
+      <c r="J75" s="2">
+        <f t="shared" si="29"/>
+        <v>-0.71975772160000007</v>
+      </c>
+      <c r="K75" s="2">
+        <f t="shared" si="30"/>
+        <v>-0.57012040908799977</v>
+      </c>
+      <c r="L75" s="2">
+        <f t="shared" si="31"/>
+        <v>0.90219625250816005</v>
+      </c>
+    </row>
+    <row r="76" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C76">
+        <v>-0.12</v>
+      </c>
+      <c r="D76">
+        <f t="shared" si="23"/>
+        <v>0.99280863585386625</v>
+      </c>
+      <c r="E76" s="2">
+        <f t="shared" si="26"/>
+        <v>1</v>
+      </c>
+      <c r="F76" s="2">
+        <f t="shared" si="24"/>
+        <v>-0.12</v>
+      </c>
+      <c r="G76" s="2">
+        <f t="shared" si="25"/>
+        <v>-0.97119999999999995</v>
+      </c>
+      <c r="H76" s="2">
+        <f t="shared" si="27"/>
+        <v>0.35308799999999996</v>
+      </c>
+      <c r="I76" s="2">
+        <f t="shared" si="28"/>
+        <v>0.88645887999999995</v>
+      </c>
+      <c r="J76" s="2">
+        <f t="shared" si="29"/>
+        <v>-0.56583813119999993</v>
+      </c>
+      <c r="K76" s="2">
+        <f t="shared" si="30"/>
+        <v>-0.75065772851199997</v>
+      </c>
+      <c r="L76" s="2">
+        <f t="shared" si="31"/>
+        <v>0.74599598604287998</v>
+      </c>
+    </row>
+    <row r="77" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C77">
+        <v>-7.999999999999996E-2</v>
+      </c>
+      <c r="D77">
+        <f t="shared" si="23"/>
+        <v>0.99680170630261944</v>
+      </c>
+      <c r="E77" s="2">
+        <f t="shared" si="26"/>
+        <v>1</v>
+      </c>
+      <c r="F77" s="2">
+        <f t="shared" si="24"/>
+        <v>-7.999999999999996E-2</v>
+      </c>
+      <c r="G77" s="2">
+        <f t="shared" si="25"/>
+        <v>-0.98719999999999997</v>
+      </c>
+      <c r="H77" s="2">
+        <f t="shared" si="27"/>
+        <v>0.23795199999999989</v>
+      </c>
+      <c r="I77" s="2">
+        <f t="shared" si="28"/>
+        <v>0.94912768000000003</v>
+      </c>
+      <c r="J77" s="2">
+        <f t="shared" si="29"/>
+        <v>-0.38981242879999978</v>
+      </c>
+      <c r="K77" s="2">
+        <f t="shared" si="30"/>
+        <v>-0.88675769139200011</v>
+      </c>
+      <c r="L77" s="2">
+        <f t="shared" si="31"/>
+        <v>0.53169365942271973</v>
+      </c>
+    </row>
+    <row r="78" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C78">
+        <v>-4.0000000000000036E-2</v>
+      </c>
+      <c r="D78">
+        <f t="shared" si="23"/>
+        <v>0.99920010666097792</v>
+      </c>
+      <c r="E78" s="2">
+        <f t="shared" si="26"/>
+        <v>1</v>
+      </c>
+      <c r="F78" s="2">
+        <f t="shared" si="24"/>
+        <v>-4.0000000000000036E-2</v>
+      </c>
+      <c r="G78" s="2">
+        <f t="shared" si="25"/>
+        <v>-0.99680000000000002</v>
+      </c>
+      <c r="H78" s="2">
+        <f t="shared" si="27"/>
+        <v>0.11974400000000011</v>
+      </c>
+      <c r="I78" s="2">
+        <f t="shared" si="28"/>
+        <v>0.98722047999999996</v>
+      </c>
+      <c r="J78" s="2">
+        <f t="shared" si="29"/>
+        <v>-0.19872163840000018</v>
+      </c>
+      <c r="K78" s="2">
+        <f t="shared" si="30"/>
+        <v>-0.97132274892799997</v>
+      </c>
+      <c r="L78" s="2">
+        <f t="shared" si="31"/>
+        <v>0.27642745831424026</v>
+      </c>
+    </row>
+    <row r="79" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C79">
+        <v>0</v>
+      </c>
+      <c r="D79">
+        <f t="shared" si="23"/>
+        <v>1</v>
+      </c>
+      <c r="E79" s="2">
+        <f t="shared" si="26"/>
+        <v>1</v>
+      </c>
+      <c r="F79" s="2">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="G79" s="2">
+        <f t="shared" si="25"/>
+        <v>-1</v>
+      </c>
+      <c r="H79" s="2">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="I79" s="2">
+        <f t="shared" si="28"/>
+        <v>1</v>
+      </c>
+      <c r="J79" s="2">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="K79" s="2">
+        <f t="shared" si="30"/>
+        <v>-1</v>
+      </c>
+      <c r="L79" s="2">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C80">
+        <v>4.0000000000000036E-2</v>
+      </c>
+      <c r="D80">
+        <f t="shared" si="23"/>
+        <v>0.99920010666097792</v>
+      </c>
+      <c r="E80" s="2">
+        <f t="shared" si="26"/>
+        <v>1</v>
+      </c>
+      <c r="F80" s="2">
+        <f t="shared" si="24"/>
+        <v>4.0000000000000036E-2</v>
+      </c>
+      <c r="G80" s="2">
+        <f t="shared" si="25"/>
+        <v>-0.99680000000000002</v>
+      </c>
+      <c r="H80" s="2">
+        <f t="shared" si="27"/>
+        <v>-0.11974400000000011</v>
+      </c>
+      <c r="I80" s="2">
+        <f t="shared" si="28"/>
+        <v>0.98722047999999996</v>
+      </c>
+      <c r="J80" s="2">
+        <f t="shared" si="29"/>
+        <v>0.19872163840000018</v>
+      </c>
+      <c r="K80" s="2">
+        <f t="shared" si="30"/>
+        <v>-0.97132274892799997</v>
+      </c>
+      <c r="L80" s="2">
+        <f t="shared" si="31"/>
+        <v>-0.27642745831424026</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C81">
+        <v>8.0000000000000071E-2</v>
+      </c>
+      <c r="D81">
+        <f t="shared" si="23"/>
+        <v>0.99680170630261933</v>
+      </c>
+      <c r="E81" s="2">
+        <f t="shared" si="26"/>
+        <v>1</v>
+      </c>
+      <c r="F81" s="2">
+        <f t="shared" si="24"/>
+        <v>8.0000000000000071E-2</v>
+      </c>
+      <c r="G81" s="2">
+        <f t="shared" si="25"/>
+        <v>-0.98719999999999997</v>
+      </c>
+      <c r="H81" s="2">
+        <f t="shared" si="27"/>
+        <v>-0.23795200000000022</v>
+      </c>
+      <c r="I81" s="2">
+        <f t="shared" si="28"/>
+        <v>0.94912767999999992</v>
+      </c>
+      <c r="J81" s="2">
+        <f t="shared" si="29"/>
+        <v>0.38981242880000033</v>
+      </c>
+      <c r="K81" s="2">
+        <f t="shared" si="30"/>
+        <v>-0.88675769139199978</v>
+      </c>
+      <c r="L81" s="2">
+        <f t="shared" si="31"/>
+        <v>-0.5316936594227204</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C82">
+        <v>0.12000000000000011</v>
+      </c>
+      <c r="D82">
+        <f t="shared" si="23"/>
+        <v>0.99280863585386625</v>
+      </c>
+      <c r="E82" s="2">
+        <f t="shared" si="26"/>
+        <v>1</v>
+      </c>
+      <c r="F82" s="2">
+        <f t="shared" si="24"/>
+        <v>0.12000000000000011</v>
+      </c>
+      <c r="G82" s="2">
+        <f t="shared" si="25"/>
+        <v>-0.97119999999999995</v>
+      </c>
+      <c r="H82" s="2">
+        <f t="shared" si="27"/>
+        <v>-0.35308800000000029</v>
+      </c>
+      <c r="I82" s="2">
+        <f t="shared" si="28"/>
+        <v>0.88645887999999984</v>
+      </c>
+      <c r="J82" s="2">
+        <f t="shared" si="29"/>
+        <v>0.56583813120000048</v>
+      </c>
+      <c r="K82" s="2">
+        <f t="shared" si="30"/>
+        <v>-0.75065772851199963</v>
+      </c>
+      <c r="L82" s="2">
+        <f t="shared" si="31"/>
+        <v>-0.74599598604288053</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>2</v>
+      </c>
+      <c r="C83">
+        <v>0.15999999999999992</v>
+      </c>
+      <c r="D83">
+        <f t="shared" si="23"/>
+        <v>0.98722728337562693</v>
+      </c>
+      <c r="E83" s="2">
+        <f t="shared" si="26"/>
+        <v>1</v>
+      </c>
+      <c r="F83" s="2">
+        <f t="shared" si="24"/>
+        <v>0.15999999999999992</v>
+      </c>
+      <c r="G83" s="2">
+        <f t="shared" si="25"/>
+        <v>-0.94880000000000009</v>
+      </c>
+      <c r="H83" s="2">
+        <f t="shared" si="27"/>
+        <v>-0.46361599999999981</v>
+      </c>
+      <c r="I83" s="2">
+        <f t="shared" si="28"/>
+        <v>0.80044288000000019</v>
+      </c>
+      <c r="J83" s="2">
+        <f t="shared" si="29"/>
+        <v>0.71975772159999973</v>
+      </c>
+      <c r="K83" s="2">
+        <f t="shared" si="30"/>
+        <v>-0.57012040908800032</v>
+      </c>
+      <c r="L83" s="2">
+        <f t="shared" si="31"/>
+        <v>-0.90219625250815971</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>-0.98078528040323043</v>
+      </c>
+      <c r="C84">
+        <f>A88</f>
+        <v>0.19509032201612833</v>
+      </c>
+      <c r="D84">
+        <f t="shared" si="23"/>
+        <v>0.98103016416377897</v>
+      </c>
+      <c r="E84" s="2">
+        <f t="shared" si="26"/>
+        <v>1</v>
+      </c>
+      <c r="F84" s="2">
+        <f t="shared" si="24"/>
+        <v>0.19509032201612833</v>
+      </c>
+      <c r="G84" s="2">
+        <f t="shared" si="25"/>
+        <v>-0.92387953251128674</v>
+      </c>
+      <c r="H84" s="2">
+        <f t="shared" si="27"/>
+        <v>-0.5555702330196024</v>
+      </c>
+      <c r="I84" s="2">
+        <f t="shared" si="28"/>
+        <v>0.70710678118654735</v>
+      </c>
+      <c r="J84" s="2">
+        <f t="shared" si="29"/>
+        <v>0.83146961230254546</v>
+      </c>
+      <c r="K84" s="2">
+        <f t="shared" si="30"/>
+        <v>-0.38268343236508939</v>
+      </c>
+      <c r="L84" s="2">
+        <f t="shared" si="31"/>
+        <v>-0.98078528040323054</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>-0.83146961230254535</v>
+      </c>
+      <c r="C85">
+        <v>0.24</v>
+      </c>
+      <c r="D85">
+        <f t="shared" si="23"/>
+        <v>0.97133797485202966</v>
+      </c>
+      <c r="E85" s="2">
+        <f t="shared" si="26"/>
+        <v>1</v>
+      </c>
+      <c r="F85" s="2">
+        <f t="shared" si="24"/>
+        <v>0.24</v>
+      </c>
+      <c r="G85" s="2">
+        <f t="shared" si="25"/>
+        <v>-0.88480000000000003</v>
+      </c>
+      <c r="H85" s="2">
+        <f t="shared" si="27"/>
+        <v>-0.66470399999999996</v>
+      </c>
+      <c r="I85" s="2">
+        <f t="shared" si="28"/>
+        <v>0.56574208000000004</v>
+      </c>
+      <c r="J85" s="2">
+        <f t="shared" si="29"/>
+        <v>0.93626019839999997</v>
+      </c>
+      <c r="K85" s="2">
+        <f t="shared" si="30"/>
+        <v>-0.11633718476800009</v>
+      </c>
+      <c r="L85" s="2">
+        <f t="shared" si="31"/>
+        <v>-0.99210204708864003</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>-0.55557023301960196</v>
+      </c>
+      <c r="C86">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="D86">
+        <f t="shared" si="23"/>
+        <v>0.96105543831077089</v>
+      </c>
+      <c r="E86" s="2">
+        <f t="shared" si="26"/>
+        <v>1</v>
+      </c>
+      <c r="F86" s="2">
+        <f t="shared" si="24"/>
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="G86" s="2">
+        <f t="shared" si="25"/>
+        <v>-0.84319999999999995</v>
+      </c>
+      <c r="H86" s="2">
+        <f t="shared" si="27"/>
+        <v>-0.75219199999999997</v>
+      </c>
+      <c r="I86" s="2">
+        <f t="shared" si="28"/>
+        <v>0.42197247999999993</v>
+      </c>
+      <c r="J86" s="2">
+        <f t="shared" si="29"/>
+        <v>0.98849658879999991</v>
+      </c>
+      <c r="K86" s="2">
+        <f t="shared" si="30"/>
+        <v>0.1315856097280001</v>
+      </c>
+      <c r="L86" s="2">
+        <f t="shared" si="31"/>
+        <v>-0.91480864735231981</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>-0.19509032201612819</v>
+      </c>
+      <c r="C87">
+        <v>0.32000000000000006</v>
+      </c>
+      <c r="D87">
+        <f t="shared" si="23"/>
+        <v>0.94923541808244083</v>
+      </c>
+      <c r="E87" s="2">
+        <f t="shared" si="26"/>
+        <v>1</v>
+      </c>
+      <c r="F87" s="2">
+        <f t="shared" si="24"/>
+        <v>0.32000000000000006</v>
+      </c>
+      <c r="G87" s="2">
+        <f t="shared" si="25"/>
+        <v>-0.79519999999999991</v>
+      </c>
+      <c r="H87" s="2">
+        <f t="shared" si="27"/>
+        <v>-0.82892800000000011</v>
+      </c>
+      <c r="I87" s="2">
+        <f t="shared" si="28"/>
+        <v>0.26468607999999971</v>
+      </c>
+      <c r="J87" s="2">
+        <f t="shared" si="29"/>
+        <v>0.99832709119999996</v>
+      </c>
+      <c r="K87" s="2">
+        <f t="shared" si="30"/>
+        <v>0.37424325836800043</v>
+      </c>
+      <c r="L87" s="2">
+        <f t="shared" si="31"/>
+        <v>-0.7588114058444797</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>0.19509032201612833</v>
+      </c>
+      <c r="C88">
+        <v>0.3600000000000001</v>
+      </c>
+      <c r="D88">
+        <f t="shared" si="23"/>
+        <v>0.93589682367793481</v>
+      </c>
+      <c r="E88" s="2">
+        <f t="shared" si="26"/>
+        <v>1</v>
+      </c>
+      <c r="F88" s="2">
+        <f t="shared" si="24"/>
+        <v>0.3600000000000001</v>
+      </c>
+      <c r="G88" s="2">
+        <f t="shared" si="25"/>
+        <v>-0.7407999999999999</v>
+      </c>
+      <c r="H88" s="2">
+        <f t="shared" si="27"/>
+        <v>-0.89337600000000017</v>
+      </c>
+      <c r="I88" s="2">
+        <f t="shared" si="28"/>
+        <v>9.7569279999999647E-2</v>
+      </c>
+      <c r="J88" s="2">
+        <f t="shared" si="29"/>
+        <v>0.96362588159999996</v>
+      </c>
+      <c r="K88" s="2">
+        <f t="shared" si="30"/>
+        <v>0.59624135475200046</v>
+      </c>
+      <c r="L88" s="2">
+        <f t="shared" si="31"/>
+        <v>-0.53433210617855953</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>0.55557023301960229</v>
+      </c>
+      <c r="C89">
+        <v>0.40000000000000013</v>
+      </c>
+      <c r="D89">
+        <f t="shared" si="23"/>
+        <v>0.92106099400288499</v>
+      </c>
+      <c r="E89" s="2">
+        <f t="shared" si="26"/>
+        <v>1</v>
+      </c>
+      <c r="F89" s="2">
+        <f t="shared" si="24"/>
+        <v>0.40000000000000013</v>
+      </c>
+      <c r="G89" s="2">
+        <f t="shared" si="25"/>
+        <v>-0.67999999999999972</v>
+      </c>
+      <c r="H89" s="2">
+        <f t="shared" si="27"/>
+        <v>-0.94400000000000006</v>
+      </c>
+      <c r="I89" s="2">
+        <f t="shared" si="28"/>
+        <v>-7.52000000000006E-2</v>
+      </c>
+      <c r="J89" s="2">
+        <f t="shared" si="29"/>
+        <v>0.88383999999999951</v>
+      </c>
+      <c r="K89" s="2">
+        <f t="shared" si="30"/>
+        <v>0.78227200000000041</v>
+      </c>
+      <c r="L89" s="2">
+        <f t="shared" si="31"/>
+        <v>-0.25802239999999899</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>0.83146961230254524</v>
+      </c>
+      <c r="C90">
+        <v>0.43999999999999995</v>
+      </c>
+      <c r="D90">
+        <f t="shared" si="23"/>
+        <v>0.90475166321996348</v>
+      </c>
+      <c r="E90" s="2">
+        <f t="shared" si="26"/>
+        <v>1</v>
+      </c>
+      <c r="F90" s="2">
+        <f t="shared" si="24"/>
+        <v>0.43999999999999995</v>
+      </c>
+      <c r="G90" s="2">
+        <f t="shared" si="25"/>
+        <v>-0.61280000000000001</v>
+      </c>
+      <c r="H90" s="2">
+        <f t="shared" si="27"/>
+        <v>-0.97926399999999991</v>
+      </c>
+      <c r="I90" s="2">
+        <f t="shared" si="28"/>
+        <v>-0.24895231999999978</v>
+      </c>
+      <c r="J90" s="2">
+        <f t="shared" si="29"/>
+        <v>0.76018595840000014</v>
+      </c>
+      <c r="K90" s="2">
+        <f t="shared" si="30"/>
+        <v>0.91791596339199988</v>
+      </c>
+      <c r="L90" s="2">
+        <f t="shared" si="31"/>
+        <v>4.7580089384959612E-2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>0.98078528040323043</v>
+      </c>
+      <c r="C91">
+        <v>0.48</v>
+      </c>
+      <c r="D91">
+        <f t="shared" si="23"/>
+        <v>0.88699492277928416</v>
+      </c>
+      <c r="E91" s="2">
+        <f t="shared" si="26"/>
+        <v>1</v>
+      </c>
+      <c r="F91" s="2">
+        <f t="shared" si="24"/>
+        <v>0.48</v>
+      </c>
+      <c r="G91" s="2">
+        <f t="shared" si="25"/>
+        <v>-0.53920000000000001</v>
+      </c>
+      <c r="H91" s="2">
+        <f t="shared" si="27"/>
+        <v>-0.99763199999999996</v>
+      </c>
+      <c r="I91" s="2">
+        <f t="shared" si="28"/>
+        <v>-0.41852671999999991</v>
+      </c>
+      <c r="J91" s="2">
+        <f t="shared" si="29"/>
+        <v>0.59584634880000009</v>
+      </c>
+      <c r="K91" s="2">
+        <f t="shared" si="30"/>
+        <v>0.990539214848</v>
+      </c>
+      <c r="L91" s="2">
+        <f t="shared" si="31"/>
+        <v>0.35507129745407984</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C92">
+        <v>0.52</v>
+      </c>
+      <c r="D92">
+        <f t="shared" si="23"/>
+        <v>0.86781917967764988</v>
+      </c>
+      <c r="E92" s="2">
+        <f t="shared" si="26"/>
+        <v>1</v>
+      </c>
+      <c r="F92" s="2">
+        <f t="shared" si="24"/>
+        <v>0.52</v>
+      </c>
+      <c r="G92" s="2">
+        <f t="shared" si="25"/>
+        <v>-0.45919999999999994</v>
+      </c>
+      <c r="H92" s="2">
+        <f t="shared" si="27"/>
+        <v>-0.99756800000000001</v>
+      </c>
+      <c r="I92" s="2">
+        <f t="shared" si="28"/>
+        <v>-0.57827072000000002</v>
+      </c>
+      <c r="J92" s="2">
+        <f t="shared" si="29"/>
+        <v>0.39616645119999994</v>
+      </c>
+      <c r="K92" s="2">
+        <f t="shared" si="30"/>
+        <v>0.99028382924799996</v>
+      </c>
+      <c r="L92" s="2">
+        <f t="shared" si="31"/>
+        <v>0.63372873121791995</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C93">
+        <f>A89</f>
+        <v>0.55557023301960229</v>
+      </c>
+      <c r="D93">
+        <f t="shared" si="23"/>
+        <v>0.84959982163765113</v>
+      </c>
+      <c r="E93" s="2">
+        <f t="shared" si="26"/>
+        <v>1</v>
+      </c>
+      <c r="F93" s="2">
+        <f t="shared" si="24"/>
+        <v>0.55557023301960229</v>
+      </c>
+      <c r="G93" s="2">
+        <f t="shared" si="25"/>
+        <v>-0.38268343236508962</v>
+      </c>
+      <c r="H93" s="2">
+        <f t="shared" si="27"/>
+        <v>-0.98078528040323043</v>
+      </c>
+      <c r="I93" s="2">
+        <f t="shared" si="28"/>
+        <v>-0.70710678118654768</v>
+      </c>
+      <c r="J93" s="2">
+        <f t="shared" si="29"/>
+        <v>0.19509032201612797</v>
+      </c>
+      <c r="K93" s="2">
+        <f t="shared" si="30"/>
+        <v>0.92387953251128663</v>
+      </c>
+      <c r="L93" s="2">
+        <f t="shared" si="31"/>
+        <v>0.83146961230254557</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C94">
+        <v>0.60000000000000009</v>
+      </c>
+      <c r="D94">
+        <f t="shared" si="23"/>
+        <v>0.82533561490967822</v>
+      </c>
+      <c r="E94" s="2">
+        <f t="shared" si="26"/>
+        <v>1</v>
+      </c>
+      <c r="F94" s="2">
+        <f t="shared" si="24"/>
+        <v>0.60000000000000009</v>
+      </c>
+      <c r="G94" s="2">
+        <f t="shared" si="25"/>
+        <v>-0.2799999999999998</v>
+      </c>
+      <c r="H94" s="2">
+        <f t="shared" si="27"/>
+        <v>-0.93599999999999994</v>
+      </c>
+      <c r="I94" s="2">
+        <f t="shared" si="28"/>
+        <v>-0.84320000000000039</v>
+      </c>
+      <c r="J94" s="2">
+        <f t="shared" si="29"/>
+        <v>-7.5840000000000574E-2</v>
+      </c>
+      <c r="K94" s="2">
+        <f t="shared" si="30"/>
+        <v>0.75219199999999975</v>
+      </c>
+      <c r="L94" s="2">
+        <f t="shared" si="31"/>
+        <v>0.97847040000000041</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C95">
+        <v>0.64000000000000012</v>
+      </c>
+      <c r="D95">
+        <f t="shared" si="23"/>
+        <v>0.80209575788429255</v>
+      </c>
+      <c r="E95" s="2">
+        <f t="shared" si="26"/>
+        <v>1</v>
+      </c>
+      <c r="F95" s="2">
+        <f t="shared" si="24"/>
+        <v>0.64000000000000012</v>
+      </c>
+      <c r="G95" s="2">
+        <f t="shared" si="25"/>
+        <v>-0.18079999999999963</v>
+      </c>
+      <c r="H95" s="2">
+        <f t="shared" si="27"/>
+        <v>-0.87142399999999975</v>
+      </c>
+      <c r="I95" s="2">
+        <f t="shared" si="28"/>
+        <v>-0.93462272000000035</v>
+      </c>
+      <c r="J95" s="2">
+        <f t="shared" si="29"/>
+        <v>-0.32489308160000085</v>
+      </c>
+      <c r="K95" s="2">
+        <f t="shared" si="30"/>
+        <v>0.51875957555199914</v>
+      </c>
+      <c r="L95" s="2">
+        <f t="shared" si="31"/>
+        <v>0.98890533830655991</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C96">
+        <v>0.67999999999999994</v>
+      </c>
+      <c r="D96">
+        <f t="shared" si="23"/>
+        <v>0.77757271875092793</v>
+      </c>
+      <c r="E96" s="2">
+        <f t="shared" si="26"/>
+        <v>1</v>
+      </c>
+      <c r="F96" s="2">
+        <f t="shared" si="24"/>
+        <v>0.67999999999999994</v>
+      </c>
+      <c r="G96" s="2">
+        <f t="shared" si="25"/>
+        <v>-7.5200000000000156E-2</v>
+      </c>
+      <c r="H96" s="2">
+        <f t="shared" si="27"/>
+        <v>-0.78227200000000008</v>
+      </c>
+      <c r="I96" s="2">
+        <f t="shared" si="28"/>
+        <v>-0.98868991999999989</v>
+      </c>
+      <c r="J96" s="2">
+        <f t="shared" si="29"/>
+        <v>-0.56234629119999968</v>
+      </c>
+      <c r="K96" s="2">
+        <f t="shared" si="30"/>
+        <v>0.22389896396800035</v>
+      </c>
+      <c r="L96" s="2">
+        <f t="shared" si="31"/>
+        <v>0.86684888219648015</v>
+      </c>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C97">
+        <v>0.72</v>
+      </c>
+      <c r="D97">
+        <f t="shared" si="23"/>
+        <v>0.75180572914089505</v>
+      </c>
+      <c r="E97" s="2">
+        <f t="shared" si="26"/>
+        <v>1</v>
+      </c>
+      <c r="F97" s="2">
+        <f t="shared" si="24"/>
+        <v>0.72</v>
+      </c>
+      <c r="G97" s="2">
+        <f t="shared" si="25"/>
+        <v>3.6799999999999944E-2</v>
+      </c>
+      <c r="H97" s="2">
+        <f t="shared" si="27"/>
+        <v>-0.66700800000000005</v>
+      </c>
+      <c r="I97" s="2">
+        <f t="shared" si="28"/>
+        <v>-0.99729151999999999</v>
+      </c>
+      <c r="J97" s="2">
+        <f t="shared" si="29"/>
+        <v>-0.76909178879999995</v>
+      </c>
+      <c r="K97" s="2">
+        <f t="shared" si="30"/>
+        <v>-0.11020065587200001</v>
+      </c>
+      <c r="L97" s="2">
+        <f t="shared" si="31"/>
+        <v>0.61040284434431991</v>
+      </c>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C98">
+        <v>0.76</v>
+      </c>
+      <c r="D98">
+        <f t="shared" si="23"/>
+        <v>0.7248360107409052</v>
+      </c>
+      <c r="E98" s="2">
+        <f t="shared" si="26"/>
+        <v>1</v>
+      </c>
+      <c r="F98" s="2">
+        <f t="shared" si="24"/>
+        <v>0.76</v>
+      </c>
+      <c r="G98" s="2">
+        <f t="shared" si="25"/>
+        <v>0.1552</v>
+      </c>
+      <c r="H98" s="2">
+        <f t="shared" si="27"/>
+        <v>-0.52409600000000001</v>
+      </c>
+      <c r="I98" s="2">
+        <f t="shared" si="28"/>
+        <v>-0.95182591999999999</v>
+      </c>
+      <c r="J98" s="2">
+        <f t="shared" si="29"/>
+        <v>-0.92267939840000002</v>
+      </c>
+      <c r="K98" s="2">
+        <f t="shared" si="30"/>
+        <v>-0.4506467655680001</v>
+      </c>
+      <c r="L98" s="2">
+        <f t="shared" si="31"/>
+        <v>0.23769631473663988</v>
+      </c>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C99">
+        <v>0.8</v>
+      </c>
+      <c r="D99">
+        <f t="shared" si="23"/>
+        <v>0.69670670934716539</v>
+      </c>
+      <c r="E99" s="2">
+        <f t="shared" si="26"/>
+        <v>1</v>
+      </c>
+      <c r="F99" s="2">
+        <f t="shared" si="24"/>
+        <v>0.8</v>
+      </c>
+      <c r="G99" s="2">
+        <f t="shared" si="25"/>
+        <v>0.28000000000000025</v>
+      </c>
+      <c r="H99" s="2">
+        <f t="shared" si="27"/>
+        <v>-0.35199999999999965</v>
+      </c>
+      <c r="I99" s="2">
+        <f t="shared" si="28"/>
+        <v>-0.84319999999999973</v>
+      </c>
+      <c r="J99" s="2">
+        <f t="shared" si="29"/>
+        <v>-0.99712000000000001</v>
+      </c>
+      <c r="K99" s="2">
+        <f t="shared" si="30"/>
+        <v>-0.75219200000000042</v>
+      </c>
+      <c r="L99" s="2">
+        <f t="shared" si="31"/>
+        <v>-0.20638720000000066</v>
+      </c>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C100">
+        <f>A90</f>
+        <v>0.83146961230254524</v>
+      </c>
+      <c r="D100">
+        <f t="shared" si="23"/>
+        <v>0.67379055865540427</v>
+      </c>
+      <c r="E100" s="2">
+        <f t="shared" si="26"/>
+        <v>1</v>
+      </c>
+      <c r="F100" s="2">
+        <f t="shared" si="24"/>
+        <v>0.83146961230254524</v>
+      </c>
+      <c r="G100" s="2">
+        <f t="shared" si="25"/>
+        <v>0.38268343236508984</v>
+      </c>
+      <c r="H100" s="2">
+        <f t="shared" si="27"/>
+        <v>-0.19509032201612819</v>
+      </c>
+      <c r="I100" s="2">
+        <f t="shared" si="28"/>
+        <v>-0.70710678118654746</v>
+      </c>
+      <c r="J100" s="2">
+        <f t="shared" si="29"/>
+        <v>-0.98078528040323043</v>
+      </c>
+      <c r="K100" s="2">
+        <f t="shared" si="30"/>
+        <v>-0.92387953251128674</v>
+      </c>
+      <c r="L100" s="2">
+        <f t="shared" si="31"/>
+        <v>-0.55557023301960218</v>
+      </c>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C101">
+        <v>0.88000000000000012</v>
+      </c>
+      <c r="D101">
+        <f t="shared" si="23"/>
+        <v>0.6371511441985801</v>
+      </c>
+      <c r="E101" s="2">
+        <f t="shared" si="26"/>
+        <v>1</v>
+      </c>
+      <c r="F101" s="2">
+        <f t="shared" si="24"/>
+        <v>0.88000000000000012</v>
+      </c>
+      <c r="G101" s="2">
+        <f t="shared" si="25"/>
+        <v>0.5488000000000004</v>
+      </c>
+      <c r="H101" s="2">
+        <f t="shared" si="27"/>
+        <v>8.5888000000000742E-2</v>
+      </c>
+      <c r="I101" s="2">
+        <f t="shared" si="28"/>
+        <v>-0.39763711999999907</v>
+      </c>
+      <c r="J101" s="2">
+        <f t="shared" si="29"/>
+        <v>-0.78572933119999921</v>
+      </c>
+      <c r="K101" s="2">
+        <f t="shared" si="30"/>
+        <v>-0.98524650291199967</v>
+      </c>
+      <c r="L101" s="2">
+        <f t="shared" si="31"/>
+        <v>-0.94830451392512038</v>
+      </c>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C102">
+        <v>0.91999999999999993</v>
+      </c>
+      <c r="D102">
+        <f t="shared" si="23"/>
+        <v>0.60582015664346289</v>
+      </c>
+      <c r="E102" s="2">
+        <f t="shared" si="26"/>
+        <v>1</v>
+      </c>
+      <c r="F102" s="2">
+        <f t="shared" si="24"/>
+        <v>0.91999999999999993</v>
+      </c>
+      <c r="G102" s="2">
+        <f t="shared" si="25"/>
+        <v>0.69279999999999964</v>
+      </c>
+      <c r="H102" s="2">
+        <f t="shared" si="27"/>
+        <v>0.35475199999999929</v>
+      </c>
+      <c r="I102" s="2">
+        <f t="shared" si="28"/>
+        <v>-4.0056320000001033E-2</v>
+      </c>
+      <c r="J102" s="2">
+        <f t="shared" si="29"/>
+        <v>-0.42845562880000121</v>
+      </c>
+      <c r="K102" s="2">
+        <f t="shared" si="30"/>
+        <v>-0.74830203699200115</v>
+      </c>
+      <c r="L102" s="2">
+        <f t="shared" si="31"/>
+        <v>-0.9484201192652808</v>
+      </c>
+    </row>
+    <row r="103" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C103">
+        <f>A91</f>
+        <v>0.98078528040323043</v>
+      </c>
+      <c r="D103">
+        <f t="shared" si="23"/>
+        <v>0.55637020177503194</v>
+      </c>
+      <c r="E103" s="2">
+        <f t="shared" si="26"/>
+        <v>1</v>
+      </c>
+      <c r="F103" s="2">
+        <f t="shared" si="24"/>
+        <v>0.98078528040323043</v>
+      </c>
+      <c r="G103" s="2">
+        <f t="shared" si="25"/>
+        <v>0.92387953251128674</v>
+      </c>
+      <c r="H103" s="2">
+        <f t="shared" si="27"/>
+        <v>0.83146961230254512</v>
+      </c>
+      <c r="I103" s="2">
+        <f t="shared" si="28"/>
+        <v>0.70710678118654724</v>
+      </c>
+      <c r="J103" s="2">
+        <f t="shared" si="29"/>
+        <v>0.55557023301960173</v>
+      </c>
+      <c r="K103" s="2">
+        <f t="shared" si="30"/>
+        <v>0.38268343236508917</v>
+      </c>
+      <c r="L103" s="2">
+        <f t="shared" si="31"/>
+        <v>0.19509032201612753</v>
+      </c>
+    </row>
+    <row r="104" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C104">
+        <v>1</v>
+      </c>
+      <c r="D104">
+        <f t="shared" si="23"/>
+        <v>0.54030230586813977</v>
+      </c>
+      <c r="E104" s="2">
+        <f t="shared" si="26"/>
+        <v>1</v>
+      </c>
+      <c r="F104" s="2">
+        <f t="shared" si="24"/>
+        <v>1</v>
+      </c>
+      <c r="G104" s="2">
+        <f t="shared" si="25"/>
+        <v>1</v>
+      </c>
+      <c r="H104" s="2">
+        <f t="shared" si="27"/>
+        <v>1</v>
+      </c>
+      <c r="I104" s="2">
+        <f t="shared" si="28"/>
+        <v>1</v>
+      </c>
+      <c r="J104" s="2">
+        <f t="shared" si="29"/>
+        <v>1</v>
+      </c>
+      <c r="K104" s="2">
+        <f t="shared" si="30"/>
+        <v>1</v>
+      </c>
+      <c r="L104" s="2">
+        <f t="shared" si="31"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="E107" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="F107" s="9"/>
+      <c r="G107" s="9"/>
+      <c r="H107" s="9"/>
+      <c r="I107" s="9"/>
+      <c r="J107" s="9"/>
+      <c r="K107" s="9"/>
+      <c r="L107" s="9"/>
+    </row>
+    <row r="108" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C108" t="s">
+        <v>32</v>
+      </c>
+      <c r="D108" t="s">
+        <v>31</v>
+      </c>
+      <c r="E108" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="F108" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="G108" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="H108" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="I108" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="J108" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="K108" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="L108" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="N108" s="12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="109" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C109">
+        <f>C54</f>
+        <v>-1</v>
+      </c>
+      <c r="D109">
+        <v>0.54030230586813977</v>
+      </c>
+      <c r="E109">
+        <f>E54*E$40/E$27</f>
+        <v>0.76519768655796649</v>
+      </c>
+      <c r="F109">
+        <f t="shared" ref="F109:L109" si="32">F54*F$40/F$27</f>
+        <v>-8.3266726846886741E-17</v>
+      </c>
+      <c r="G109">
+        <f t="shared" si="32"/>
+        <v>-0.2298069698637997</v>
+      </c>
+      <c r="H109">
+        <f t="shared" si="32"/>
+        <v>9.7144514654701197E-17</v>
+      </c>
+      <c r="I109">
+        <f t="shared" si="32"/>
+        <v>4.9532779272201261E-3</v>
+      </c>
+      <c r="J109">
+        <f t="shared" si="32"/>
+        <v>3.3306690738754696E-16</v>
+      </c>
+      <c r="K109">
+        <f t="shared" si="32"/>
+        <v>-4.1876149881873992E-5</v>
+      </c>
+      <c r="L109">
+        <f t="shared" si="32"/>
+        <v>-4.5449755070592346E-16</v>
+      </c>
+      <c r="N109">
+        <f>SUM(E109:L109)</f>
+        <v>0.540302118471505</v>
+      </c>
+    </row>
+    <row r="110" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C110" s="13">
+        <f t="shared" ref="C110:C159" si="33">C55</f>
+        <v>-0.98078528040323043</v>
+      </c>
+      <c r="D110">
+        <v>0.57351998607245669</v>
+      </c>
+      <c r="E110">
+        <f t="shared" ref="E110:L159" si="34">E55*E$40/E$27</f>
+        <v>0.76519768655796649</v>
+      </c>
+      <c r="F110">
+        <f t="shared" si="34"/>
+        <v>-8.1666780038783007E-17</v>
+      </c>
+      <c r="G110">
+        <f t="shared" si="34"/>
+        <v>-0.21231395588560262</v>
+      </c>
+      <c r="H110">
+        <f t="shared" si="34"/>
+        <v>8.0772711937263321E-17</v>
+      </c>
+      <c r="I110">
+        <f t="shared" si="34"/>
+        <v>3.5024964114389961E-3</v>
+      </c>
+      <c r="J110">
+        <f t="shared" si="34"/>
+        <v>1.8504205934841758E-16</v>
+      </c>
+      <c r="K110">
+        <f t="shared" si="34"/>
+        <v>-1.6025308771030462E-5</v>
+      </c>
+      <c r="L110">
+        <f t="shared" si="34"/>
+        <v>-8.8668073522759861E-17</v>
+      </c>
+      <c r="N110" s="13">
+        <f>SUM(E110:L110)</f>
+        <v>0.55637020177503194</v>
+      </c>
+    </row>
+    <row r="111" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C111">
+        <f t="shared" si="33"/>
+        <v>-0.92</v>
+      </c>
+      <c r="D111">
+        <v>0.60582015664346278</v>
+      </c>
+      <c r="E111">
+        <f t="shared" si="34"/>
+        <v>0.76519768655796649</v>
+      </c>
+      <c r="F111">
+        <f t="shared" si="34"/>
+        <v>-7.6605388699135808E-17</v>
+      </c>
+      <c r="G111">
+        <f t="shared" si="34"/>
+        <v>-0.15921026872164046</v>
+      </c>
+      <c r="H111">
+        <f t="shared" si="34"/>
+        <v>3.4462210862784567E-17</v>
+      </c>
+      <c r="I111">
+        <f t="shared" si="34"/>
+        <v>-1.984100857016657E-4</v>
+      </c>
+      <c r="J111">
+        <f t="shared" si="34"/>
+        <v>-1.4270439123720278E-16</v>
+      </c>
+      <c r="K111">
+        <f t="shared" si="34"/>
+        <v>3.1336008257988612E-5</v>
+      </c>
+      <c r="L111">
+        <f t="shared" si="34"/>
+        <v>4.3105462124628972E-16</v>
+      </c>
+      <c r="N111">
+        <f>SUM(E111:L111)</f>
+        <v>0.60582034375888261</v>
+      </c>
+    </row>
+    <row r="112" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C112">
+        <f t="shared" si="33"/>
+        <v>-0.88</v>
+      </c>
+      <c r="D112">
+        <v>0.63715114419858021</v>
+      </c>
+      <c r="E112">
+        <f t="shared" si="34"/>
+        <v>0.76519768655796649</v>
+      </c>
+      <c r="F112">
+        <f t="shared" si="34"/>
+        <v>-7.3274719625260335E-17</v>
+      </c>
+      <c r="G112">
+        <f t="shared" si="34"/>
+        <v>-0.12611806506125325</v>
+      </c>
+      <c r="H112">
+        <f t="shared" si="34"/>
+        <v>8.343548074662973E-18</v>
+      </c>
+      <c r="I112">
+        <f t="shared" si="34"/>
+        <v>-1.9696071695393808E-3</v>
+      </c>
+      <c r="J112">
+        <f t="shared" si="34"/>
+        <v>-2.6170043838646964E-16</v>
+      </c>
+      <c r="K112">
+        <f t="shared" si="34"/>
+        <v>4.1258330226535119E-5</v>
+      </c>
+      <c r="L112">
+        <f t="shared" si="34"/>
+        <v>4.3100207890233843E-16</v>
+      </c>
+      <c r="N112">
+        <f>SUM(E112:L112)</f>
+        <v>0.63715127265740046</v>
+      </c>
+    </row>
+    <row r="113" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C113" s="13">
+        <f t="shared" si="33"/>
+        <v>-0.83146961230254535</v>
+      </c>
+      <c r="D113">
+        <v>0.66746282584130812</v>
+      </c>
+      <c r="E113">
+        <f t="shared" si="34"/>
+        <v>0.76519768655796649</v>
+      </c>
+      <c r="F113">
+        <f t="shared" si="34"/>
+        <v>-6.9233753089082862E-17</v>
+      </c>
+      <c r="G113">
+        <f t="shared" si="34"/>
+        <v>-8.7943320008899678E-2</v>
+      </c>
+      <c r="H113">
+        <f t="shared" si="34"/>
+        <v>-1.8951954646086107E-17</v>
+      </c>
+      <c r="I113">
+        <f t="shared" si="34"/>
+        <v>-3.5024964114389961E-3</v>
+      </c>
+      <c r="J113">
+        <f t="shared" si="34"/>
+        <v>-3.2666712015513208E-16</v>
+      </c>
+      <c r="K113">
+        <f t="shared" si="34"/>
+        <v>3.8688517776238347E-5</v>
+      </c>
+      <c r="L113">
+        <f t="shared" si="34"/>
+        <v>2.5250531015252891E-16</v>
+      </c>
+      <c r="N113" s="13">
+        <f>SUM(E113:L113)</f>
+        <v>0.67379055865540383</v>
+      </c>
+    </row>
+    <row r="114" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C114">
+        <f t="shared" si="33"/>
+        <v>-0.8</v>
+      </c>
+      <c r="D114">
+        <v>0.69670670934716539</v>
+      </c>
+      <c r="E114">
+        <f t="shared" si="34"/>
+        <v>0.76519768655796649</v>
+      </c>
+      <c r="F114">
+        <f t="shared" si="34"/>
+        <v>-6.6613381477509402E-17</v>
+      </c>
+      <c r="G114">
+        <f t="shared" si="34"/>
+        <v>-6.434595156186397E-2</v>
+      </c>
+      <c r="H114">
+        <f t="shared" si="34"/>
+        <v>-3.419486915845479E-17</v>
+      </c>
+      <c r="I114">
+        <f t="shared" si="34"/>
+        <v>-4.1766039482320086E-3</v>
+      </c>
+      <c r="J114">
+        <f t="shared" si="34"/>
+        <v>-3.3210767469427085E-16</v>
+      </c>
+      <c r="K114">
+        <f t="shared" si="34"/>
+        <v>3.1498904931946579E-5</v>
+      </c>
+      <c r="L114">
+        <f t="shared" si="34"/>
+        <v>9.3802476897053865E-17</v>
+      </c>
+      <c r="N114">
+        <f>SUM(E114:L114)</f>
+        <v>0.69670662995280208</v>
+      </c>
+    </row>
+    <row r="115" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C115">
+        <f t="shared" si="33"/>
+        <v>-0.76</v>
+      </c>
+      <c r="D115">
+        <v>0.7248360107409052</v>
+      </c>
+      <c r="E115">
+        <f t="shared" si="34"/>
+        <v>0.76519768655796649</v>
+      </c>
+      <c r="F115">
+        <f t="shared" si="34"/>
+        <v>-6.328271240363393E-17</v>
+      </c>
+      <c r="G115">
+        <f t="shared" si="34"/>
+        <v>-3.5666041722861717E-2</v>
+      </c>
+      <c r="H115">
+        <f t="shared" si="34"/>
+        <v>-5.0913051552470278E-17</v>
+      </c>
+      <c r="I115">
+        <f t="shared" si="34"/>
+        <v>-4.7146583200919894E-3</v>
+      </c>
+      <c r="J115">
+        <f t="shared" si="34"/>
+        <v>-3.0731397373529034E-16</v>
+      </c>
+      <c r="K115">
+        <f t="shared" si="34"/>
+        <v>1.8871351498707303E-5</v>
+      </c>
+      <c r="L115">
+        <f t="shared" si="34"/>
+        <v>-1.0803239285962712E-16</v>
+      </c>
+      <c r="N115">
+        <f>SUM(E115:L115)</f>
+        <v>0.72483585786651095</v>
+      </c>
+    </row>
+    <row r="116" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C116">
+        <f t="shared" si="33"/>
+        <v>-0.72</v>
+      </c>
+      <c r="D116">
+        <v>0.75180572914089505</v>
+      </c>
+      <c r="E116">
+        <f t="shared" si="34"/>
+        <v>0.76519768655796649</v>
+      </c>
+      <c r="F116">
+        <f t="shared" si="34"/>
+        <v>-5.9952043329758457E-17</v>
+      </c>
+      <c r="G116">
+        <f t="shared" si="34"/>
+        <v>-8.4568964909878166E-3</v>
+      </c>
+      <c r="H116">
+        <f t="shared" si="34"/>
+        <v>-6.4796168430802941E-17</v>
+      </c>
+      <c r="I116">
+        <f t="shared" si="34"/>
+        <v>-4.9398620730198087E-3</v>
+      </c>
+      <c r="J116">
+        <f t="shared" si="34"/>
+        <v>-2.5615902359277241E-16</v>
+      </c>
+      <c r="K116">
+        <f t="shared" si="34"/>
+        <v>4.6147791823766895E-6</v>
+      </c>
+      <c r="L116">
+        <f t="shared" si="34"/>
+        <v>-2.7742659769842245E-16</v>
+      </c>
+      <c r="N116">
+        <f>SUM(E116:L116)</f>
+        <v>0.7518055427731406</v>
+      </c>
+    </row>
+    <row r="117" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C117">
+        <f t="shared" si="33"/>
+        <v>-0.67999999999999994</v>
+      </c>
+      <c r="D117">
+        <v>0.77757271875092793</v>
+      </c>
+      <c r="E117">
+        <f t="shared" si="34"/>
+        <v>0.76519768655796649</v>
+      </c>
+      <c r="F117">
+        <f t="shared" si="34"/>
+        <v>-5.6621374255882985E-17</v>
+      </c>
+      <c r="G117">
+        <f t="shared" si="34"/>
+        <v>1.7281484133757772E-2</v>
+      </c>
+      <c r="H117">
+        <f t="shared" si="34"/>
+        <v>-7.5993433767962426E-17</v>
+      </c>
+      <c r="I117">
+        <f t="shared" si="34"/>
+        <v>-4.897255957601032E-3</v>
+      </c>
+      <c r="J117">
+        <f t="shared" si="34"/>
+        <v>-1.8729894009084081E-16</v>
+      </c>
+      <c r="K117">
+        <f t="shared" si="34"/>
+        <v>-9.3760265735202868E-6</v>
+      </c>
+      <c r="L117">
+        <f t="shared" si="34"/>
+        <v>-3.9398069379046779E-16</v>
+      </c>
+      <c r="N117">
+        <f>SUM(E117:L117)</f>
+        <v>0.77757253870754883</v>
+      </c>
+    </row>
+    <row r="118" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C118">
+        <f t="shared" si="33"/>
+        <v>-0.64</v>
+      </c>
+      <c r="D118">
+        <v>0.80209575788429266</v>
+      </c>
+      <c r="E118">
+        <f t="shared" si="34"/>
+        <v>0.76519768655796649</v>
+      </c>
+      <c r="F118">
+        <f t="shared" si="34"/>
+        <v>-5.3290705182007512E-17</v>
+      </c>
+      <c r="G118">
+        <f t="shared" si="34"/>
+        <v>4.1549100151374974E-2</v>
+      </c>
+      <c r="H118">
+        <f t="shared" si="34"/>
+        <v>-8.4654061538458331E-17</v>
+      </c>
+      <c r="I118">
+        <f t="shared" si="34"/>
+        <v>-4.629446089254436E-3</v>
+      </c>
+      <c r="J118">
+        <f t="shared" si="34"/>
+        <v>-1.0821113392012193E-16</v>
+      </c>
+      <c r="K118">
+        <f t="shared" si="34"/>
+        <v>-2.172365373847289E-5</v>
+      </c>
+      <c r="L118">
+        <f t="shared" si="34"/>
+        <v>-4.4945505414034417E-16</v>
+      </c>
+      <c r="N118">
+        <f>SUM(E118:L118)</f>
+        <v>0.8020956169663479</v>
+      </c>
+    </row>
+    <row r="119" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C119">
+        <f t="shared" si="33"/>
+        <v>-0.6</v>
+      </c>
+      <c r="D119">
+        <v>0.82533561490967833</v>
+      </c>
+      <c r="E119">
+        <f t="shared" si="34"/>
+        <v>0.76519768655796649</v>
+      </c>
+      <c r="F119">
+        <f t="shared" si="34"/>
+        <v>-4.9960036108132039E-17</v>
+      </c>
+      <c r="G119">
+        <f t="shared" si="34"/>
+        <v>6.4345951561863915E-2</v>
+      </c>
+      <c r="H119">
+        <f t="shared" si="34"/>
+        <v>-9.0927265716800315E-17</v>
+      </c>
+      <c r="I119">
+        <f t="shared" si="34"/>
+        <v>-4.1766039482320104E-3</v>
+      </c>
+      <c r="J119">
+        <f t="shared" si="34"/>
+        <v>-2.5259794256271531E-17</v>
+      </c>
+      <c r="K119">
+        <f t="shared" si="34"/>
+        <v>-3.1498904931946566E-5</v>
+      </c>
+      <c r="L119">
+        <f t="shared" si="34"/>
+        <v>-4.4471240023824521E-16</v>
+      </c>
+      <c r="N119">
+        <f>SUM(E119:L119)</f>
+        <v>0.82533553526666592</v>
+      </c>
+    </row>
+    <row r="120" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C120">
+        <f t="shared" si="33"/>
+        <v>-0.55557023301960196</v>
+      </c>
+      <c r="D120">
+        <v>0.84725511101341611</v>
+      </c>
+      <c r="E120">
+        <f t="shared" si="34"/>
+        <v>0.76519768655796649</v>
+      </c>
+      <c r="F120">
+        <f t="shared" si="34"/>
+        <v>-4.6260514837104412E-17</v>
+      </c>
+      <c r="G120">
+        <f t="shared" si="34"/>
+        <v>8.7943320008899761E-2</v>
+      </c>
+      <c r="H120">
+        <f t="shared" si="34"/>
+        <v>-9.5277910045246866E-17</v>
+      </c>
+      <c r="I120">
+        <f t="shared" si="34"/>
+        <v>-3.502496411438993E-3</v>
+      </c>
+      <c r="J120">
+        <f t="shared" si="34"/>
+        <v>6.4978130215153001E-17</v>
+      </c>
+      <c r="K120">
+        <f t="shared" si="34"/>
+        <v>-3.8688517776238347E-5</v>
+      </c>
+      <c r="L120">
+        <f t="shared" si="34"/>
+        <v>-3.7790090227791004E-16</v>
+      </c>
+      <c r="N120">
+        <f>SUM(E120:L120)</f>
+        <v>0.8495998216376508</v>
+      </c>
+    </row>
+    <row r="121" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C121">
+        <f t="shared" si="33"/>
+        <v>-0.52</v>
+      </c>
+      <c r="D121">
+        <v>0.86781917967764988</v>
+      </c>
+      <c r="E121">
+        <f t="shared" si="34"/>
+        <v>0.76519768655796649</v>
+      </c>
+      <c r="F121">
+        <f t="shared" si="34"/>
+        <v>-4.3298697960381107E-17</v>
+      </c>
+      <c r="G121">
+        <f t="shared" si="34"/>
+        <v>0.10552736056145681</v>
+      </c>
+      <c r="H121">
+        <f t="shared" si="34"/>
+        <v>-9.6908259195060962E-17</v>
+      </c>
+      <c r="I121">
+        <f t="shared" si="34"/>
+        <v>-2.8643355933336899E-3</v>
+      </c>
+      <c r="J121">
+        <f t="shared" si="34"/>
+        <v>1.3194993471188351E-16</v>
+      </c>
+      <c r="K121">
+        <f t="shared" si="34"/>
+        <v>-4.1469274059185358E-5</v>
+      </c>
+      <c r="L121">
+        <f t="shared" si="34"/>
+        <v>-2.880281561505171E-16</v>
+      </c>
+      <c r="N121">
+        <f>SUM(E121:L121)</f>
+        <v>0.86781924225203011</v>
+      </c>
+    </row>
+    <row r="122" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C122">
+        <f t="shared" si="33"/>
+        <v>-0.48</v>
+      </c>
+      <c r="D122">
+        <v>0.88699492277928416</v>
+      </c>
+      <c r="E122">
+        <f t="shared" si="34"/>
+        <v>0.76519768655796649</v>
+      </c>
+      <c r="F122">
+        <f t="shared" si="34"/>
+        <v>-3.9968028886505634E-17</v>
+      </c>
+      <c r="G122">
+        <f t="shared" si="34"/>
+        <v>0.1239119181505608</v>
+      </c>
+      <c r="H122">
+        <f t="shared" si="34"/>
+        <v>-9.6914476443998857E-17</v>
+      </c>
+      <c r="I122">
+        <f t="shared" si="34"/>
+        <v>-2.0730791641278374E-3</v>
+      </c>
+      <c r="J122">
+        <f t="shared" si="34"/>
+        <v>1.9845670067297763E-16</v>
+      </c>
+      <c r="K122">
+        <f t="shared" si="34"/>
+        <v>-4.1479968624848631E-5</v>
+      </c>
+      <c r="L122">
+        <f t="shared" si="34"/>
+        <v>-1.6137903501885367E-16</v>
+      </c>
+      <c r="N122">
+        <f>SUM(E122:L122)</f>
+        <v>0.88699504557577469</v>
+      </c>
+    </row>
+    <row r="123" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C123">
+        <f t="shared" si="33"/>
+        <v>-0.43999999999999995</v>
+      </c>
+      <c r="D123">
+        <v>0.90475166321996348</v>
+      </c>
+      <c r="E123">
+        <f t="shared" si="34"/>
+        <v>0.76519768655796649</v>
+      </c>
+      <c r="F123">
+        <f t="shared" si="34"/>
+        <v>-3.6637359812630161E-17</v>
+      </c>
+      <c r="G123">
+        <f t="shared" si="34"/>
+        <v>0.14082571113253645</v>
+      </c>
+      <c r="H123">
+        <f t="shared" si="34"/>
+        <v>-9.5130125998821308E-17</v>
+      </c>
+      <c r="I123">
+        <f t="shared" si="34"/>
+        <v>-1.2331300315862404E-3</v>
+      </c>
+      <c r="J123">
+        <f t="shared" si="34"/>
+        <v>2.5319278620372647E-16</v>
+      </c>
+      <c r="K123">
+        <f t="shared" si="34"/>
+        <v>-3.8438786461968148E-5</v>
+      </c>
+      <c r="L123">
+        <f t="shared" si="34"/>
+        <v>-2.1625034087833051E-17</v>
+      </c>
+      <c r="N123">
+        <f>SUM(E123:L123)</f>
+        <v>0.90475182887245498</v>
+      </c>
+    </row>
+    <row r="124" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C124">
+        <f t="shared" si="33"/>
+        <v>-0.4</v>
+      </c>
+      <c r="D124">
+        <v>0.9210609940028851</v>
+      </c>
+      <c r="E124">
+        <f t="shared" si="34"/>
+        <v>0.76519768655796649</v>
+      </c>
+      <c r="F124">
+        <f t="shared" si="34"/>
+        <v>-3.3306690738754701E-17</v>
+      </c>
+      <c r="G124">
+        <f t="shared" si="34"/>
+        <v>0.15626873950738379</v>
+      </c>
+      <c r="H124">
+        <f t="shared" si="34"/>
+        <v>-9.1704421834037925E-17</v>
+      </c>
+      <c r="I124">
+        <f t="shared" si="34"/>
+        <v>-3.7248650012695368E-4</v>
+      </c>
+      <c r="J124">
+        <f t="shared" si="34"/>
+        <v>2.9437785542540947E-16</v>
+      </c>
+      <c r="K124">
+        <f t="shared" si="34"/>
+        <v>-3.2758539520393334E-5</v>
+      </c>
+      <c r="L124">
+        <f t="shared" si="34"/>
+        <v>1.17270548827264E-16</v>
+      </c>
+      <c r="N124">
+        <f>SUM(E124:L124)</f>
+        <v>0.92106118102570322</v>
+      </c>
+    </row>
+    <row r="125" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C125">
+        <f t="shared" si="33"/>
+        <v>-0.36</v>
+      </c>
+      <c r="D125">
+        <v>0.93589682367793481</v>
+      </c>
+      <c r="E125">
+        <f t="shared" si="34"/>
+        <v>0.76519768655796649</v>
+      </c>
+      <c r="F125">
+        <f t="shared" si="34"/>
+        <v>-2.9976021664879229E-17</v>
+      </c>
+      <c r="G125">
+        <f t="shared" si="34"/>
+        <v>0.17024100327510283</v>
+      </c>
+      <c r="H125">
+        <f t="shared" si="34"/>
+        <v>-8.6786577924158332E-17</v>
+      </c>
+      <c r="I125">
+        <f t="shared" si="34"/>
+        <v>4.8328776099876053E-4</v>
+      </c>
+      <c r="J125">
+        <f t="shared" si="34"/>
+        <v>3.2095189226311052E-16</v>
+      </c>
+      <c r="K125">
+        <f t="shared" si="34"/>
+        <v>-2.4968292337366349E-5</v>
+      </c>
+      <c r="L125">
+        <f t="shared" si="34"/>
+        <v>2.4285263352169302E-16</v>
+      </c>
+      <c r="N125">
+        <f>SUM(E125:L125)</f>
+        <v>0.93589700930173114</v>
+      </c>
+    </row>
+    <row r="126" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C126">
+        <f t="shared" si="33"/>
+        <v>-0.31999999999999995</v>
+      </c>
+      <c r="D126">
+        <v>0.94923541808244083</v>
+      </c>
+      <c r="E126">
+        <f t="shared" si="34"/>
+        <v>0.76519768655796649</v>
+      </c>
+      <c r="F126">
+        <f t="shared" si="34"/>
+        <v>-2.6645352591003753E-17</v>
+      </c>
+      <c r="G126">
+        <f t="shared" si="34"/>
+        <v>0.18274250243569354</v>
+      </c>
+      <c r="H126">
+        <f t="shared" si="34"/>
+        <v>-8.0525808243692149E-17</v>
+      </c>
+      <c r="I126">
+        <f t="shared" si="34"/>
+        <v>1.3110637177064213E-3</v>
+      </c>
+      <c r="J126">
+        <f t="shared" si="34"/>
+        <v>3.3250971682718956E-16</v>
+      </c>
+      <c r="K126">
+        <f t="shared" si="34"/>
+        <v>-1.5671866779699251E-5</v>
+      </c>
+      <c r="L126">
+        <f t="shared" si="34"/>
+        <v>3.4487792540403471E-16</v>
+      </c>
+      <c r="N126">
+        <f>SUM(E126:L126)</f>
+        <v>0.94923558084458726</v>
+      </c>
+    </row>
+    <row r="127" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C127">
+        <f t="shared" si="33"/>
+        <v>-0.28000000000000003</v>
+      </c>
+      <c r="D127">
+        <v>0.96105543831077089</v>
+      </c>
+      <c r="E127">
+        <f t="shared" si="34"/>
+        <v>0.76519768655796649</v>
+      </c>
+      <c r="F127">
+        <f t="shared" si="34"/>
+        <v>-2.331468351712829E-17</v>
+      </c>
+      <c r="G127">
+        <f t="shared" si="34"/>
+        <v>0.19377323698915588</v>
+      </c>
+      <c r="H127">
+        <f t="shared" si="34"/>
+        <v>-7.3071326767149E-17</v>
+      </c>
+      <c r="I127">
+        <f t="shared" si="34"/>
+        <v>2.0901469710783356E-3</v>
+      </c>
+      <c r="J127">
+        <f t="shared" si="34"/>
+        <v>3.2923550179475566E-16</v>
+      </c>
+      <c r="K127">
+        <f t="shared" si="34"/>
+        <v>-5.5102987152675084E-6</v>
+      </c>
+      <c r="L127">
+        <f t="shared" si="34"/>
+        <v>4.1577828958622824E-16</v>
+      </c>
+      <c r="N127">
+        <f>SUM(E127:L127)</f>
+        <v>0.96105556021948613</v>
+      </c>
+    </row>
+    <row r="128" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C128">
+        <f t="shared" si="33"/>
+        <v>-0.24</v>
+      </c>
+      <c r="D128">
+        <v>0.97133797485202966</v>
+      </c>
+      <c r="E128">
+        <f t="shared" si="34"/>
+        <v>0.76519768655796649</v>
+      </c>
+      <c r="F128">
+        <f t="shared" si="34"/>
+        <v>-1.9984014443252817E-17</v>
+      </c>
+      <c r="G128">
+        <f t="shared" si="34"/>
+        <v>0.20333320693548998</v>
+      </c>
+      <c r="H128">
+        <f t="shared" si="34"/>
+        <v>-6.4572347469038495E-17</v>
+      </c>
+      <c r="I128">
+        <f t="shared" si="34"/>
+        <v>2.802277757363603E-3</v>
+      </c>
+      <c r="J128">
+        <f t="shared" si="34"/>
+        <v>3.1183728879113915E-16</v>
+      </c>
+      <c r="K128">
+        <f t="shared" si="34"/>
+        <v>4.87175338618004E-6</v>
+      </c>
+      <c r="L128">
+        <f t="shared" si="34"/>
+        <v>4.5090795045211959E-16</v>
+      </c>
+      <c r="N128">
+        <f>SUM(E128:L128)</f>
+        <v>0.9713380430042069</v>
+      </c>
+    </row>
+    <row r="129" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C129">
+        <f t="shared" si="33"/>
+        <v>-0.19509032201612819</v>
+      </c>
+      <c r="D129">
+        <v>0.98006657784124163</v>
+      </c>
+      <c r="E129">
+        <f t="shared" si="34"/>
+        <v>0.76519768655796649</v>
+      </c>
+      <c r="F129">
+        <f t="shared" si="34"/>
+        <v>-1.6244532553788121E-17</v>
+      </c>
+      <c r="G129">
+        <f t="shared" si="34"/>
+        <v>0.21231395588560265</v>
+      </c>
+      <c r="H129">
+        <f t="shared" si="34"/>
+        <v>-5.397060064328849E-17</v>
+      </c>
+      <c r="I129">
+        <f t="shared" si="34"/>
+        <v>3.5024964114389987E-3</v>
+      </c>
+      <c r="J129">
+        <f t="shared" si="34"/>
+        <v>2.769350123563314E-16</v>
+      </c>
+      <c r="K129">
+        <f t="shared" si="34"/>
+        <v>1.6025308771030506E-5</v>
+      </c>
+      <c r="L129">
+        <f t="shared" si="34"/>
+        <v>4.4576450771169057E-16</v>
+      </c>
+      <c r="N129">
+        <f>SUM(E129:L129)</f>
+        <v>0.98103016416377975</v>
+      </c>
+    </row>
+    <row r="130" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C130">
+        <f t="shared" si="33"/>
+        <v>-0.16000000000000003</v>
+      </c>
+      <c r="D130">
+        <v>0.98722728337562693</v>
+      </c>
+      <c r="E130">
+        <f t="shared" si="34"/>
+        <v>0.76519768655796649</v>
+      </c>
+      <c r="F130">
+        <f t="shared" si="34"/>
+        <v>-1.3322676295501881E-17</v>
+      </c>
+      <c r="G130">
+        <f t="shared" si="34"/>
+        <v>0.21804085300677314</v>
+      </c>
+      <c r="H130">
+        <f t="shared" si="34"/>
+        <v>-4.5037751306153959E-17</v>
+      </c>
+      <c r="I130">
+        <f t="shared" si="34"/>
+        <v>3.9648160495045076E-3</v>
+      </c>
+      <c r="J130">
+        <f t="shared" si="34"/>
+        <v>2.3972747840161902E-16</v>
+      </c>
+      <c r="K130">
+        <f t="shared" si="34"/>
+        <v>2.3874447701684392E-5</v>
+      </c>
+      <c r="L130">
+        <f t="shared" si="34"/>
+        <v>4.1004598702102161E-16</v>
+      </c>
+      <c r="N130">
+        <f>SUM(E130:L130)</f>
+        <v>0.98722723006194646</v>
+      </c>
+    </row>
+    <row r="131" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C131">
+        <f t="shared" si="33"/>
+        <v>-0.12</v>
+      </c>
+      <c r="D131">
+        <v>0.99280863585386625</v>
+      </c>
+      <c r="E131">
+        <f t="shared" si="34"/>
+        <v>0.76519768655796649</v>
+      </c>
+      <c r="F131">
+        <f t="shared" si="34"/>
+        <v>-9.9920072216264085E-18</v>
+      </c>
+      <c r="G131">
+        <f t="shared" si="34"/>
+        <v>0.22318852913172227</v>
+      </c>
+      <c r="H131">
+        <f t="shared" si="34"/>
+        <v>-3.4300562390399131E-17</v>
+      </c>
+      <c r="I131">
+        <f t="shared" si="34"/>
+        <v>4.3908772036922745E-3</v>
+      </c>
+      <c r="J131">
+        <f t="shared" si="34"/>
+        <v>1.8846195644073301E-16</v>
+      </c>
+      <c r="K131">
+        <f t="shared" si="34"/>
+        <v>3.1434655549155586E-5</v>
+      </c>
+      <c r="L131">
+        <f t="shared" si="34"/>
+        <v>3.3905334849293922E-16</v>
+      </c>
+      <c r="N131">
+        <f>SUM(E131:L131)</f>
+        <v>0.99280852754893067</v>
+      </c>
+    </row>
+    <row r="132" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C132">
+        <f t="shared" si="33"/>
+        <v>-7.999999999999996E-2</v>
+      </c>
+      <c r="D132">
+        <v>0.99680170630261944</v>
+      </c>
+      <c r="E132">
+        <f t="shared" si="34"/>
+        <v>0.76519768655796649</v>
+      </c>
+      <c r="F132">
+        <f t="shared" si="34"/>
+        <v>-6.6613381477509359E-18</v>
+      </c>
+      <c r="G132">
+        <f t="shared" si="34"/>
+        <v>0.22686544064954306</v>
+      </c>
+      <c r="H132">
+        <f t="shared" si="34"/>
+        <v>-2.3115731551115447E-17</v>
+      </c>
+      <c r="I132">
+        <f t="shared" si="34"/>
+        <v>4.7012931874576471E-3</v>
+      </c>
+      <c r="J132">
+        <f t="shared" si="34"/>
+        <v>1.2983362012164427E-16</v>
+      </c>
+      <c r="K132">
+        <f t="shared" si="34"/>
+        <v>3.7133997993635959E-5</v>
+      </c>
+      <c r="L132">
+        <f t="shared" si="34"/>
+        <v>2.4165346593349555E-16</v>
+      </c>
+      <c r="N132">
+        <f>SUM(E132:L132)</f>
+        <v>0.99680155439296114</v>
+      </c>
+    </row>
+    <row r="133" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C133">
+        <f t="shared" si="33"/>
+        <v>-4.0000000000000036E-2</v>
+      </c>
+      <c r="D133">
+        <v>0.99920010666097792</v>
+      </c>
+      <c r="E133">
+        <f t="shared" si="34"/>
+        <v>0.76519768655796649</v>
+      </c>
+      <c r="F133">
+        <f t="shared" si="34"/>
+        <v>-3.3306690738754726E-18</v>
+      </c>
+      <c r="G133">
+        <f t="shared" si="34"/>
+        <v>0.22907158756023555</v>
+      </c>
+      <c r="H133">
+        <f t="shared" si="34"/>
+        <v>-1.1632472762812552E-17</v>
+      </c>
+      <c r="I133">
+        <f t="shared" si="34"/>
+        <v>4.889977412883658E-3</v>
+      </c>
+      <c r="J133">
+        <f t="shared" si="34"/>
+        <v>6.6187601532874461E-17</v>
+      </c>
+      <c r="K133">
+        <f t="shared" si="34"/>
+        <v>4.0675257017782788E-5</v>
+      </c>
+      <c r="L133">
+        <f t="shared" si="34"/>
+        <v>1.2563560275168596E-16</v>
+      </c>
+      <c r="N133">
+        <f>SUM(E133:L133)</f>
+        <v>0.99919992678810365</v>
+      </c>
+    </row>
+    <row r="134" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C134">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="D134">
+        <v>1</v>
+      </c>
+      <c r="E134">
+        <f t="shared" si="34"/>
+        <v>0.76519768655796649</v>
+      </c>
+      <c r="F134">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="G134">
+        <f t="shared" si="34"/>
+        <v>0.2298069698637997</v>
+      </c>
+      <c r="H134">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="I134">
+        <f t="shared" si="34"/>
+        <v>4.9532779272201261E-3</v>
+      </c>
+      <c r="J134">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="K134">
+        <f t="shared" si="34"/>
+        <v>4.1876149881873992E-5</v>
+      </c>
+      <c r="L134">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="N134">
+        <f>SUM(E134:L134)</f>
+        <v>0.9999998104988681</v>
+      </c>
+    </row>
+    <row r="135" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C135">
+        <f t="shared" si="33"/>
+        <v>4.0000000000000036E-2</v>
+      </c>
+      <c r="D135">
+        <v>0.99920010666097792</v>
+      </c>
+      <c r="E135">
+        <f t="shared" si="34"/>
+        <v>0.76519768655796649</v>
+      </c>
+      <c r="F135">
+        <f t="shared" si="34"/>
+        <v>3.3306690738754726E-18</v>
+      </c>
+      <c r="G135">
+        <f t="shared" si="34"/>
+        <v>0.22907158756023555</v>
+      </c>
+      <c r="H135">
+        <f t="shared" si="34"/>
+        <v>1.1632472762812552E-17</v>
+      </c>
+      <c r="I135">
+        <f t="shared" si="34"/>
+        <v>4.889977412883658E-3</v>
+      </c>
+      <c r="J135">
+        <f t="shared" si="34"/>
+        <v>-6.6187601532874461E-17</v>
+      </c>
+      <c r="K135">
+        <f t="shared" si="34"/>
+        <v>4.0675257017782788E-5</v>
+      </c>
+      <c r="L135">
+        <f t="shared" si="34"/>
+        <v>-1.2563560275168596E-16</v>
+      </c>
+      <c r="N135">
+        <f>SUM(E135:L135)</f>
+        <v>0.99919992678810321</v>
+      </c>
+    </row>
+    <row r="136" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C136">
+        <f t="shared" si="33"/>
+        <v>8.0000000000000071E-2</v>
+      </c>
+      <c r="D136">
+        <v>0.99680170630261933</v>
+      </c>
+      <c r="E136">
+        <f t="shared" si="34"/>
+        <v>0.76519768655796649</v>
+      </c>
+      <c r="F136">
+        <f t="shared" si="34"/>
+        <v>6.6613381477509452E-18</v>
+      </c>
+      <c r="G136">
+        <f t="shared" si="34"/>
+        <v>0.22686544064954306</v>
+      </c>
+      <c r="H136">
+        <f t="shared" si="34"/>
+        <v>2.3115731551115481E-17</v>
+      </c>
+      <c r="I136">
+        <f t="shared" si="34"/>
+        <v>4.7012931874576471E-3</v>
+      </c>
+      <c r="J136">
+        <f t="shared" si="34"/>
+        <v>-1.2983362012164444E-16</v>
+      </c>
+      <c r="K136">
+        <f t="shared" si="34"/>
+        <v>3.7133997993635945E-5</v>
+      </c>
+      <c r="L136">
+        <f t="shared" si="34"/>
+        <v>-2.4165346593349585E-16</v>
+      </c>
+      <c r="N136">
+        <f>SUM(E136:L136)</f>
+        <v>0.99680155439296048</v>
+      </c>
+    </row>
+    <row r="137" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C137">
+        <f t="shared" si="33"/>
+        <v>0.12000000000000011</v>
+      </c>
+      <c r="D137">
+        <v>0.99280863585386625</v>
+      </c>
+      <c r="E137">
+        <f t="shared" si="34"/>
+        <v>0.76519768655796649</v>
+      </c>
+      <c r="F137">
+        <f t="shared" si="34"/>
+        <v>9.9920072216264177E-18</v>
+      </c>
+      <c r="G137">
+        <f t="shared" si="34"/>
+        <v>0.22318852913172227</v>
+      </c>
+      <c r="H137">
+        <f t="shared" si="34"/>
+        <v>3.4300562390399161E-17</v>
+      </c>
+      <c r="I137">
+        <f t="shared" si="34"/>
+        <v>4.3908772036922736E-3</v>
+      </c>
+      <c r="J137">
+        <f t="shared" si="34"/>
+        <v>-1.8846195644073321E-16</v>
+      </c>
+      <c r="K137">
+        <f t="shared" si="34"/>
+        <v>3.1434655549155572E-5</v>
+      </c>
+      <c r="L137">
+        <f t="shared" si="34"/>
+        <v>-3.3905334849293946E-16</v>
+      </c>
+      <c r="N137">
+        <f>SUM(E137:L137)</f>
+        <v>0.99280852754892956</v>
+      </c>
+    </row>
+    <row r="138" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C138">
+        <f t="shared" si="33"/>
+        <v>0.15999999999999992</v>
+      </c>
+      <c r="D138">
+        <v>0.98722728337562693</v>
+      </c>
+      <c r="E138">
+        <f t="shared" si="34"/>
+        <v>0.76519768655796649</v>
+      </c>
+      <c r="F138">
+        <f t="shared" si="34"/>
+        <v>1.3322676295501872E-17</v>
+      </c>
+      <c r="G138">
+        <f t="shared" si="34"/>
+        <v>0.21804085300677317</v>
+      </c>
+      <c r="H138">
+        <f t="shared" si="34"/>
+        <v>4.5037751306153928E-17</v>
+      </c>
+      <c r="I138">
+        <f t="shared" si="34"/>
+        <v>3.9648160495045093E-3</v>
+      </c>
+      <c r="J138">
+        <f t="shared" si="34"/>
+        <v>-2.3972747840161892E-16</v>
+      </c>
+      <c r="K138">
+        <f t="shared" si="34"/>
+        <v>2.3874447701684416E-5</v>
+      </c>
+      <c r="L138">
+        <f t="shared" si="34"/>
+        <v>-4.1004598702102147E-16</v>
+      </c>
+      <c r="N138">
+        <f>SUM(E138:L138)</f>
+        <v>0.98722723006194513</v>
+      </c>
+    </row>
+    <row r="139" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C139">
+        <f t="shared" si="33"/>
+        <v>0.19509032201612833</v>
+      </c>
+      <c r="D139">
+        <v>0.98006657784124163</v>
+      </c>
+      <c r="E139">
+        <f t="shared" si="34"/>
+        <v>0.76519768655796649</v>
+      </c>
+      <c r="F139">
+        <f t="shared" si="34"/>
+        <v>1.6244532553788133E-17</v>
+      </c>
+      <c r="G139">
+        <f t="shared" si="34"/>
+        <v>0.21231395588560262</v>
+      </c>
+      <c r="H139">
+        <f t="shared" ref="F139:L154" si="35">H84*H$40/H$27</f>
+        <v>5.3970600643288527E-17</v>
+      </c>
+      <c r="I139">
+        <f t="shared" si="35"/>
+        <v>3.5024964114389965E-3</v>
+      </c>
+      <c r="J139">
+        <f t="shared" si="35"/>
+        <v>-2.769350123563315E-16</v>
+      </c>
+      <c r="K139">
+        <f t="shared" si="35"/>
+        <v>1.6025308771030472E-5</v>
+      </c>
+      <c r="L139">
+        <f t="shared" si="35"/>
+        <v>-4.4576450771169067E-16</v>
+      </c>
+      <c r="N139">
+        <f>SUM(E139:L139)</f>
+        <v>0.98103016416377842</v>
+      </c>
+    </row>
+    <row r="140" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C140">
+        <f t="shared" si="33"/>
+        <v>0.24</v>
+      </c>
+      <c r="D140">
+        <v>0.97133797485202966</v>
+      </c>
+      <c r="E140">
+        <f t="shared" si="34"/>
+        <v>0.76519768655796649</v>
+      </c>
+      <c r="F140">
+        <f t="shared" si="35"/>
+        <v>1.9984014443252817E-17</v>
+      </c>
+      <c r="G140">
+        <f t="shared" si="35"/>
+        <v>0.20333320693548998</v>
+      </c>
+      <c r="H140">
+        <f t="shared" si="35"/>
+        <v>6.4572347469038495E-17</v>
+      </c>
+      <c r="I140">
+        <f t="shared" si="35"/>
+        <v>2.802277757363603E-3</v>
+      </c>
+      <c r="J140">
+        <f t="shared" si="35"/>
+        <v>-3.1183728879113915E-16</v>
+      </c>
+      <c r="K140">
+        <f t="shared" si="35"/>
+        <v>4.87175338618004E-6</v>
+      </c>
+      <c r="L140">
+        <f t="shared" si="35"/>
+        <v>-4.5090795045211959E-16</v>
+      </c>
+      <c r="N140">
+        <f>SUM(E140:L140)</f>
+        <v>0.97133804300420556</v>
+      </c>
+    </row>
+    <row r="141" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C141">
+        <f t="shared" si="33"/>
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="D141">
+        <v>0.96105543831077089</v>
+      </c>
+      <c r="E141">
+        <f t="shared" si="34"/>
+        <v>0.76519768655796649</v>
+      </c>
+      <c r="F141">
+        <f t="shared" si="35"/>
+        <v>2.331468351712829E-17</v>
+      </c>
+      <c r="G141">
+        <f t="shared" si="35"/>
+        <v>0.19377323698915588</v>
+      </c>
+      <c r="H141">
+        <f t="shared" si="35"/>
+        <v>7.3071326767149E-17</v>
+      </c>
+      <c r="I141">
+        <f t="shared" si="35"/>
+        <v>2.0901469710783356E-3</v>
+      </c>
+      <c r="J141">
+        <f t="shared" si="35"/>
+        <v>-3.2923550179475566E-16</v>
+      </c>
+      <c r="K141">
+        <f t="shared" si="35"/>
+        <v>-5.5102987152675084E-6</v>
+      </c>
+      <c r="L141">
+        <f t="shared" si="35"/>
+        <v>-4.1577828958622824E-16</v>
+      </c>
+      <c r="N141">
+        <f>SUM(E141:L141)</f>
+        <v>0.96105556021948479</v>
+      </c>
+    </row>
+    <row r="142" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C142">
+        <f t="shared" si="33"/>
+        <v>0.32000000000000006</v>
+      </c>
+      <c r="D142">
+        <v>0.94923541808244083</v>
+      </c>
+      <c r="E142">
+        <f t="shared" si="34"/>
+        <v>0.76519768655796649</v>
+      </c>
+      <c r="F142">
+        <f t="shared" si="35"/>
+        <v>2.6645352591003762E-17</v>
+      </c>
+      <c r="G142">
+        <f t="shared" si="35"/>
+        <v>0.18274250243569351</v>
+      </c>
+      <c r="H142">
+        <f t="shared" si="35"/>
+        <v>8.0525808243692162E-17</v>
+      </c>
+      <c r="I142">
+        <f t="shared" si="35"/>
+        <v>1.3110637177064189E-3</v>
+      </c>
+      <c r="J142">
+        <f t="shared" si="35"/>
+        <v>-3.3250971682718951E-16</v>
+      </c>
+      <c r="K142">
+        <f t="shared" si="35"/>
+        <v>-1.5671866779699278E-5</v>
+      </c>
+      <c r="L142">
+        <f t="shared" si="35"/>
+        <v>-3.4487792540403446E-16</v>
+      </c>
+      <c r="N142">
+        <f>SUM(E142:L142)</f>
+        <v>0.94923558084458615</v>
+      </c>
+    </row>
+    <row r="143" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C143">
+        <f t="shared" si="33"/>
+        <v>0.3600000000000001</v>
+      </c>
+      <c r="D143">
+        <v>0.93589682367793481</v>
+      </c>
+      <c r="E143">
+        <f t="shared" si="34"/>
+        <v>0.76519768655796649</v>
+      </c>
+      <c r="F143">
+        <f t="shared" si="35"/>
+        <v>2.9976021664879235E-17</v>
+      </c>
+      <c r="G143">
+        <f t="shared" si="35"/>
+        <v>0.1702410032751028</v>
+      </c>
+      <c r="H143">
+        <f t="shared" si="35"/>
+        <v>8.6786577924158356E-17</v>
+      </c>
+      <c r="I143">
+        <f t="shared" si="35"/>
+        <v>4.8328776099875836E-4</v>
+      </c>
+      <c r="J143">
+        <f t="shared" si="35"/>
+        <v>-3.2095189226311047E-16</v>
+      </c>
+      <c r="K143">
+        <f t="shared" si="35"/>
+        <v>-2.4968292337366373E-5</v>
+      </c>
+      <c r="L143">
+        <f t="shared" si="35"/>
+        <v>-2.4285263352169272E-16</v>
+      </c>
+      <c r="N143">
+        <f>SUM(E143:L143)</f>
+        <v>0.93589700930173025</v>
+      </c>
+    </row>
+    <row r="144" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C144">
+        <f t="shared" si="33"/>
+        <v>0.40000000000000013</v>
+      </c>
+      <c r="D144">
+        <v>0.92106099400288499</v>
+      </c>
+      <c r="E144">
+        <f t="shared" si="34"/>
+        <v>0.76519768655796649</v>
+      </c>
+      <c r="F144">
+        <f t="shared" si="35"/>
+        <v>3.3306690738754707E-17</v>
+      </c>
+      <c r="G144">
+        <f t="shared" si="35"/>
+        <v>0.15626873950738374</v>
+      </c>
+      <c r="H144">
+        <f t="shared" si="35"/>
+        <v>9.1704421834037938E-17</v>
+      </c>
+      <c r="I144">
+        <f t="shared" si="35"/>
+        <v>-3.7248650012695645E-4</v>
+      </c>
+      <c r="J144">
+        <f t="shared" si="35"/>
+        <v>-2.9437785542540937E-16</v>
+      </c>
+      <c r="K144">
+        <f t="shared" si="35"/>
+        <v>-3.2758539520393348E-5</v>
+      </c>
+      <c r="L144">
+        <f t="shared" si="35"/>
+        <v>-1.1727054882726361E-16</v>
+      </c>
+      <c r="N144">
+        <f>SUM(E144:L144)</f>
+        <v>0.92106118102570256</v>
+      </c>
+    </row>
+    <row r="145" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C145">
+        <f t="shared" si="33"/>
+        <v>0.43999999999999995</v>
+      </c>
+      <c r="D145">
+        <v>0.90475166321996348</v>
+      </c>
+      <c r="E145">
+        <f t="shared" si="34"/>
+        <v>0.76519768655796649</v>
+      </c>
+      <c r="F145">
+        <f t="shared" si="35"/>
+        <v>3.6637359812630161E-17</v>
+      </c>
+      <c r="G145">
+        <f t="shared" si="35"/>
+        <v>0.14082571113253645</v>
+      </c>
+      <c r="H145">
+        <f t="shared" si="35"/>
+        <v>9.5130125998821308E-17</v>
+      </c>
+      <c r="I145">
+        <f t="shared" si="35"/>
+        <v>-1.2331300315862404E-3</v>
+      </c>
+      <c r="J145">
+        <f t="shared" si="35"/>
+        <v>-2.5319278620372647E-16</v>
+      </c>
+      <c r="K145">
+        <f t="shared" si="35"/>
+        <v>-3.8438786461968148E-5</v>
+      </c>
+      <c r="L145">
+        <f t="shared" si="35"/>
+        <v>2.1625034087833051E-17</v>
+      </c>
+      <c r="N145">
+        <f>SUM(E145:L145)</f>
+        <v>0.90475182887245476</v>
+      </c>
+    </row>
+    <row r="146" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C146">
+        <f t="shared" si="33"/>
+        <v>0.48</v>
+      </c>
+      <c r="D146">
+        <v>0.88699492277928416</v>
+      </c>
+      <c r="E146">
+        <f t="shared" si="34"/>
+        <v>0.76519768655796649</v>
+      </c>
+      <c r="F146">
+        <f t="shared" si="35"/>
+        <v>3.9968028886505634E-17</v>
+      </c>
+      <c r="G146">
+        <f t="shared" si="35"/>
+        <v>0.1239119181505608</v>
+      </c>
+      <c r="H146">
+        <f t="shared" si="35"/>
+        <v>9.6914476443998857E-17</v>
+      </c>
+      <c r="I146">
+        <f t="shared" si="35"/>
+        <v>-2.0730791641278374E-3</v>
+      </c>
+      <c r="J146">
+        <f t="shared" si="35"/>
+        <v>-1.9845670067297763E-16</v>
+      </c>
+      <c r="K146">
+        <f t="shared" si="35"/>
+        <v>-4.1479968624848631E-5</v>
+      </c>
+      <c r="L146">
+        <f t="shared" si="35"/>
+        <v>1.6137903501885367E-16</v>
+      </c>
+      <c r="N146">
+        <f>SUM(E146:L146)</f>
+        <v>0.88699504557577469</v>
+      </c>
+    </row>
+    <row r="147" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C147">
+        <f t="shared" si="33"/>
+        <v>0.52</v>
+      </c>
+      <c r="D147">
+        <v>0.86781917967764988</v>
+      </c>
+      <c r="E147">
+        <f t="shared" si="34"/>
+        <v>0.76519768655796649</v>
+      </c>
+      <c r="F147">
+        <f t="shared" si="35"/>
+        <v>4.3298697960381107E-17</v>
+      </c>
+      <c r="G147">
+        <f t="shared" si="35"/>
+        <v>0.10552736056145681</v>
+      </c>
+      <c r="H147">
+        <f t="shared" si="35"/>
+        <v>9.6908259195060962E-17</v>
+      </c>
+      <c r="I147">
+        <f t="shared" si="35"/>
+        <v>-2.8643355933336899E-3</v>
+      </c>
+      <c r="J147">
+        <f t="shared" si="35"/>
+        <v>-1.3194993471188351E-16</v>
+      </c>
+      <c r="K147">
+        <f t="shared" si="35"/>
+        <v>-4.1469274059185358E-5</v>
+      </c>
+      <c r="L147">
+        <f t="shared" si="35"/>
+        <v>2.880281561505171E-16</v>
+      </c>
+      <c r="N147">
+        <f>SUM(E147:L147)</f>
+        <v>0.86781924225203078</v>
+      </c>
+    </row>
+    <row r="148" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C148">
+        <f t="shared" si="33"/>
+        <v>0.55557023301960229</v>
+      </c>
+      <c r="D148">
+        <v>0.84725511101341611</v>
+      </c>
+      <c r="E148">
+        <f t="shared" si="34"/>
+        <v>0.76519768655796649</v>
+      </c>
+      <c r="F148">
+        <f t="shared" si="35"/>
+        <v>4.6260514837104443E-17</v>
+      </c>
+      <c r="G148">
+        <f t="shared" si="35"/>
+        <v>8.7943320008899581E-2</v>
+      </c>
+      <c r="H148">
+        <f t="shared" si="35"/>
+        <v>9.5277910045246842E-17</v>
+      </c>
+      <c r="I148">
+        <f t="shared" si="35"/>
+        <v>-3.5024964114389982E-3</v>
+      </c>
+      <c r="J148">
+        <f t="shared" si="35"/>
+        <v>-6.4978130215152409E-17</v>
+      </c>
+      <c r="K148">
+        <f t="shared" si="35"/>
+        <v>-3.8688517776238313E-5</v>
+      </c>
+      <c r="L148">
+        <f t="shared" si="35"/>
+        <v>3.7790090227791073E-16</v>
+      </c>
+      <c r="N148">
+        <f>SUM(E148:L148)</f>
+        <v>0.84959982163765124</v>
+      </c>
+    </row>
+    <row r="149" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C149">
+        <f t="shared" si="33"/>
+        <v>0.60000000000000009</v>
+      </c>
+      <c r="D149">
+        <v>0.82533561490967822</v>
+      </c>
+      <c r="E149">
+        <f t="shared" si="34"/>
+        <v>0.76519768655796649</v>
+      </c>
+      <c r="F149">
+        <f t="shared" si="35"/>
+        <v>4.9960036108132052E-17</v>
+      </c>
+      <c r="G149">
+        <f t="shared" si="35"/>
+        <v>6.4345951561863873E-2</v>
+      </c>
+      <c r="H149">
+        <f t="shared" si="35"/>
+        <v>9.0927265716800315E-17</v>
+      </c>
+      <c r="I149">
+        <f t="shared" si="35"/>
+        <v>-4.1766039482320121E-3</v>
+      </c>
+      <c r="J149">
+        <f t="shared" si="35"/>
+        <v>2.5259794256271753E-17</v>
+      </c>
+      <c r="K149">
+        <f t="shared" si="35"/>
+        <v>-3.1498904931946552E-5</v>
+      </c>
+      <c r="L149">
+        <f t="shared" si="35"/>
+        <v>4.447124002382454E-16</v>
+      </c>
+      <c r="N149">
+        <f>SUM(E149:L149)</f>
+        <v>0.82533553526666692</v>
+      </c>
+    </row>
+    <row r="150" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C150">
+        <f t="shared" si="33"/>
+        <v>0.64000000000000012</v>
+      </c>
+      <c r="D150">
+        <v>0.80209575788429255</v>
+      </c>
+      <c r="E150">
+        <f t="shared" si="34"/>
+        <v>0.76519768655796649</v>
+      </c>
+      <c r="F150">
+        <f t="shared" si="35"/>
+        <v>5.3290705182007524E-17</v>
+      </c>
+      <c r="G150">
+        <f t="shared" si="35"/>
+        <v>4.1549100151374897E-2</v>
+      </c>
+      <c r="H150">
+        <f t="shared" si="35"/>
+        <v>8.4654061538458318E-17</v>
+      </c>
+      <c r="I150">
+        <f t="shared" si="35"/>
+        <v>-4.6294460892544378E-3</v>
+      </c>
+      <c r="J150">
+        <f t="shared" si="35"/>
+        <v>1.0821113392012222E-16</v>
+      </c>
+      <c r="K150">
+        <f t="shared" si="35"/>
+        <v>-2.1723653738472852E-5</v>
+      </c>
+      <c r="L150">
+        <f t="shared" si="35"/>
+        <v>4.4945505414034407E-16</v>
+      </c>
+      <c r="N150">
+        <f>SUM(E150:L150)</f>
+        <v>0.80209561696634923</v>
+      </c>
+    </row>
+    <row r="151" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C151">
+        <f t="shared" si="33"/>
+        <v>0.67999999999999994</v>
+      </c>
+      <c r="D151">
+        <v>0.77757271875092793</v>
+      </c>
+      <c r="E151">
+        <f t="shared" si="34"/>
+        <v>0.76519768655796649</v>
+      </c>
+      <c r="F151">
+        <f t="shared" si="35"/>
+        <v>5.6621374255882985E-17</v>
+      </c>
+      <c r="G151">
+        <f t="shared" si="35"/>
+        <v>1.7281484133757772E-2</v>
+      </c>
+      <c r="H151">
+        <f t="shared" si="35"/>
+        <v>7.5993433767962426E-17</v>
+      </c>
+      <c r="I151">
+        <f t="shared" si="35"/>
+        <v>-4.897255957601032E-3</v>
+      </c>
+      <c r="J151">
+        <f t="shared" si="35"/>
+        <v>1.8729894009084081E-16</v>
+      </c>
+      <c r="K151">
+        <f t="shared" si="35"/>
+        <v>-9.3760265735202868E-6</v>
+      </c>
+      <c r="L151">
+        <f t="shared" si="35"/>
+        <v>3.9398069379046779E-16</v>
+      </c>
+      <c r="N151">
+        <f>SUM(E151:L151)</f>
+        <v>0.77757253870755061</v>
+      </c>
+    </row>
+    <row r="152" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C152">
+        <f t="shared" si="33"/>
+        <v>0.72</v>
+      </c>
+      <c r="D152">
+        <v>0.75180572914089505</v>
+      </c>
+      <c r="E152">
+        <f t="shared" si="34"/>
+        <v>0.76519768655796649</v>
+      </c>
+      <c r="F152">
+        <f t="shared" si="35"/>
+        <v>5.9952043329758457E-17</v>
+      </c>
+      <c r="G152">
+        <f t="shared" si="35"/>
+        <v>-8.4568964909878166E-3</v>
+      </c>
+      <c r="H152">
+        <f t="shared" si="35"/>
+        <v>6.4796168430802941E-17</v>
+      </c>
+      <c r="I152">
+        <f t="shared" si="35"/>
+        <v>-4.9398620730198087E-3</v>
+      </c>
+      <c r="J152">
+        <f t="shared" si="35"/>
+        <v>2.5615902359277241E-16</v>
+      </c>
+      <c r="K152">
+        <f t="shared" si="35"/>
+        <v>4.6147791823766895E-6</v>
+      </c>
+      <c r="L152">
+        <f t="shared" si="35"/>
+        <v>2.7742659769842245E-16</v>
+      </c>
+      <c r="N152">
+        <f>SUM(E152:L152)</f>
+        <v>0.75180554277314193</v>
+      </c>
+    </row>
+    <row r="153" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C153">
+        <f t="shared" si="33"/>
+        <v>0.76</v>
+      </c>
+      <c r="D153">
+        <v>0.7248360107409052</v>
+      </c>
+      <c r="E153">
+        <f t="shared" si="34"/>
+        <v>0.76519768655796649</v>
+      </c>
+      <c r="F153">
+        <f t="shared" si="35"/>
+        <v>6.328271240363393E-17</v>
+      </c>
+      <c r="G153">
+        <f t="shared" si="35"/>
+        <v>-3.5666041722861717E-2</v>
+      </c>
+      <c r="H153">
+        <f t="shared" si="35"/>
+        <v>5.0913051552470278E-17</v>
+      </c>
+      <c r="I153">
+        <f t="shared" si="35"/>
+        <v>-4.7146583200919894E-3</v>
+      </c>
+      <c r="J153">
+        <f t="shared" si="35"/>
+        <v>3.0731397373529034E-16</v>
+      </c>
+      <c r="K153">
+        <f t="shared" si="35"/>
+        <v>1.8871351498707303E-5</v>
+      </c>
+      <c r="L153">
+        <f t="shared" si="35"/>
+        <v>1.0803239285962712E-16</v>
+      </c>
+      <c r="N153">
+        <f>SUM(E153:L153)</f>
+        <v>0.72483585786651206</v>
+      </c>
+    </row>
+    <row r="154" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C154">
+        <f t="shared" si="33"/>
+        <v>0.8</v>
+      </c>
+      <c r="D154">
+        <v>0.69670670934716539</v>
+      </c>
+      <c r="E154">
+        <f t="shared" si="34"/>
+        <v>0.76519768655796649</v>
+      </c>
+      <c r="F154">
+        <f t="shared" si="35"/>
+        <v>6.6613381477509402E-17</v>
+      </c>
+      <c r="G154">
+        <f t="shared" si="35"/>
+        <v>-6.434595156186397E-2</v>
+      </c>
+      <c r="H154">
+        <f t="shared" si="35"/>
+        <v>3.419486915845479E-17</v>
+      </c>
+      <c r="I154">
+        <f t="shared" si="35"/>
+        <v>-4.1766039482320086E-3</v>
+      </c>
+      <c r="J154">
+        <f t="shared" si="35"/>
+        <v>3.3210767469427085E-16</v>
+      </c>
+      <c r="K154">
+        <f t="shared" si="35"/>
+        <v>3.1498904931946579E-5</v>
+      </c>
+      <c r="L154">
+        <f t="shared" si="35"/>
+        <v>-9.3802476897053865E-17</v>
+      </c>
+      <c r="N154">
+        <f>SUM(E154:L154)</f>
+        <v>0.69670662995280275</v>
+      </c>
+    </row>
+    <row r="155" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C155">
+        <f t="shared" si="33"/>
+        <v>0.83146961230254524</v>
+      </c>
+      <c r="D155">
+        <v>0.66746282584130801</v>
+      </c>
+      <c r="E155">
+        <f t="shared" si="34"/>
+        <v>0.76519768655796649</v>
+      </c>
+      <c r="F155">
+        <f t="shared" ref="F155:L159" si="36">F100*F$40/F$27</f>
+        <v>6.923375308908285E-17</v>
+      </c>
+      <c r="G155">
+        <f t="shared" si="36"/>
+        <v>-8.7943320008899636E-2</v>
+      </c>
+      <c r="H155">
+        <f t="shared" si="36"/>
+        <v>1.8951954646086141E-17</v>
+      </c>
+      <c r="I155">
+        <f t="shared" si="36"/>
+        <v>-3.5024964114389969E-3</v>
+      </c>
+      <c r="J155">
+        <f t="shared" si="36"/>
+        <v>3.2666712015513203E-16</v>
+      </c>
+      <c r="K155">
+        <f t="shared" si="36"/>
+        <v>3.868851777623832E-5</v>
+      </c>
+      <c r="L155">
+        <f t="shared" si="36"/>
+        <v>-2.5250531015252837E-16</v>
+      </c>
+      <c r="N155">
+        <f>SUM(E155:L155)</f>
+        <v>0.67379055865540438</v>
+      </c>
+    </row>
+    <row r="156" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C156">
+        <f t="shared" si="33"/>
+        <v>0.88000000000000012</v>
+      </c>
+      <c r="D156">
+        <v>0.6371511441985801</v>
+      </c>
+      <c r="E156">
+        <f t="shared" si="34"/>
+        <v>0.76519768655796649</v>
+      </c>
+      <c r="F156">
+        <f t="shared" si="36"/>
+        <v>7.3274719625260347E-17</v>
+      </c>
+      <c r="G156">
+        <f t="shared" si="36"/>
+        <v>-0.12611806506125336</v>
+      </c>
+      <c r="H156">
+        <f t="shared" si="36"/>
+        <v>-8.3435480746630485E-18</v>
+      </c>
+      <c r="I156">
+        <f t="shared" si="36"/>
+        <v>-1.969607169539376E-3</v>
+      </c>
+      <c r="J156">
+        <f t="shared" si="36"/>
+        <v>2.6170043838646934E-16</v>
+      </c>
+      <c r="K156">
+        <f t="shared" si="36"/>
+        <v>4.1258330226535099E-5</v>
+      </c>
+      <c r="L156">
+        <f t="shared" si="36"/>
+        <v>-4.3100207890233848E-16</v>
+      </c>
+      <c r="N156">
+        <f>SUM(E156:L156)</f>
+        <v>0.63715127265740013</v>
+      </c>
+    </row>
+    <row r="157" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C157">
+        <f t="shared" si="33"/>
+        <v>0.91999999999999993</v>
+      </c>
+      <c r="D157">
+        <v>0.60582015664346289</v>
+      </c>
+      <c r="E157">
+        <f t="shared" si="34"/>
+        <v>0.76519768655796649</v>
+      </c>
+      <c r="F157">
+        <f t="shared" si="36"/>
+        <v>7.6605388699135795E-17</v>
+      </c>
+      <c r="G157">
+        <f t="shared" si="36"/>
+        <v>-0.15921026872164035</v>
+      </c>
+      <c r="H157">
+        <f t="shared" si="36"/>
+        <v>-3.4462210862784487E-17</v>
+      </c>
+      <c r="I157">
+        <f t="shared" si="36"/>
+        <v>-1.984100857016712E-4</v>
+      </c>
+      <c r="J157">
+        <f t="shared" si="36"/>
+        <v>1.427043912372032E-16</v>
+      </c>
+      <c r="K157">
+        <f t="shared" si="36"/>
+        <v>3.133600825798866E-5</v>
+      </c>
+      <c r="L157">
+        <f t="shared" si="36"/>
+        <v>-4.3105462124628992E-16</v>
+      </c>
+      <c r="N157">
+        <f>SUM(E157:L157)</f>
+        <v>0.60582034375888227</v>
+      </c>
+    </row>
+    <row r="158" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C158">
+        <f t="shared" si="33"/>
+        <v>0.98078528040323043</v>
+      </c>
+      <c r="D158">
+        <v>0.57351998607245669</v>
+      </c>
+      <c r="E158">
+        <f t="shared" si="34"/>
+        <v>0.76519768655796649</v>
+      </c>
+      <c r="F158">
+        <f t="shared" si="36"/>
+        <v>8.1666780038783007E-17</v>
+      </c>
+      <c r="G158">
+        <f t="shared" si="36"/>
+        <v>-0.21231395588560262</v>
+      </c>
+      <c r="H158">
+        <f t="shared" si="36"/>
+        <v>-8.0772711937263321E-17</v>
+      </c>
+      <c r="I158">
+        <f t="shared" si="36"/>
+        <v>3.5024964114389961E-3</v>
+      </c>
+      <c r="J158">
+        <f t="shared" si="36"/>
+        <v>-1.8504205934841758E-16</v>
+      </c>
+      <c r="K158">
+        <f t="shared" si="36"/>
+        <v>-1.6025308771030462E-5</v>
+      </c>
+      <c r="L158">
+        <f t="shared" si="36"/>
+        <v>8.8668073522759861E-17</v>
+      </c>
+      <c r="N158">
+        <f>SUM(E158:L158)</f>
+        <v>0.55637020177503171</v>
+      </c>
+    </row>
+    <row r="159" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C159">
+        <f t="shared" si="33"/>
+        <v>1</v>
+      </c>
+      <c r="D159">
+        <v>0.54030230586813977</v>
+      </c>
+      <c r="E159">
+        <f t="shared" si="34"/>
+        <v>0.76519768655796649</v>
+      </c>
+      <c r="F159">
+        <f t="shared" si="36"/>
+        <v>8.3266726846886741E-17</v>
+      </c>
+      <c r="G159">
+        <f t="shared" si="36"/>
+        <v>-0.2298069698637997</v>
+      </c>
+      <c r="H159">
+        <f t="shared" si="36"/>
+        <v>-9.7144514654701197E-17</v>
+      </c>
+      <c r="I159">
+        <f t="shared" si="36"/>
+        <v>4.9532779272201261E-3</v>
+      </c>
+      <c r="J159">
+        <f t="shared" si="36"/>
+        <v>-3.3306690738754696E-16</v>
+      </c>
+      <c r="K159">
+        <f t="shared" si="36"/>
+        <v>-4.1876149881873992E-5</v>
+      </c>
+      <c r="L159">
+        <f t="shared" si="36"/>
+        <v>4.5449755070592346E-16</v>
+      </c>
+      <c r="N159">
+        <f>SUM(E159:L159)</f>
+        <v>0.54030211847150522</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="A84:A91">
+    <sortCondition ref="A112"/>
+  </sortState>
+  <mergeCells count="3">
+    <mergeCell ref="E29:L29"/>
+    <mergeCell ref="E52:L52"/>
+    <mergeCell ref="E107:L107"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/Interpolación/Ortogonalidad.xlsx
+++ b/Interpolación/Ortogonalidad.xlsx
@@ -9,11 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18870" windowHeight="7125" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18870" windowHeight="7125" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
     <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
+    <sheet name="Inyecciones" sheetId="3" r:id="rId3"/>
+    <sheet name="ISR" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="56">
   <si>
     <t>n</t>
   </si>
@@ -134,15 +136,77 @@
   <si>
     <t>Suma</t>
   </si>
+  <si>
+    <t>t</t>
+  </si>
+  <si>
+    <t>Cmax</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>C0(t)</t>
+  </si>
+  <si>
+    <t>Límite Inferior</t>
+  </si>
+  <si>
+    <t>Límite Superior</t>
+  </si>
+  <si>
+    <t>Cuota Fija</t>
+  </si>
+  <si>
+    <t>% sobre excedente de límite inferior</t>
+  </si>
+  <si>
+    <t>En Adelante</t>
+  </si>
+  <si>
+    <t>Percepción</t>
+  </si>
+  <si>
+    <t>Lim_inf</t>
+  </si>
+  <si>
+    <t>Lim_sup</t>
+  </si>
+  <si>
+    <t>Cuota_fija</t>
+  </si>
+  <si>
+    <t>ISR</t>
+  </si>
+  <si>
+    <t>Neto</t>
+  </si>
+  <si>
+    <t>Porc_exced</t>
+  </si>
+  <si>
+    <t>C1(t)</t>
+  </si>
+  <si>
+    <t>C2(t)</t>
+  </si>
+  <si>
+    <t>https://es.coursera.org/lecture/excel-vba-for-creative-problem-solving-part-1/automating-the-goal-seek-and-solver-tools-m979t</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
+  <numFmts count="3">
+    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="44" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="#\ ???/???"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -167,8 +231,28 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -187,8 +271,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF6ABAF3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -211,11 +307,28 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -237,16 +350,40 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="12" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="8" fontId="5" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="5" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Moneda" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Porcentaje" xfId="2" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1527,6 +1664,726 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-MX"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>ISR!$G$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ISR</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>ISR!$B$20:$B$30</c:f>
+              <c:numCache>
+                <c:formatCode>_("$"* #,##0.00_);_("$"* \(#,##0.00\);_("$"* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>578.53</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4910.1899999999996</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8629.2099999999991</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10031.08</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12009.95</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>24222.32</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>38177.699999999997</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>72887.509999999995</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>97183.34</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>291550.01</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>ISR!$G$20:$G$30</c:f>
+              <c:numCache>
+                <c:formatCode>"$"#,##0.00_);[Red]\("$"#,##0.00\)</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11.11</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>238.33</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>692.96</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>917.26</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1271.8699999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3880.44</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7162.74</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>17575.689999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>25350.35</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>91435.02</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7C9C-4F27-87B4-43AB51E8D22B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="500395488"/>
+        <c:axId val="500400080"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="500395488"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-MX"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="500400080"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="500400080"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-MX"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="500395488"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-MX"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-MX"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>ISR!$H$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Neto</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>ISR!$B$20:$B$30</c:f>
+              <c:numCache>
+                <c:formatCode>_("$"* #,##0.00_);_("$"* \(#,##0.00\);_("$"* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>578.53</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4910.1899999999996</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8629.2099999999991</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10031.08</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12009.95</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>24222.32</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>38177.699999999997</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>72887.509999999995</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>97183.34</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>291550.01</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>ISR!$H$20:$H$30</c:f>
+              <c:numCache>
+                <c:formatCode>"$"#,##0.00_);[Red]\("$"#,##0.00\)</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>567.41999999999996</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4671.8599999999997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7936.2499999999991</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9113.82</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10738.080000000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>20341.88</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>31014.959999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>55311.819999999992</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>71832.989999999991</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>200114.99</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-CF45-41DC-A5E8-B1DC627EC88B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="502432344"/>
+        <c:axId val="502436608"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="502432344"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-MX"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="502436608"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="502436608"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-MX"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="502432344"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-MX"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -1568,6 +2425,86 @@
 </file>
 
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -2639,6 +3576,1038 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -2687,6 +4656,71 @@
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="6" name="Gráfico 5"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Gráfico 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Gráfico 3"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -3933,8 +5967,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:Y159"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A108" workbookViewId="0">
-      <selection activeCell="C108" sqref="C108:D159"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5158,16 +7192,16 @@
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="E29" s="9" t="s">
+      <c r="E29" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="F29" s="9"/>
-      <c r="G29" s="9"/>
-      <c r="H29" s="9"/>
-      <c r="I29" s="9"/>
-      <c r="J29" s="9"/>
-      <c r="K29" s="9"/>
-      <c r="L29" s="9"/>
+      <c r="F29" s="13"/>
+      <c r="G29" s="13"/>
+      <c r="H29" s="13"/>
+      <c r="I29" s="13"/>
+      <c r="J29" s="13"/>
+      <c r="K29" s="13"/>
+      <c r="L29" s="13"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
@@ -5176,28 +7210,28 @@
       <c r="B30" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E30" s="10" t="s">
+      <c r="E30" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="F30" s="10" t="s">
+      <c r="F30" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G30" s="10" t="s">
+      <c r="G30" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="H30" s="10" t="s">
+      <c r="H30" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="I30" s="10" t="s">
+      <c r="I30" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="J30" s="10" t="s">
+      <c r="J30" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="K30" s="10" t="s">
+      <c r="K30" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="L30" s="10" t="s">
+      <c r="L30" s="9" t="s">
         <v>11</v>
       </c>
     </row>
@@ -5645,7 +7679,7 @@
         <v>1</v>
       </c>
       <c r="E44" s="7">
-        <f t="shared" ref="E44:F50" si="20">E32*E$40</f>
+        <f t="shared" ref="E44:E50" si="20">E32*E$40</f>
         <v>0.76519768655796649</v>
       </c>
       <c r="F44" s="7">
@@ -5900,16 +7934,16 @@
       </c>
     </row>
     <row r="52" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="E52" s="9" t="s">
+      <c r="E52" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="F52" s="9"/>
-      <c r="G52" s="9"/>
-      <c r="H52" s="9"/>
-      <c r="I52" s="9"/>
-      <c r="J52" s="9"/>
-      <c r="K52" s="9"/>
-      <c r="L52" s="9"/>
+      <c r="F52" s="13"/>
+      <c r="G52" s="13"/>
+      <c r="H52" s="13"/>
+      <c r="I52" s="13"/>
+      <c r="J52" s="13"/>
+      <c r="K52" s="13"/>
+      <c r="L52" s="13"/>
     </row>
     <row r="53" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C53" t="s">
@@ -5918,28 +7952,28 @@
       <c r="D53" t="s">
         <v>31</v>
       </c>
-      <c r="E53" s="11" t="s">
+      <c r="E53" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="F53" s="11" t="s">
+      <c r="F53" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="G53" s="11" t="s">
+      <c r="G53" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="H53" s="11" t="s">
+      <c r="H53" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="I53" s="11" t="s">
+      <c r="I53" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="J53" s="11" t="s">
+      <c r="J53" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="K53" s="11" t="s">
+      <c r="K53" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="L53" s="11" t="s">
+      <c r="L53" s="10" t="s">
         <v>11</v>
       </c>
     </row>
@@ -8069,16 +10103,16 @@
       </c>
     </row>
     <row r="107" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="E107" s="9" t="s">
+      <c r="E107" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="F107" s="9"/>
-      <c r="G107" s="9"/>
-      <c r="H107" s="9"/>
-      <c r="I107" s="9"/>
-      <c r="J107" s="9"/>
-      <c r="K107" s="9"/>
-      <c r="L107" s="9"/>
+      <c r="F107" s="13"/>
+      <c r="G107" s="13"/>
+      <c r="H107" s="13"/>
+      <c r="I107" s="13"/>
+      <c r="J107" s="13"/>
+      <c r="K107" s="13"/>
+      <c r="L107" s="13"/>
     </row>
     <row r="108" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C108" t="s">
@@ -8087,31 +10121,31 @@
       <c r="D108" t="s">
         <v>31</v>
       </c>
-      <c r="E108" s="10" t="s">
+      <c r="E108" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="F108" s="10" t="s">
+      <c r="F108" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G108" s="10" t="s">
+      <c r="G108" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="H108" s="10" t="s">
+      <c r="H108" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="I108" s="10" t="s">
+      <c r="I108" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="J108" s="10" t="s">
+      <c r="J108" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="K108" s="10" t="s">
+      <c r="K108" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="L108" s="10" t="s">
+      <c r="L108" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="N108" s="12" t="s">
+      <c r="N108" s="11" t="s">
         <v>35</v>
       </c>
     </row>
@@ -8156,2257 +10190,2257 @@
         <v>-4.5449755070592346E-16</v>
       </c>
       <c r="N109">
-        <f>SUM(E109:L109)</f>
+        <f t="shared" ref="N109:N140" si="33">SUM(E109:L109)</f>
         <v>0.540302118471505</v>
       </c>
     </row>
     <row r="110" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C110" s="13">
-        <f t="shared" ref="C110:C159" si="33">C55</f>
+      <c r="C110" s="12">
+        <f t="shared" ref="C110:C159" si="34">C55</f>
         <v>-0.98078528040323043</v>
       </c>
       <c r="D110">
         <v>0.57351998607245669</v>
       </c>
       <c r="E110">
-        <f t="shared" ref="E110:L159" si="34">E55*E$40/E$27</f>
+        <f t="shared" ref="E110:L159" si="35">E55*E$40/E$27</f>
         <v>0.76519768655796649</v>
       </c>
       <c r="F110">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>-8.1666780038783007E-17</v>
       </c>
       <c r="G110">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>-0.21231395588560262</v>
       </c>
       <c r="H110">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>8.0772711937263321E-17</v>
       </c>
       <c r="I110">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>3.5024964114389961E-3</v>
       </c>
       <c r="J110">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>1.8504205934841758E-16</v>
       </c>
       <c r="K110">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>-1.6025308771030462E-5</v>
       </c>
       <c r="L110">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>-8.8668073522759861E-17</v>
       </c>
-      <c r="N110" s="13">
-        <f>SUM(E110:L110)</f>
+      <c r="N110" s="12">
+        <f t="shared" si="33"/>
         <v>0.55637020177503194</v>
       </c>
     </row>
     <row r="111" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C111">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>-0.92</v>
       </c>
       <c r="D111">
         <v>0.60582015664346278</v>
       </c>
       <c r="E111">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>0.76519768655796649</v>
       </c>
       <c r="F111">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>-7.6605388699135808E-17</v>
       </c>
       <c r="G111">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>-0.15921026872164046</v>
       </c>
       <c r="H111">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>3.4462210862784567E-17</v>
       </c>
       <c r="I111">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>-1.984100857016657E-4</v>
       </c>
       <c r="J111">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>-1.4270439123720278E-16</v>
       </c>
       <c r="K111">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>3.1336008257988612E-5</v>
       </c>
       <c r="L111">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>4.3105462124628972E-16</v>
       </c>
       <c r="N111">
-        <f>SUM(E111:L111)</f>
+        <f t="shared" si="33"/>
         <v>0.60582034375888261</v>
       </c>
     </row>
     <row r="112" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C112">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>-0.88</v>
       </c>
       <c r="D112">
         <v>0.63715114419858021</v>
       </c>
       <c r="E112">
+        <f t="shared" si="35"/>
+        <v>0.76519768655796649</v>
+      </c>
+      <c r="F112">
+        <f t="shared" si="35"/>
+        <v>-7.3274719625260335E-17</v>
+      </c>
+      <c r="G112">
+        <f t="shared" si="35"/>
+        <v>-0.12611806506125325</v>
+      </c>
+      <c r="H112">
+        <f t="shared" si="35"/>
+        <v>8.343548074662973E-18</v>
+      </c>
+      <c r="I112">
+        <f t="shared" si="35"/>
+        <v>-1.9696071695393808E-3</v>
+      </c>
+      <c r="J112">
+        <f t="shared" si="35"/>
+        <v>-2.6170043838646964E-16</v>
+      </c>
+      <c r="K112">
+        <f t="shared" si="35"/>
+        <v>4.1258330226535119E-5</v>
+      </c>
+      <c r="L112">
+        <f t="shared" si="35"/>
+        <v>4.3100207890233843E-16</v>
+      </c>
+      <c r="N112">
+        <f t="shared" si="33"/>
+        <v>0.63715127265740046</v>
+      </c>
+    </row>
+    <row r="113" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C113" s="12">
         <f t="shared" si="34"/>
-        <v>0.76519768655796649</v>
-      </c>
-      <c r="F112">
-        <f t="shared" si="34"/>
-        <v>-7.3274719625260335E-17</v>
-      </c>
-      <c r="G112">
-        <f t="shared" si="34"/>
-        <v>-0.12611806506125325</v>
-      </c>
-      <c r="H112">
-        <f t="shared" si="34"/>
-        <v>8.343548074662973E-18</v>
-      </c>
-      <c r="I112">
-        <f t="shared" si="34"/>
-        <v>-1.9696071695393808E-3</v>
-      </c>
-      <c r="J112">
-        <f t="shared" si="34"/>
-        <v>-2.6170043838646964E-16</v>
-      </c>
-      <c r="K112">
-        <f t="shared" si="34"/>
-        <v>4.1258330226535119E-5</v>
-      </c>
-      <c r="L112">
-        <f t="shared" si="34"/>
-        <v>4.3100207890233843E-16</v>
-      </c>
-      <c r="N112">
-        <f>SUM(E112:L112)</f>
-        <v>0.63715127265740046</v>
-      </c>
-    </row>
-    <row r="113" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C113" s="13">
-        <f t="shared" si="33"/>
         <v>-0.83146961230254535</v>
       </c>
       <c r="D113">
         <v>0.66746282584130812</v>
       </c>
       <c r="E113">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>0.76519768655796649</v>
       </c>
       <c r="F113">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>-6.9233753089082862E-17</v>
       </c>
       <c r="G113">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>-8.7943320008899678E-2</v>
       </c>
       <c r="H113">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>-1.8951954646086107E-17</v>
       </c>
       <c r="I113">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>-3.5024964114389961E-3</v>
       </c>
       <c r="J113">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>-3.2666712015513208E-16</v>
       </c>
       <c r="K113">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>3.8688517776238347E-5</v>
       </c>
       <c r="L113">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>2.5250531015252891E-16</v>
       </c>
-      <c r="N113" s="13">
-        <f>SUM(E113:L113)</f>
+      <c r="N113" s="12">
+        <f t="shared" si="33"/>
         <v>0.67379055865540383</v>
       </c>
     </row>
     <row r="114" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C114">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>-0.8</v>
       </c>
       <c r="D114">
         <v>0.69670670934716539</v>
       </c>
       <c r="E114">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>0.76519768655796649</v>
       </c>
       <c r="F114">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>-6.6613381477509402E-17</v>
       </c>
       <c r="G114">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>-6.434595156186397E-2</v>
       </c>
       <c r="H114">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>-3.419486915845479E-17</v>
       </c>
       <c r="I114">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>-4.1766039482320086E-3</v>
       </c>
       <c r="J114">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>-3.3210767469427085E-16</v>
       </c>
       <c r="K114">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>3.1498904931946579E-5</v>
       </c>
       <c r="L114">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>9.3802476897053865E-17</v>
       </c>
       <c r="N114">
-        <f>SUM(E114:L114)</f>
+        <f t="shared" si="33"/>
         <v>0.69670662995280208</v>
       </c>
     </row>
     <row r="115" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C115">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>-0.76</v>
       </c>
       <c r="D115">
         <v>0.7248360107409052</v>
       </c>
       <c r="E115">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>0.76519768655796649</v>
       </c>
       <c r="F115">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>-6.328271240363393E-17</v>
       </c>
       <c r="G115">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>-3.5666041722861717E-2</v>
       </c>
       <c r="H115">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>-5.0913051552470278E-17</v>
       </c>
       <c r="I115">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>-4.7146583200919894E-3</v>
       </c>
       <c r="J115">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>-3.0731397373529034E-16</v>
       </c>
       <c r="K115">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>1.8871351498707303E-5</v>
       </c>
       <c r="L115">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>-1.0803239285962712E-16</v>
       </c>
       <c r="N115">
-        <f>SUM(E115:L115)</f>
+        <f t="shared" si="33"/>
         <v>0.72483585786651095</v>
       </c>
     </row>
     <row r="116" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C116">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>-0.72</v>
       </c>
       <c r="D116">
         <v>0.75180572914089505</v>
       </c>
       <c r="E116">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>0.76519768655796649</v>
       </c>
       <c r="F116">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>-5.9952043329758457E-17</v>
       </c>
       <c r="G116">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>-8.4568964909878166E-3</v>
       </c>
       <c r="H116">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>-6.4796168430802941E-17</v>
       </c>
       <c r="I116">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>-4.9398620730198087E-3</v>
       </c>
       <c r="J116">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>-2.5615902359277241E-16</v>
       </c>
       <c r="K116">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>4.6147791823766895E-6</v>
       </c>
       <c r="L116">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>-2.7742659769842245E-16</v>
       </c>
       <c r="N116">
-        <f>SUM(E116:L116)</f>
+        <f t="shared" si="33"/>
         <v>0.7518055427731406</v>
       </c>
     </row>
     <row r="117" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C117">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>-0.67999999999999994</v>
       </c>
       <c r="D117">
         <v>0.77757271875092793</v>
       </c>
       <c r="E117">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>0.76519768655796649</v>
       </c>
       <c r="F117">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>-5.6621374255882985E-17</v>
       </c>
       <c r="G117">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>1.7281484133757772E-2</v>
       </c>
       <c r="H117">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>-7.5993433767962426E-17</v>
       </c>
       <c r="I117">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>-4.897255957601032E-3</v>
       </c>
       <c r="J117">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>-1.8729894009084081E-16</v>
       </c>
       <c r="K117">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>-9.3760265735202868E-6</v>
       </c>
       <c r="L117">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>-3.9398069379046779E-16</v>
       </c>
       <c r="N117">
-        <f>SUM(E117:L117)</f>
+        <f t="shared" si="33"/>
         <v>0.77757253870754883</v>
       </c>
     </row>
     <row r="118" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C118">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>-0.64</v>
       </c>
       <c r="D118">
         <v>0.80209575788429266</v>
       </c>
       <c r="E118">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>0.76519768655796649</v>
       </c>
       <c r="F118">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>-5.3290705182007512E-17</v>
       </c>
       <c r="G118">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>4.1549100151374974E-2</v>
       </c>
       <c r="H118">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>-8.4654061538458331E-17</v>
       </c>
       <c r="I118">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>-4.629446089254436E-3</v>
       </c>
       <c r="J118">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>-1.0821113392012193E-16</v>
       </c>
       <c r="K118">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>-2.172365373847289E-5</v>
       </c>
       <c r="L118">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>-4.4945505414034417E-16</v>
       </c>
       <c r="N118">
-        <f>SUM(E118:L118)</f>
+        <f t="shared" si="33"/>
         <v>0.8020956169663479</v>
       </c>
     </row>
     <row r="119" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C119">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>-0.6</v>
       </c>
       <c r="D119">
         <v>0.82533561490967833</v>
       </c>
       <c r="E119">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>0.76519768655796649</v>
       </c>
       <c r="F119">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>-4.9960036108132039E-17</v>
       </c>
       <c r="G119">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>6.4345951561863915E-2</v>
       </c>
       <c r="H119">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>-9.0927265716800315E-17</v>
       </c>
       <c r="I119">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>-4.1766039482320104E-3</v>
       </c>
       <c r="J119">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>-2.5259794256271531E-17</v>
       </c>
       <c r="K119">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>-3.1498904931946566E-5</v>
       </c>
       <c r="L119">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>-4.4471240023824521E-16</v>
       </c>
       <c r="N119">
-        <f>SUM(E119:L119)</f>
+        <f t="shared" si="33"/>
         <v>0.82533553526666592</v>
       </c>
     </row>
     <row r="120" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C120">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>-0.55557023301960196</v>
       </c>
       <c r="D120">
         <v>0.84725511101341611</v>
       </c>
       <c r="E120">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>0.76519768655796649</v>
       </c>
       <c r="F120">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>-4.6260514837104412E-17</v>
       </c>
       <c r="G120">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>8.7943320008899761E-2</v>
       </c>
       <c r="H120">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>-9.5277910045246866E-17</v>
       </c>
       <c r="I120">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>-3.502496411438993E-3</v>
       </c>
       <c r="J120">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>6.4978130215153001E-17</v>
       </c>
       <c r="K120">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>-3.8688517776238347E-5</v>
       </c>
       <c r="L120">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>-3.7790090227791004E-16</v>
       </c>
       <c r="N120">
-        <f>SUM(E120:L120)</f>
+        <f t="shared" si="33"/>
         <v>0.8495998216376508</v>
       </c>
     </row>
     <row r="121" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C121">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>-0.52</v>
       </c>
       <c r="D121">
         <v>0.86781917967764988</v>
       </c>
       <c r="E121">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>0.76519768655796649</v>
       </c>
       <c r="F121">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>-4.3298697960381107E-17</v>
       </c>
       <c r="G121">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>0.10552736056145681</v>
       </c>
       <c r="H121">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>-9.6908259195060962E-17</v>
       </c>
       <c r="I121">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>-2.8643355933336899E-3</v>
       </c>
       <c r="J121">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>1.3194993471188351E-16</v>
       </c>
       <c r="K121">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>-4.1469274059185358E-5</v>
       </c>
       <c r="L121">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>-2.880281561505171E-16</v>
       </c>
       <c r="N121">
-        <f>SUM(E121:L121)</f>
+        <f t="shared" si="33"/>
         <v>0.86781924225203011</v>
       </c>
     </row>
     <row r="122" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C122">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>-0.48</v>
       </c>
       <c r="D122">
         <v>0.88699492277928416</v>
       </c>
       <c r="E122">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>0.76519768655796649</v>
       </c>
       <c r="F122">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>-3.9968028886505634E-17</v>
       </c>
       <c r="G122">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>0.1239119181505608</v>
       </c>
       <c r="H122">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>-9.6914476443998857E-17</v>
       </c>
       <c r="I122">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>-2.0730791641278374E-3</v>
       </c>
       <c r="J122">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>1.9845670067297763E-16</v>
       </c>
       <c r="K122">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>-4.1479968624848631E-5</v>
       </c>
       <c r="L122">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>-1.6137903501885367E-16</v>
       </c>
       <c r="N122">
-        <f>SUM(E122:L122)</f>
+        <f t="shared" si="33"/>
         <v>0.88699504557577469</v>
       </c>
     </row>
     <row r="123" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C123">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>-0.43999999999999995</v>
       </c>
       <c r="D123">
         <v>0.90475166321996348</v>
       </c>
       <c r="E123">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>0.76519768655796649</v>
       </c>
       <c r="F123">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>-3.6637359812630161E-17</v>
       </c>
       <c r="G123">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>0.14082571113253645</v>
       </c>
       <c r="H123">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>-9.5130125998821308E-17</v>
       </c>
       <c r="I123">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>-1.2331300315862404E-3</v>
       </c>
       <c r="J123">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>2.5319278620372647E-16</v>
       </c>
       <c r="K123">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>-3.8438786461968148E-5</v>
       </c>
       <c r="L123">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>-2.1625034087833051E-17</v>
       </c>
       <c r="N123">
-        <f>SUM(E123:L123)</f>
+        <f t="shared" si="33"/>
         <v>0.90475182887245498</v>
       </c>
     </row>
     <row r="124" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C124">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>-0.4</v>
       </c>
       <c r="D124">
         <v>0.9210609940028851</v>
       </c>
       <c r="E124">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>0.76519768655796649</v>
       </c>
       <c r="F124">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>-3.3306690738754701E-17</v>
       </c>
       <c r="G124">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>0.15626873950738379</v>
       </c>
       <c r="H124">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>-9.1704421834037925E-17</v>
       </c>
       <c r="I124">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>-3.7248650012695368E-4</v>
       </c>
       <c r="J124">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>2.9437785542540947E-16</v>
       </c>
       <c r="K124">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>-3.2758539520393334E-5</v>
       </c>
       <c r="L124">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>1.17270548827264E-16</v>
       </c>
       <c r="N124">
-        <f>SUM(E124:L124)</f>
+        <f t="shared" si="33"/>
         <v>0.92106118102570322</v>
       </c>
     </row>
     <row r="125" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C125">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>-0.36</v>
       </c>
       <c r="D125">
         <v>0.93589682367793481</v>
       </c>
       <c r="E125">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>0.76519768655796649</v>
       </c>
       <c r="F125">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>-2.9976021664879229E-17</v>
       </c>
       <c r="G125">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>0.17024100327510283</v>
       </c>
       <c r="H125">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>-8.6786577924158332E-17</v>
       </c>
       <c r="I125">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>4.8328776099876053E-4</v>
       </c>
       <c r="J125">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>3.2095189226311052E-16</v>
       </c>
       <c r="K125">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>-2.4968292337366349E-5</v>
       </c>
       <c r="L125">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>2.4285263352169302E-16</v>
       </c>
       <c r="N125">
-        <f>SUM(E125:L125)</f>
+        <f t="shared" si="33"/>
         <v>0.93589700930173114</v>
       </c>
     </row>
     <row r="126" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C126">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>-0.31999999999999995</v>
       </c>
       <c r="D126">
         <v>0.94923541808244083</v>
       </c>
       <c r="E126">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>0.76519768655796649</v>
       </c>
       <c r="F126">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>-2.6645352591003753E-17</v>
       </c>
       <c r="G126">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>0.18274250243569354</v>
       </c>
       <c r="H126">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>-8.0525808243692149E-17</v>
       </c>
       <c r="I126">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>1.3110637177064213E-3</v>
       </c>
       <c r="J126">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>3.3250971682718956E-16</v>
       </c>
       <c r="K126">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>-1.5671866779699251E-5</v>
       </c>
       <c r="L126">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>3.4487792540403471E-16</v>
       </c>
       <c r="N126">
-        <f>SUM(E126:L126)</f>
+        <f t="shared" si="33"/>
         <v>0.94923558084458726</v>
       </c>
     </row>
     <row r="127" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C127">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>-0.28000000000000003</v>
       </c>
       <c r="D127">
         <v>0.96105543831077089</v>
       </c>
       <c r="E127">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>0.76519768655796649</v>
       </c>
       <c r="F127">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>-2.331468351712829E-17</v>
       </c>
       <c r="G127">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>0.19377323698915588</v>
       </c>
       <c r="H127">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>-7.3071326767149E-17</v>
       </c>
       <c r="I127">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>2.0901469710783356E-3</v>
       </c>
       <c r="J127">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>3.2923550179475566E-16</v>
       </c>
       <c r="K127">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>-5.5102987152675084E-6</v>
       </c>
       <c r="L127">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>4.1577828958622824E-16</v>
       </c>
       <c r="N127">
-        <f>SUM(E127:L127)</f>
+        <f t="shared" si="33"/>
         <v>0.96105556021948613</v>
       </c>
     </row>
     <row r="128" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C128">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>-0.24</v>
       </c>
       <c r="D128">
         <v>0.97133797485202966</v>
       </c>
       <c r="E128">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>0.76519768655796649</v>
       </c>
       <c r="F128">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>-1.9984014443252817E-17</v>
       </c>
       <c r="G128">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>0.20333320693548998</v>
       </c>
       <c r="H128">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>-6.4572347469038495E-17</v>
       </c>
       <c r="I128">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>2.802277757363603E-3</v>
       </c>
       <c r="J128">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>3.1183728879113915E-16</v>
       </c>
       <c r="K128">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>4.87175338618004E-6</v>
       </c>
       <c r="L128">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>4.5090795045211959E-16</v>
       </c>
       <c r="N128">
-        <f>SUM(E128:L128)</f>
+        <f t="shared" si="33"/>
         <v>0.9713380430042069</v>
       </c>
     </row>
     <row r="129" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C129">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>-0.19509032201612819</v>
       </c>
       <c r="D129">
         <v>0.98006657784124163</v>
       </c>
       <c r="E129">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>0.76519768655796649</v>
       </c>
       <c r="F129">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>-1.6244532553788121E-17</v>
       </c>
       <c r="G129">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>0.21231395588560265</v>
       </c>
       <c r="H129">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>-5.397060064328849E-17</v>
       </c>
       <c r="I129">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>3.5024964114389987E-3</v>
       </c>
       <c r="J129">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>2.769350123563314E-16</v>
       </c>
       <c r="K129">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>1.6025308771030506E-5</v>
       </c>
       <c r="L129">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>4.4576450771169057E-16</v>
       </c>
       <c r="N129">
-        <f>SUM(E129:L129)</f>
+        <f t="shared" si="33"/>
         <v>0.98103016416377975</v>
       </c>
     </row>
     <row r="130" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C130">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>-0.16000000000000003</v>
       </c>
       <c r="D130">
         <v>0.98722728337562693</v>
       </c>
       <c r="E130">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>0.76519768655796649</v>
       </c>
       <c r="F130">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>-1.3322676295501881E-17</v>
       </c>
       <c r="G130">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>0.21804085300677314</v>
       </c>
       <c r="H130">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>-4.5037751306153959E-17</v>
       </c>
       <c r="I130">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>3.9648160495045076E-3</v>
       </c>
       <c r="J130">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>2.3972747840161902E-16</v>
       </c>
       <c r="K130">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>2.3874447701684392E-5</v>
       </c>
       <c r="L130">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>4.1004598702102161E-16</v>
       </c>
       <c r="N130">
-        <f>SUM(E130:L130)</f>
+        <f t="shared" si="33"/>
         <v>0.98722723006194646</v>
       </c>
     </row>
     <row r="131" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C131">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>-0.12</v>
       </c>
       <c r="D131">
         <v>0.99280863585386625</v>
       </c>
       <c r="E131">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>0.76519768655796649</v>
       </c>
       <c r="F131">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>-9.9920072216264085E-18</v>
       </c>
       <c r="G131">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>0.22318852913172227</v>
       </c>
       <c r="H131">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>-3.4300562390399131E-17</v>
       </c>
       <c r="I131">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>4.3908772036922745E-3</v>
       </c>
       <c r="J131">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>1.8846195644073301E-16</v>
       </c>
       <c r="K131">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>3.1434655549155586E-5</v>
       </c>
       <c r="L131">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>3.3905334849293922E-16</v>
       </c>
       <c r="N131">
-        <f>SUM(E131:L131)</f>
+        <f t="shared" si="33"/>
         <v>0.99280852754893067</v>
       </c>
     </row>
     <row r="132" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C132">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>-7.999999999999996E-2</v>
       </c>
       <c r="D132">
         <v>0.99680170630261944</v>
       </c>
       <c r="E132">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>0.76519768655796649</v>
       </c>
       <c r="F132">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>-6.6613381477509359E-18</v>
       </c>
       <c r="G132">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>0.22686544064954306</v>
       </c>
       <c r="H132">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>-2.3115731551115447E-17</v>
       </c>
       <c r="I132">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>4.7012931874576471E-3</v>
       </c>
       <c r="J132">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>1.2983362012164427E-16</v>
       </c>
       <c r="K132">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>3.7133997993635959E-5</v>
       </c>
       <c r="L132">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>2.4165346593349555E-16</v>
       </c>
       <c r="N132">
-        <f>SUM(E132:L132)</f>
+        <f t="shared" si="33"/>
         <v>0.99680155439296114</v>
       </c>
     </row>
     <row r="133" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C133">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>-4.0000000000000036E-2</v>
       </c>
       <c r="D133">
         <v>0.99920010666097792</v>
       </c>
       <c r="E133">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>0.76519768655796649</v>
       </c>
       <c r="F133">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>-3.3306690738754726E-18</v>
       </c>
       <c r="G133">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>0.22907158756023555</v>
       </c>
       <c r="H133">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>-1.1632472762812552E-17</v>
       </c>
       <c r="I133">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>4.889977412883658E-3</v>
       </c>
       <c r="J133">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>6.6187601532874461E-17</v>
       </c>
       <c r="K133">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>4.0675257017782788E-5</v>
       </c>
       <c r="L133">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>1.2563560275168596E-16</v>
       </c>
       <c r="N133">
-        <f>SUM(E133:L133)</f>
+        <f t="shared" si="33"/>
         <v>0.99919992678810365</v>
       </c>
     </row>
     <row r="134" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C134">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="D134">
         <v>1</v>
       </c>
       <c r="E134">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>0.76519768655796649</v>
       </c>
       <c r="F134">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="G134">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>0.2298069698637997</v>
       </c>
       <c r="H134">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="I134">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>4.9532779272201261E-3</v>
       </c>
       <c r="J134">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="K134">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>4.1876149881873992E-5</v>
       </c>
       <c r="L134">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="N134">
-        <f>SUM(E134:L134)</f>
+        <f t="shared" si="33"/>
         <v>0.9999998104988681</v>
       </c>
     </row>
     <row r="135" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C135">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>4.0000000000000036E-2</v>
       </c>
       <c r="D135">
         <v>0.99920010666097792</v>
       </c>
       <c r="E135">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>0.76519768655796649</v>
       </c>
       <c r="F135">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>3.3306690738754726E-18</v>
       </c>
       <c r="G135">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>0.22907158756023555</v>
       </c>
       <c r="H135">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>1.1632472762812552E-17</v>
       </c>
       <c r="I135">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>4.889977412883658E-3</v>
       </c>
       <c r="J135">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>-6.6187601532874461E-17</v>
       </c>
       <c r="K135">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>4.0675257017782788E-5</v>
       </c>
       <c r="L135">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>-1.2563560275168596E-16</v>
       </c>
       <c r="N135">
-        <f>SUM(E135:L135)</f>
+        <f t="shared" si="33"/>
         <v>0.99919992678810321</v>
       </c>
     </row>
     <row r="136" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C136">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>8.0000000000000071E-2</v>
       </c>
       <c r="D136">
         <v>0.99680170630261933</v>
       </c>
       <c r="E136">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>0.76519768655796649</v>
       </c>
       <c r="F136">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>6.6613381477509452E-18</v>
       </c>
       <c r="G136">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>0.22686544064954306</v>
       </c>
       <c r="H136">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>2.3115731551115481E-17</v>
       </c>
       <c r="I136">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>4.7012931874576471E-3</v>
       </c>
       <c r="J136">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>-1.2983362012164444E-16</v>
       </c>
       <c r="K136">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>3.7133997993635945E-5</v>
       </c>
       <c r="L136">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>-2.4165346593349585E-16</v>
       </c>
       <c r="N136">
-        <f>SUM(E136:L136)</f>
+        <f t="shared" si="33"/>
         <v>0.99680155439296048</v>
       </c>
     </row>
     <row r="137" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C137">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>0.12000000000000011</v>
       </c>
       <c r="D137">
         <v>0.99280863585386625</v>
       </c>
       <c r="E137">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>0.76519768655796649</v>
       </c>
       <c r="F137">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>9.9920072216264177E-18</v>
       </c>
       <c r="G137">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>0.22318852913172227</v>
       </c>
       <c r="H137">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>3.4300562390399161E-17</v>
       </c>
       <c r="I137">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>4.3908772036922736E-3</v>
       </c>
       <c r="J137">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>-1.8846195644073321E-16</v>
       </c>
       <c r="K137">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>3.1434655549155572E-5</v>
       </c>
       <c r="L137">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>-3.3905334849293946E-16</v>
       </c>
       <c r="N137">
-        <f>SUM(E137:L137)</f>
+        <f t="shared" si="33"/>
         <v>0.99280852754892956</v>
       </c>
     </row>
     <row r="138" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C138">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>0.15999999999999992</v>
       </c>
       <c r="D138">
         <v>0.98722728337562693</v>
       </c>
       <c r="E138">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>0.76519768655796649</v>
       </c>
       <c r="F138">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>1.3322676295501872E-17</v>
       </c>
       <c r="G138">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>0.21804085300677317</v>
       </c>
       <c r="H138">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>4.5037751306153928E-17</v>
       </c>
       <c r="I138">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>3.9648160495045093E-3</v>
       </c>
       <c r="J138">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>-2.3972747840161892E-16</v>
       </c>
       <c r="K138">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>2.3874447701684416E-5</v>
       </c>
       <c r="L138">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>-4.1004598702102147E-16</v>
       </c>
       <c r="N138">
-        <f>SUM(E138:L138)</f>
+        <f t="shared" si="33"/>
         <v>0.98722723006194513</v>
       </c>
     </row>
     <row r="139" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C139">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>0.19509032201612833</v>
       </c>
       <c r="D139">
         <v>0.98006657784124163</v>
       </c>
       <c r="E139">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>0.76519768655796649</v>
       </c>
       <c r="F139">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>1.6244532553788133E-17</v>
       </c>
       <c r="G139">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>0.21231395588560262</v>
       </c>
       <c r="H139">
-        <f t="shared" ref="F139:L154" si="35">H84*H$40/H$27</f>
+        <f t="shared" ref="F139:L154" si="36">H84*H$40/H$27</f>
         <v>5.3970600643288527E-17</v>
       </c>
       <c r="I139">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>3.5024964114389965E-3</v>
       </c>
       <c r="J139">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>-2.769350123563315E-16</v>
       </c>
       <c r="K139">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>1.6025308771030472E-5</v>
       </c>
       <c r="L139">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>-4.4576450771169067E-16</v>
       </c>
       <c r="N139">
-        <f>SUM(E139:L139)</f>
+        <f t="shared" si="33"/>
         <v>0.98103016416377842</v>
       </c>
     </row>
     <row r="140" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C140">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>0.24</v>
       </c>
       <c r="D140">
         <v>0.97133797485202966</v>
       </c>
       <c r="E140">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>0.76519768655796649</v>
       </c>
       <c r="F140">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>1.9984014443252817E-17</v>
       </c>
       <c r="G140">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>0.20333320693548998</v>
       </c>
       <c r="H140">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>6.4572347469038495E-17</v>
       </c>
       <c r="I140">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>2.802277757363603E-3</v>
       </c>
       <c r="J140">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>-3.1183728879113915E-16</v>
       </c>
       <c r="K140">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>4.87175338618004E-6</v>
       </c>
       <c r="L140">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>-4.5090795045211959E-16</v>
       </c>
       <c r="N140">
-        <f>SUM(E140:L140)</f>
+        <f t="shared" si="33"/>
         <v>0.97133804300420556</v>
       </c>
     </row>
     <row r="141" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C141">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>0.28000000000000003</v>
       </c>
       <c r="D141">
         <v>0.96105543831077089</v>
       </c>
       <c r="E141">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>0.76519768655796649</v>
       </c>
       <c r="F141">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>2.331468351712829E-17</v>
       </c>
       <c r="G141">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>0.19377323698915588</v>
       </c>
       <c r="H141">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>7.3071326767149E-17</v>
       </c>
       <c r="I141">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>2.0901469710783356E-3</v>
       </c>
       <c r="J141">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>-3.2923550179475566E-16</v>
       </c>
       <c r="K141">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>-5.5102987152675084E-6</v>
       </c>
       <c r="L141">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>-4.1577828958622824E-16</v>
       </c>
       <c r="N141">
-        <f>SUM(E141:L141)</f>
+        <f t="shared" ref="N141:N159" si="37">SUM(E141:L141)</f>
         <v>0.96105556021948479</v>
       </c>
     </row>
     <row r="142" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C142">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>0.32000000000000006</v>
       </c>
       <c r="D142">
         <v>0.94923541808244083</v>
       </c>
       <c r="E142">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>0.76519768655796649</v>
       </c>
       <c r="F142">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>2.6645352591003762E-17</v>
       </c>
       <c r="G142">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>0.18274250243569351</v>
       </c>
       <c r="H142">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>8.0525808243692162E-17</v>
       </c>
       <c r="I142">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>1.3110637177064189E-3</v>
       </c>
       <c r="J142">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>-3.3250971682718951E-16</v>
       </c>
       <c r="K142">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>-1.5671866779699278E-5</v>
       </c>
       <c r="L142">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>-3.4487792540403446E-16</v>
       </c>
       <c r="N142">
-        <f>SUM(E142:L142)</f>
+        <f t="shared" si="37"/>
         <v>0.94923558084458615</v>
       </c>
     </row>
     <row r="143" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C143">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>0.3600000000000001</v>
       </c>
       <c r="D143">
         <v>0.93589682367793481</v>
       </c>
       <c r="E143">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>0.76519768655796649</v>
       </c>
       <c r="F143">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>2.9976021664879235E-17</v>
       </c>
       <c r="G143">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>0.1702410032751028</v>
       </c>
       <c r="H143">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>8.6786577924158356E-17</v>
       </c>
       <c r="I143">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>4.8328776099875836E-4</v>
       </c>
       <c r="J143">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>-3.2095189226311047E-16</v>
       </c>
       <c r="K143">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>-2.4968292337366373E-5</v>
       </c>
       <c r="L143">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>-2.4285263352169272E-16</v>
       </c>
       <c r="N143">
-        <f>SUM(E143:L143)</f>
+        <f t="shared" si="37"/>
         <v>0.93589700930173025</v>
       </c>
     </row>
     <row r="144" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C144">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>0.40000000000000013</v>
       </c>
       <c r="D144">
         <v>0.92106099400288499</v>
       </c>
       <c r="E144">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>0.76519768655796649</v>
       </c>
       <c r="F144">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>3.3306690738754707E-17</v>
       </c>
       <c r="G144">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>0.15626873950738374</v>
       </c>
       <c r="H144">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>9.1704421834037938E-17</v>
       </c>
       <c r="I144">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>-3.7248650012695645E-4</v>
       </c>
       <c r="J144">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>-2.9437785542540937E-16</v>
       </c>
       <c r="K144">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>-3.2758539520393348E-5</v>
       </c>
       <c r="L144">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>-1.1727054882726361E-16</v>
       </c>
       <c r="N144">
-        <f>SUM(E144:L144)</f>
+        <f t="shared" si="37"/>
         <v>0.92106118102570256</v>
       </c>
     </row>
     <row r="145" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C145">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>0.43999999999999995</v>
       </c>
       <c r="D145">
         <v>0.90475166321996348</v>
       </c>
       <c r="E145">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>0.76519768655796649</v>
       </c>
       <c r="F145">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>3.6637359812630161E-17</v>
       </c>
       <c r="G145">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>0.14082571113253645</v>
       </c>
       <c r="H145">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>9.5130125998821308E-17</v>
       </c>
       <c r="I145">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>-1.2331300315862404E-3</v>
       </c>
       <c r="J145">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>-2.5319278620372647E-16</v>
       </c>
       <c r="K145">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>-3.8438786461968148E-5</v>
       </c>
       <c r="L145">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>2.1625034087833051E-17</v>
       </c>
       <c r="N145">
-        <f>SUM(E145:L145)</f>
+        <f t="shared" si="37"/>
         <v>0.90475182887245476</v>
       </c>
     </row>
     <row r="146" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C146">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>0.48</v>
       </c>
       <c r="D146">
         <v>0.88699492277928416</v>
       </c>
       <c r="E146">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>0.76519768655796649</v>
       </c>
       <c r="F146">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>3.9968028886505634E-17</v>
       </c>
       <c r="G146">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>0.1239119181505608</v>
       </c>
       <c r="H146">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>9.6914476443998857E-17</v>
       </c>
       <c r="I146">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>-2.0730791641278374E-3</v>
       </c>
       <c r="J146">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>-1.9845670067297763E-16</v>
       </c>
       <c r="K146">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>-4.1479968624848631E-5</v>
       </c>
       <c r="L146">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>1.6137903501885367E-16</v>
       </c>
       <c r="N146">
-        <f>SUM(E146:L146)</f>
+        <f t="shared" si="37"/>
         <v>0.88699504557577469</v>
       </c>
     </row>
     <row r="147" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C147">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>0.52</v>
       </c>
       <c r="D147">
         <v>0.86781917967764988</v>
       </c>
       <c r="E147">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>0.76519768655796649</v>
       </c>
       <c r="F147">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>4.3298697960381107E-17</v>
       </c>
       <c r="G147">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>0.10552736056145681</v>
       </c>
       <c r="H147">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>9.6908259195060962E-17</v>
       </c>
       <c r="I147">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>-2.8643355933336899E-3</v>
       </c>
       <c r="J147">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>-1.3194993471188351E-16</v>
       </c>
       <c r="K147">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>-4.1469274059185358E-5</v>
       </c>
       <c r="L147">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>2.880281561505171E-16</v>
       </c>
       <c r="N147">
-        <f>SUM(E147:L147)</f>
+        <f t="shared" si="37"/>
         <v>0.86781924225203078</v>
       </c>
     </row>
     <row r="148" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C148">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>0.55557023301960229</v>
       </c>
       <c r="D148">
         <v>0.84725511101341611</v>
       </c>
       <c r="E148">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>0.76519768655796649</v>
       </c>
       <c r="F148">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>4.6260514837104443E-17</v>
       </c>
       <c r="G148">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>8.7943320008899581E-2</v>
       </c>
       <c r="H148">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>9.5277910045246842E-17</v>
       </c>
       <c r="I148">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>-3.5024964114389982E-3</v>
       </c>
       <c r="J148">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>-6.4978130215152409E-17</v>
       </c>
       <c r="K148">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>-3.8688517776238313E-5</v>
       </c>
       <c r="L148">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>3.7790090227791073E-16</v>
       </c>
       <c r="N148">
-        <f>SUM(E148:L148)</f>
+        <f t="shared" si="37"/>
         <v>0.84959982163765124</v>
       </c>
     </row>
     <row r="149" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C149">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>0.60000000000000009</v>
       </c>
       <c r="D149">
         <v>0.82533561490967822</v>
       </c>
       <c r="E149">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>0.76519768655796649</v>
       </c>
       <c r="F149">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>4.9960036108132052E-17</v>
       </c>
       <c r="G149">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>6.4345951561863873E-2</v>
       </c>
       <c r="H149">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>9.0927265716800315E-17</v>
       </c>
       <c r="I149">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>-4.1766039482320121E-3</v>
       </c>
       <c r="J149">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>2.5259794256271753E-17</v>
       </c>
       <c r="K149">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>-3.1498904931946552E-5</v>
       </c>
       <c r="L149">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>4.447124002382454E-16</v>
       </c>
       <c r="N149">
-        <f>SUM(E149:L149)</f>
+        <f t="shared" si="37"/>
         <v>0.82533553526666692</v>
       </c>
     </row>
     <row r="150" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C150">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>0.64000000000000012</v>
       </c>
       <c r="D150">
         <v>0.80209575788429255</v>
       </c>
       <c r="E150">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>0.76519768655796649</v>
       </c>
       <c r="F150">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>5.3290705182007524E-17</v>
       </c>
       <c r="G150">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>4.1549100151374897E-2</v>
       </c>
       <c r="H150">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>8.4654061538458318E-17</v>
       </c>
       <c r="I150">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>-4.6294460892544378E-3</v>
       </c>
       <c r="J150">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>1.0821113392012222E-16</v>
       </c>
       <c r="K150">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>-2.1723653738472852E-5</v>
       </c>
       <c r="L150">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>4.4945505414034407E-16</v>
       </c>
       <c r="N150">
-        <f>SUM(E150:L150)</f>
+        <f t="shared" si="37"/>
         <v>0.80209561696634923</v>
       </c>
     </row>
     <row r="151" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C151">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>0.67999999999999994</v>
       </c>
       <c r="D151">
         <v>0.77757271875092793</v>
       </c>
       <c r="E151">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>0.76519768655796649</v>
       </c>
       <c r="F151">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>5.6621374255882985E-17</v>
       </c>
       <c r="G151">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>1.7281484133757772E-2</v>
       </c>
       <c r="H151">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>7.5993433767962426E-17</v>
       </c>
       <c r="I151">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>-4.897255957601032E-3</v>
       </c>
       <c r="J151">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>1.8729894009084081E-16</v>
       </c>
       <c r="K151">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>-9.3760265735202868E-6</v>
       </c>
       <c r="L151">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>3.9398069379046779E-16</v>
       </c>
       <c r="N151">
-        <f>SUM(E151:L151)</f>
+        <f t="shared" si="37"/>
         <v>0.77757253870755061</v>
       </c>
     </row>
     <row r="152" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C152">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>0.72</v>
       </c>
       <c r="D152">
         <v>0.75180572914089505</v>
       </c>
       <c r="E152">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>0.76519768655796649</v>
       </c>
       <c r="F152">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>5.9952043329758457E-17</v>
       </c>
       <c r="G152">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>-8.4568964909878166E-3</v>
       </c>
       <c r="H152">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>6.4796168430802941E-17</v>
       </c>
       <c r="I152">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>-4.9398620730198087E-3</v>
       </c>
       <c r="J152">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>2.5615902359277241E-16</v>
       </c>
       <c r="K152">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>4.6147791823766895E-6</v>
       </c>
       <c r="L152">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>2.7742659769842245E-16</v>
       </c>
       <c r="N152">
-        <f>SUM(E152:L152)</f>
+        <f t="shared" si="37"/>
         <v>0.75180554277314193</v>
       </c>
     </row>
     <row r="153" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C153">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>0.76</v>
       </c>
       <c r="D153">
         <v>0.7248360107409052</v>
       </c>
       <c r="E153">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>0.76519768655796649</v>
       </c>
       <c r="F153">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>6.328271240363393E-17</v>
       </c>
       <c r="G153">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>-3.5666041722861717E-2</v>
       </c>
       <c r="H153">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>5.0913051552470278E-17</v>
       </c>
       <c r="I153">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>-4.7146583200919894E-3</v>
       </c>
       <c r="J153">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>3.0731397373529034E-16</v>
       </c>
       <c r="K153">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>1.8871351498707303E-5</v>
       </c>
       <c r="L153">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>1.0803239285962712E-16</v>
       </c>
       <c r="N153">
-        <f>SUM(E153:L153)</f>
+        <f t="shared" si="37"/>
         <v>0.72483585786651206</v>
       </c>
     </row>
     <row r="154" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C154">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>0.8</v>
       </c>
       <c r="D154">
         <v>0.69670670934716539</v>
       </c>
       <c r="E154">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>0.76519768655796649</v>
       </c>
       <c r="F154">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>6.6613381477509402E-17</v>
       </c>
       <c r="G154">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>-6.434595156186397E-2</v>
       </c>
       <c r="H154">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>3.419486915845479E-17</v>
       </c>
       <c r="I154">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>-4.1766039482320086E-3</v>
       </c>
       <c r="J154">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>3.3210767469427085E-16</v>
       </c>
       <c r="K154">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>3.1498904931946579E-5</v>
       </c>
       <c r="L154">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>-9.3802476897053865E-17</v>
       </c>
       <c r="N154">
-        <f>SUM(E154:L154)</f>
+        <f t="shared" si="37"/>
         <v>0.69670662995280275</v>
       </c>
     </row>
     <row r="155" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C155">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>0.83146961230254524</v>
       </c>
       <c r="D155">
         <v>0.66746282584130801</v>
       </c>
       <c r="E155">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>0.76519768655796649</v>
       </c>
       <c r="F155">
-        <f t="shared" ref="F155:L159" si="36">F100*F$40/F$27</f>
+        <f t="shared" ref="F155:L159" si="38">F100*F$40/F$27</f>
         <v>6.923375308908285E-17</v>
       </c>
       <c r="G155">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>-8.7943320008899636E-2</v>
       </c>
       <c r="H155">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>1.8951954646086141E-17</v>
       </c>
       <c r="I155">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>-3.5024964114389969E-3</v>
       </c>
       <c r="J155">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>3.2666712015513203E-16</v>
       </c>
       <c r="K155">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>3.868851777623832E-5</v>
       </c>
       <c r="L155">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>-2.5250531015252837E-16</v>
       </c>
       <c r="N155">
-        <f>SUM(E155:L155)</f>
+        <f t="shared" si="37"/>
         <v>0.67379055865540438</v>
       </c>
     </row>
     <row r="156" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C156">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>0.88000000000000012</v>
       </c>
       <c r="D156">
         <v>0.6371511441985801</v>
       </c>
       <c r="E156">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>0.76519768655796649</v>
       </c>
       <c r="F156">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>7.3274719625260347E-17</v>
       </c>
       <c r="G156">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>-0.12611806506125336</v>
       </c>
       <c r="H156">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>-8.3435480746630485E-18</v>
       </c>
       <c r="I156">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>-1.969607169539376E-3</v>
       </c>
       <c r="J156">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>2.6170043838646934E-16</v>
       </c>
       <c r="K156">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>4.1258330226535099E-5</v>
       </c>
       <c r="L156">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>-4.3100207890233848E-16</v>
       </c>
       <c r="N156">
-        <f>SUM(E156:L156)</f>
+        <f t="shared" si="37"/>
         <v>0.63715127265740013</v>
       </c>
     </row>
     <row r="157" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C157">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>0.91999999999999993</v>
       </c>
       <c r="D157">
         <v>0.60582015664346289</v>
       </c>
       <c r="E157">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>0.76519768655796649</v>
       </c>
       <c r="F157">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>7.6605388699135795E-17</v>
       </c>
       <c r="G157">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>-0.15921026872164035</v>
       </c>
       <c r="H157">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>-3.4462210862784487E-17</v>
       </c>
       <c r="I157">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>-1.984100857016712E-4</v>
       </c>
       <c r="J157">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>1.427043912372032E-16</v>
       </c>
       <c r="K157">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>3.133600825798866E-5</v>
       </c>
       <c r="L157">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>-4.3105462124628992E-16</v>
       </c>
       <c r="N157">
-        <f>SUM(E157:L157)</f>
+        <f t="shared" si="37"/>
         <v>0.60582034375888227</v>
       </c>
     </row>
     <row r="158" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C158">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>0.98078528040323043</v>
       </c>
       <c r="D158">
         <v>0.57351998607245669</v>
       </c>
       <c r="E158">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>0.76519768655796649</v>
       </c>
       <c r="F158">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>8.1666780038783007E-17</v>
       </c>
       <c r="G158">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>-0.21231395588560262</v>
       </c>
       <c r="H158">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>-8.0772711937263321E-17</v>
       </c>
       <c r="I158">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>3.5024964114389961E-3</v>
       </c>
       <c r="J158">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>-1.8504205934841758E-16</v>
       </c>
       <c r="K158">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>-1.6025308771030462E-5</v>
       </c>
       <c r="L158">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>8.8668073522759861E-17</v>
       </c>
       <c r="N158">
-        <f>SUM(E158:L158)</f>
+        <f t="shared" si="37"/>
         <v>0.55637020177503171</v>
       </c>
     </row>
     <row r="159" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C159">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>1</v>
       </c>
       <c r="D159">
         <v>0.54030230586813977</v>
       </c>
       <c r="E159">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>0.76519768655796649</v>
       </c>
       <c r="F159">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>8.3266726846886741E-17</v>
       </c>
       <c r="G159">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>-0.2298069698637997</v>
       </c>
       <c r="H159">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>-9.7144514654701197E-17</v>
       </c>
       <c r="I159">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>4.9532779272201261E-3</v>
       </c>
       <c r="J159">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>-3.3306690738754696E-16</v>
       </c>
       <c r="K159">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>-4.1876149881873992E-5</v>
       </c>
       <c r="L159">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>4.5449755070592346E-16</v>
       </c>
       <c r="N159">
-        <f>SUM(E159:L159)</f>
+        <f t="shared" si="37"/>
         <v>0.54030211847150522</v>
       </c>
     </row>
@@ -10423,4 +12457,700 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:F8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" s="14">
+        <f>1/5</f>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E5" t="s">
+        <v>53</v>
+      </c>
+      <c r="F5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B8">
+        <v>2</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:I30"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="I18" sqref="I18:J18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="3" width="14" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:9" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="B2" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="E2" s="15" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B3" s="17">
+        <v>0.01</v>
+      </c>
+      <c r="C3" s="17">
+        <v>578.52</v>
+      </c>
+      <c r="D3" s="17">
+        <v>0</v>
+      </c>
+      <c r="E3" s="18">
+        <v>1.9199999999999998E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B4" s="17">
+        <v>578.53</v>
+      </c>
+      <c r="C4" s="17">
+        <v>4910.18</v>
+      </c>
+      <c r="D4" s="17">
+        <v>11.11</v>
+      </c>
+      <c r="E4" s="18">
+        <v>6.4000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B5" s="17">
+        <v>4910.1899999999996</v>
+      </c>
+      <c r="C5" s="17">
+        <v>8629.2000000000007</v>
+      </c>
+      <c r="D5" s="17">
+        <v>238.33</v>
+      </c>
+      <c r="E5" s="18">
+        <v>0.10879999999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B6" s="17">
+        <v>8629.2099999999991</v>
+      </c>
+      <c r="C6" s="17">
+        <v>10031.07</v>
+      </c>
+      <c r="D6" s="17">
+        <v>692.96</v>
+      </c>
+      <c r="E6" s="18">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B7" s="17">
+        <v>10031.08</v>
+      </c>
+      <c r="C7" s="17">
+        <v>12009.94</v>
+      </c>
+      <c r="D7" s="17">
+        <v>917.26</v>
+      </c>
+      <c r="E7" s="18">
+        <v>0.1792</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B8" s="17">
+        <v>12009.95</v>
+      </c>
+      <c r="C8" s="17">
+        <v>24222.31</v>
+      </c>
+      <c r="D8" s="17">
+        <v>1271.8699999999999</v>
+      </c>
+      <c r="E8" s="18">
+        <v>0.21360000000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B9" s="17">
+        <v>24222.32</v>
+      </c>
+      <c r="C9" s="17">
+        <v>38177.69</v>
+      </c>
+      <c r="D9" s="17">
+        <v>3880.44</v>
+      </c>
+      <c r="E9" s="18">
+        <v>0.23519999999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B10" s="17">
+        <v>38177.699999999997</v>
+      </c>
+      <c r="C10" s="17">
+        <v>72887.5</v>
+      </c>
+      <c r="D10" s="17">
+        <v>7162.74</v>
+      </c>
+      <c r="E10" s="18">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B11" s="17">
+        <v>72887.509999999995</v>
+      </c>
+      <c r="C11" s="17">
+        <v>97183.33</v>
+      </c>
+      <c r="D11" s="17">
+        <v>17575.689999999999</v>
+      </c>
+      <c r="E11" s="18">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B12" s="17">
+        <v>97183.34</v>
+      </c>
+      <c r="C12" s="17">
+        <v>291550</v>
+      </c>
+      <c r="D12" s="17">
+        <v>25350.35</v>
+      </c>
+      <c r="E12" s="18">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="B13" s="17">
+        <v>291550.01</v>
+      </c>
+      <c r="C13" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="D13" s="17">
+        <v>91435.02</v>
+      </c>
+      <c r="E13" s="18">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B15" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="C15" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="D15" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="E15" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="F15" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="G15" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="H15" s="19" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B16" s="22">
+        <v>17429.482044760942</v>
+      </c>
+      <c r="C16" s="22">
+        <f>LOOKUP($B16,$B$3:$B$13,$B$3:$B$13)</f>
+        <v>12009.95</v>
+      </c>
+      <c r="D16" s="22">
+        <f>LOOKUP($B16,$B$3:$B$13,$C$3:$C$13)</f>
+        <v>24222.31</v>
+      </c>
+      <c r="E16" s="22">
+        <f>LOOKUP($B16,$B$3:$B$13,$D$3:$D$13)</f>
+        <v>1271.8699999999999</v>
+      </c>
+      <c r="F16" s="21">
+        <f>LOOKUP($B16,$B$3:$B$13,$E$3:$E$13)</f>
+        <v>0.21360000000000001</v>
+      </c>
+      <c r="G16" s="20">
+        <f>E16+F16*(B16-C16)</f>
+        <v>2429.4820447609372</v>
+      </c>
+      <c r="H16" s="20">
+        <f>B16-G16</f>
+        <v>15000.000000000004</v>
+      </c>
+      <c r="I16" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B17" s="22">
+        <v>292000</v>
+      </c>
+      <c r="C17" s="22">
+        <f>LOOKUP($B17,$B$3:$B$13,$B$3:$B$13)</f>
+        <v>291550.01</v>
+      </c>
+      <c r="D17" s="22" t="str">
+        <f>LOOKUP($B17,$B$3:$B$13,$C$3:$C$13)</f>
+        <v>En Adelante</v>
+      </c>
+      <c r="E17" s="22">
+        <f>LOOKUP($B17,$B$3:$B$13,$D$3:$D$13)</f>
+        <v>91435.02</v>
+      </c>
+      <c r="F17" s="21">
+        <f>LOOKUP($B17,$B$3:$B$13,$E$3:$E$13)</f>
+        <v>0.35</v>
+      </c>
+      <c r="G17" s="20">
+        <f>E17+F17*(B17-C17)</f>
+        <v>91592.516499999998</v>
+      </c>
+      <c r="H17" s="20">
+        <f>B17-G17</f>
+        <v>200407.4835</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B19" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="C19" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="D19" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="E19" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="F19" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="G19" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="H19" s="19" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B20" s="23">
+        <v>0.01</v>
+      </c>
+      <c r="C20" s="23">
+        <f>LOOKUP($B20,$B$3:$B$13,$B$3:$B$13)</f>
+        <v>0.01</v>
+      </c>
+      <c r="D20" s="22">
+        <f>LOOKUP($B20,$B$3:$B$13,$C$3:$C$13)</f>
+        <v>578.52</v>
+      </c>
+      <c r="E20" s="22">
+        <f>LOOKUP($B20,$B$3:$B$13,$D$3:$D$13)</f>
+        <v>0</v>
+      </c>
+      <c r="F20" s="21">
+        <f>LOOKUP($B20,$B$3:$B$13,$E$3:$E$13)</f>
+        <v>1.9199999999999998E-2</v>
+      </c>
+      <c r="G20" s="20">
+        <f t="shared" ref="G20:G30" si="0">E20+F20*(B20-C20)</f>
+        <v>0</v>
+      </c>
+      <c r="H20" s="20">
+        <f t="shared" ref="H20:H30" si="1">B20-G20</f>
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B21" s="22">
+        <v>578.53</v>
+      </c>
+      <c r="C21" s="22">
+        <f>LOOKUP($B21,$B$3:$B$13,$B$3:$B$13)</f>
+        <v>578.53</v>
+      </c>
+      <c r="D21" s="22">
+        <f>LOOKUP($B21,$B$3:$B$13,$C$3:$C$13)</f>
+        <v>4910.18</v>
+      </c>
+      <c r="E21" s="22">
+        <f>LOOKUP($B21,$B$3:$B$13,$D$3:$D$13)</f>
+        <v>11.11</v>
+      </c>
+      <c r="F21" s="21">
+        <f>LOOKUP($B21,$B$3:$B$13,$E$3:$E$13)</f>
+        <v>6.4000000000000001E-2</v>
+      </c>
+      <c r="G21" s="20">
+        <f t="shared" si="0"/>
+        <v>11.11</v>
+      </c>
+      <c r="H21" s="20">
+        <f t="shared" si="1"/>
+        <v>567.41999999999996</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B22" s="22">
+        <v>4910.1899999999996</v>
+      </c>
+      <c r="C22" s="22">
+        <f>LOOKUP($B22,$B$3:$B$13,$B$3:$B$13)</f>
+        <v>4910.1899999999996</v>
+      </c>
+      <c r="D22" s="22">
+        <f>LOOKUP($B22,$B$3:$B$13,$C$3:$C$13)</f>
+        <v>8629.2000000000007</v>
+      </c>
+      <c r="E22" s="22">
+        <f>LOOKUP($B22,$B$3:$B$13,$D$3:$D$13)</f>
+        <v>238.33</v>
+      </c>
+      <c r="F22" s="21">
+        <f>LOOKUP($B22,$B$3:$B$13,$E$3:$E$13)</f>
+        <v>0.10879999999999999</v>
+      </c>
+      <c r="G22" s="20">
+        <f t="shared" si="0"/>
+        <v>238.33</v>
+      </c>
+      <c r="H22" s="20">
+        <f t="shared" si="1"/>
+        <v>4671.8599999999997</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B23" s="22">
+        <v>8629.2099999999991</v>
+      </c>
+      <c r="C23" s="22">
+        <f>LOOKUP($B23,$B$3:$B$13,$B$3:$B$13)</f>
+        <v>8629.2099999999991</v>
+      </c>
+      <c r="D23" s="22">
+        <f>LOOKUP($B23,$B$3:$B$13,$C$3:$C$13)</f>
+        <v>10031.07</v>
+      </c>
+      <c r="E23" s="22">
+        <f>LOOKUP($B23,$B$3:$B$13,$D$3:$D$13)</f>
+        <v>692.96</v>
+      </c>
+      <c r="F23" s="21">
+        <f>LOOKUP($B23,$B$3:$B$13,$E$3:$E$13)</f>
+        <v>0.16</v>
+      </c>
+      <c r="G23" s="20">
+        <f t="shared" si="0"/>
+        <v>692.96</v>
+      </c>
+      <c r="H23" s="20">
+        <f t="shared" si="1"/>
+        <v>7936.2499999999991</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B24" s="22">
+        <v>10031.08</v>
+      </c>
+      <c r="C24" s="22">
+        <f>LOOKUP($B24,$B$3:$B$13,$B$3:$B$13)</f>
+        <v>10031.08</v>
+      </c>
+      <c r="D24" s="22">
+        <f>LOOKUP($B24,$B$3:$B$13,$C$3:$C$13)</f>
+        <v>12009.94</v>
+      </c>
+      <c r="E24" s="22">
+        <f>LOOKUP($B24,$B$3:$B$13,$D$3:$D$13)</f>
+        <v>917.26</v>
+      </c>
+      <c r="F24" s="21">
+        <f>LOOKUP($B24,$B$3:$B$13,$E$3:$E$13)</f>
+        <v>0.1792</v>
+      </c>
+      <c r="G24" s="20">
+        <f t="shared" si="0"/>
+        <v>917.26</v>
+      </c>
+      <c r="H24" s="20">
+        <f t="shared" si="1"/>
+        <v>9113.82</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B25" s="22">
+        <v>12009.95</v>
+      </c>
+      <c r="C25" s="22">
+        <f>LOOKUP($B25,$B$3:$B$13,$B$3:$B$13)</f>
+        <v>12009.95</v>
+      </c>
+      <c r="D25" s="22">
+        <f>LOOKUP($B25,$B$3:$B$13,$C$3:$C$13)</f>
+        <v>24222.31</v>
+      </c>
+      <c r="E25" s="22">
+        <f>LOOKUP($B25,$B$3:$B$13,$D$3:$D$13)</f>
+        <v>1271.8699999999999</v>
+      </c>
+      <c r="F25" s="21">
+        <f>LOOKUP($B25,$B$3:$B$13,$E$3:$E$13)</f>
+        <v>0.21360000000000001</v>
+      </c>
+      <c r="G25" s="20">
+        <f t="shared" si="0"/>
+        <v>1271.8699999999999</v>
+      </c>
+      <c r="H25" s="20">
+        <f t="shared" si="1"/>
+        <v>10738.080000000002</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B26" s="22">
+        <v>24222.32</v>
+      </c>
+      <c r="C26" s="22">
+        <f>LOOKUP($B26,$B$3:$B$13,$B$3:$B$13)</f>
+        <v>24222.32</v>
+      </c>
+      <c r="D26" s="22">
+        <f>LOOKUP($B26,$B$3:$B$13,$C$3:$C$13)</f>
+        <v>38177.69</v>
+      </c>
+      <c r="E26" s="22">
+        <f>LOOKUP($B26,$B$3:$B$13,$D$3:$D$13)</f>
+        <v>3880.44</v>
+      </c>
+      <c r="F26" s="21">
+        <f>LOOKUP($B26,$B$3:$B$13,$E$3:$E$13)</f>
+        <v>0.23519999999999999</v>
+      </c>
+      <c r="G26" s="20">
+        <f t="shared" si="0"/>
+        <v>3880.44</v>
+      </c>
+      <c r="H26" s="20">
+        <f t="shared" si="1"/>
+        <v>20341.88</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B27" s="22">
+        <v>38177.699999999997</v>
+      </c>
+      <c r="C27" s="22">
+        <f>LOOKUP($B27,$B$3:$B$13,$B$3:$B$13)</f>
+        <v>38177.699999999997</v>
+      </c>
+      <c r="D27" s="22">
+        <f>LOOKUP($B27,$B$3:$B$13,$C$3:$C$13)</f>
+        <v>72887.5</v>
+      </c>
+      <c r="E27" s="22">
+        <f>LOOKUP($B27,$B$3:$B$13,$D$3:$D$13)</f>
+        <v>7162.74</v>
+      </c>
+      <c r="F27" s="21">
+        <f>LOOKUP($B27,$B$3:$B$13,$E$3:$E$13)</f>
+        <v>0.3</v>
+      </c>
+      <c r="G27" s="20">
+        <f t="shared" si="0"/>
+        <v>7162.74</v>
+      </c>
+      <c r="H27" s="20">
+        <f t="shared" si="1"/>
+        <v>31014.959999999999</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B28" s="22">
+        <v>72887.509999999995</v>
+      </c>
+      <c r="C28" s="22">
+        <f>LOOKUP($B28,$B$3:$B$13,$B$3:$B$13)</f>
+        <v>72887.509999999995</v>
+      </c>
+      <c r="D28" s="22">
+        <f>LOOKUP($B28,$B$3:$B$13,$C$3:$C$13)</f>
+        <v>97183.33</v>
+      </c>
+      <c r="E28" s="22">
+        <f>LOOKUP($B28,$B$3:$B$13,$D$3:$D$13)</f>
+        <v>17575.689999999999</v>
+      </c>
+      <c r="F28" s="21">
+        <f>LOOKUP($B28,$B$3:$B$13,$E$3:$E$13)</f>
+        <v>0.32</v>
+      </c>
+      <c r="G28" s="20">
+        <f t="shared" si="0"/>
+        <v>17575.689999999999</v>
+      </c>
+      <c r="H28" s="20">
+        <f t="shared" si="1"/>
+        <v>55311.819999999992</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B29" s="22">
+        <v>97183.34</v>
+      </c>
+      <c r="C29" s="22">
+        <f>LOOKUP($B29,$B$3:$B$13,$B$3:$B$13)</f>
+        <v>97183.34</v>
+      </c>
+      <c r="D29" s="22">
+        <f>LOOKUP($B29,$B$3:$B$13,$C$3:$C$13)</f>
+        <v>291550</v>
+      </c>
+      <c r="E29" s="22">
+        <f>LOOKUP($B29,$B$3:$B$13,$D$3:$D$13)</f>
+        <v>25350.35</v>
+      </c>
+      <c r="F29" s="21">
+        <f>LOOKUP($B29,$B$3:$B$13,$E$3:$E$13)</f>
+        <v>0.34</v>
+      </c>
+      <c r="G29" s="20">
+        <f t="shared" si="0"/>
+        <v>25350.35</v>
+      </c>
+      <c r="H29" s="20">
+        <f t="shared" si="1"/>
+        <v>71832.989999999991</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B30" s="22">
+        <v>291550.01</v>
+      </c>
+      <c r="C30" s="22">
+        <f>LOOKUP($B30,$B$3:$B$13,$B$3:$B$13)</f>
+        <v>291550.01</v>
+      </c>
+      <c r="D30" s="22" t="str">
+        <f>LOOKUP($B30,$B$3:$B$13,$C$3:$C$13)</f>
+        <v>En Adelante</v>
+      </c>
+      <c r="E30" s="22">
+        <f>LOOKUP($B30,$B$3:$B$13,$D$3:$D$13)</f>
+        <v>91435.02</v>
+      </c>
+      <c r="F30" s="21">
+        <f>LOOKUP($B30,$B$3:$B$13,$E$3:$E$13)</f>
+        <v>0.35</v>
+      </c>
+      <c r="G30" s="20">
+        <f t="shared" si="0"/>
+        <v>91435.02</v>
+      </c>
+      <c r="H30" s="20">
+        <f t="shared" si="1"/>
+        <v>200114.99</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>